--- a/Validatiematrix.xlsx
+++ b/Validatiematrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w.quak\Git\Geonovum\dso-validatiematrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80EF206-D8DE-4D06-AF8D-591E3121F65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D477C021-8A69-4588-9EA5-86D456E071F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13290" yWindow="-21600" windowWidth="26010" windowHeight="20985" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Legenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validatieregels!$A$1:$K$788</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validatieregels!$A$1:$K$837</definedName>
     <definedName name="_Hlk45872431" localSheetId="0">Validatieregels!$D$143</definedName>
     <definedName name="_Hlk45872452" localSheetId="0">Validatieregels!$D$144</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Legenda!$A:$B</definedName>
@@ -7523,9 +7523,6 @@
     <t>Als soortRegeling = 'Instructie' dan MOET de eindverantwoordelijke van het besluit een waarde uit waardelijst 'Ministerie' of 'Provincie' zijn.</t>
   </si>
   <si>
-    <t>Als soortRegeling = 'Instructie' dan MOET  voor de regeling RegelingCompact gebruikt worden.</t>
-  </si>
-  <si>
     <t>Als soortRegeling = 'Instructie' dan MOET voor het instellings- of wijzigingsbesluit BesluitCompact gebruikt worden.</t>
   </si>
   <si>
@@ -7707,6 +7704,9 @@
   </si>
   <si>
     <t>In te trekken regelingversie %1 is niet juridisch werkend (meer), hierdoor kan de regeling niet worden ingetrokken.</t>
+  </si>
+  <si>
+    <t>Als soortRegeling = 'Instructie' dan MOET  voor de regeling RegelingVrijetekst gebruikt worden.</t>
   </si>
 </sst>
 </file>
@@ -8069,9 +8069,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8083,6 +8080,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -8096,117 +8096,7 @@
     <cellStyle name="Standaard 3 3" xfId="5" xr:uid="{C77AD319-D6C6-4ABD-AE5A-A2C0A40B68E7}"/>
     <cellStyle name="Standaard 4" xfId="8" xr:uid="{3FC1731B-057F-4885-8A5E-A86ED814C7D6}"/>
   </cellStyles>
-  <dxfs count="87">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -9337,14 +9227,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K837"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C812" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C796" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F831" sqref="F831"/>
+      <selection pane="bottomRight" activeCell="C842" sqref="C842"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -9398,7 +9289,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -9425,7 +9316,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="27.6">
+    <row r="3" spans="1:11" ht="27.6" hidden="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -9454,7 +9345,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="27.6">
+    <row r="4" spans="1:11" ht="27.6" hidden="1">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -9485,7 +9376,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="27.6">
+    <row r="5" spans="1:11" ht="27.6" hidden="1">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -9514,7 +9405,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="27.6">
+    <row r="6" spans="1:11" ht="27.6" hidden="1">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -9545,7 +9436,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="27.6">
+    <row r="7" spans="1:11" ht="27.6" hidden="1">
       <c r="A7" s="16">
         <v>2</v>
       </c>
@@ -9574,7 +9465,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="41.4">
+    <row r="8" spans="1:11" ht="41.4" hidden="1">
       <c r="A8" s="16">
         <v>2</v>
       </c>
@@ -9603,7 +9494,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="27.6">
+    <row r="9" spans="1:11" ht="27.6" hidden="1">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -9634,7 +9525,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -9665,7 +9556,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="27.6">
+    <row r="11" spans="1:11" ht="27.6" hidden="1">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -9696,7 +9587,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="27.6">
+    <row r="12" spans="1:11" ht="27.6" hidden="1">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -9723,7 +9614,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="27.6">
+    <row r="13" spans="1:11" ht="27.6" hidden="1">
       <c r="A13" s="16">
         <v>2</v>
       </c>
@@ -9750,7 +9641,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="27.6">
+    <row r="14" spans="1:11" ht="27.6" hidden="1">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -9777,7 +9668,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="27.6">
+    <row r="15" spans="1:11" ht="27.6" hidden="1">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -9806,7 +9697,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" ht="27.6">
+    <row r="16" spans="1:11" ht="27.6" hidden="1">
       <c r="A16" s="16">
         <v>2</v>
       </c>
@@ -9837,7 +9728,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="27.6">
+    <row r="17" spans="1:11" ht="27.6" hidden="1">
       <c r="A17" s="16">
         <v>2</v>
       </c>
@@ -9870,7 +9761,7 @@
       </c>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" ht="27.6">
+    <row r="18" spans="1:11" ht="27.6" hidden="1">
       <c r="A18" s="16">
         <v>2</v>
       </c>
@@ -9897,7 +9788,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="41.4">
+    <row r="19" spans="1:11" ht="41.4" hidden="1">
       <c r="A19" s="16">
         <v>2</v>
       </c>
@@ -9926,7 +9817,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="27.6">
+    <row r="20" spans="1:11" ht="27.6" hidden="1">
       <c r="A20" s="16">
         <v>2</v>
       </c>
@@ -9953,7 +9844,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="41.4">
+    <row r="21" spans="1:11" ht="41.4" hidden="1">
       <c r="A21" s="16">
         <v>2</v>
       </c>
@@ -9982,7 +9873,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="27.6">
+    <row r="22" spans="1:11" ht="27.6" hidden="1">
       <c r="A22" s="16">
         <v>2</v>
       </c>
@@ -10011,7 +9902,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" ht="41.4">
+    <row r="23" spans="1:11" ht="41.4" hidden="1">
       <c r="A23" s="16">
         <v>2</v>
       </c>
@@ -10040,7 +9931,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="16">
         <v>2</v>
       </c>
@@ -10067,7 +9958,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="16">
         <v>6</v>
       </c>
@@ -10094,7 +9985,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" ht="41.4">
+    <row r="26" spans="1:11" ht="41.4" hidden="1">
       <c r="A26" s="16">
         <v>6</v>
       </c>
@@ -10125,7 +10016,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="16">
         <v>6</v>
       </c>
@@ -10152,7 +10043,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="16">
         <v>6</v>
       </c>
@@ -10179,7 +10070,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11" ht="27.6">
+    <row r="29" spans="1:11" ht="27.6" hidden="1">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -10206,7 +10097,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="16">
         <v>6</v>
       </c>
@@ -10233,7 +10124,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
+    <row r="31" spans="1:11" ht="27.6" hidden="1">
       <c r="A31" s="9">
         <v>4</v>
       </c>
@@ -10260,7 +10151,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" ht="27.6">
+    <row r="32" spans="1:11" ht="27.6" hidden="1">
       <c r="A32" s="9">
         <v>4</v>
       </c>
@@ -10287,7 +10178,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11" ht="27.6">
+    <row r="33" spans="1:11" ht="27.6" hidden="1">
       <c r="A33" s="9">
         <v>4</v>
       </c>
@@ -10314,7 +10205,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" ht="27.6">
+    <row r="34" spans="1:11" ht="27.6" hidden="1">
       <c r="A34" s="9">
         <v>4</v>
       </c>
@@ -10341,7 +10232,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:11" ht="27.6">
+    <row r="35" spans="1:11" ht="27.6" hidden="1">
       <c r="A35" s="9">
         <v>4</v>
       </c>
@@ -10368,7 +10259,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="16">
         <v>1</v>
       </c>
@@ -10395,7 +10286,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="16">
         <v>1</v>
       </c>
@@ -10422,7 +10313,7 @@
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="16">
         <v>1</v>
       </c>
@@ -10449,7 +10340,7 @@
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="16">
         <v>1</v>
       </c>
@@ -10476,7 +10367,7 @@
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="16">
         <v>1</v>
       </c>
@@ -10503,7 +10394,7 @@
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="1:11" ht="27.6">
+    <row r="41" spans="1:11" ht="27.6" hidden="1">
       <c r="A41" s="16">
         <v>1</v>
       </c>
@@ -10530,7 +10421,7 @@
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
     </row>
-    <row r="42" spans="1:11" ht="27.6">
+    <row r="42" spans="1:11" ht="27.6" hidden="1">
       <c r="A42" s="16">
         <v>1</v>
       </c>
@@ -10557,7 +10448,7 @@
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
     </row>
-    <row r="43" spans="1:11" ht="27.6">
+    <row r="43" spans="1:11" ht="27.6" hidden="1">
       <c r="A43" s="16">
         <v>1</v>
       </c>
@@ -10584,7 +10475,7 @@
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="1:11" ht="27.6">
+    <row r="44" spans="1:11" ht="27.6" hidden="1">
       <c r="A44" s="16">
         <v>1</v>
       </c>
@@ -10611,7 +10502,7 @@
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
     </row>
-    <row r="45" spans="1:11" ht="27.6">
+    <row r="45" spans="1:11" ht="27.6" hidden="1">
       <c r="A45" s="16">
         <v>1</v>
       </c>
@@ -10638,7 +10529,7 @@
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="16">
         <v>1</v>
       </c>
@@ -10665,7 +10556,7 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" ht="27.6">
+    <row r="47" spans="1:11" ht="27.6" hidden="1">
       <c r="A47" s="16">
         <v>1</v>
       </c>
@@ -10692,7 +10583,7 @@
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
     </row>
-    <row r="48" spans="1:11" ht="27.6">
+    <row r="48" spans="1:11" ht="27.6" hidden="1">
       <c r="A48" s="16">
         <v>1</v>
       </c>
@@ -10719,7 +10610,7 @@
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
     </row>
-    <row r="49" spans="1:11" ht="27.6">
+    <row r="49" spans="1:11" ht="27.6" hidden="1">
       <c r="A49" s="16">
         <v>1</v>
       </c>
@@ -10746,7 +10637,7 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
     </row>
-    <row r="50" spans="1:11" ht="27.6">
+    <row r="50" spans="1:11" ht="27.6" hidden="1">
       <c r="A50" s="16">
         <v>1</v>
       </c>
@@ -10773,7 +10664,7 @@
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
     </row>
-    <row r="51" spans="1:11" ht="27.6">
+    <row r="51" spans="1:11" ht="27.6" hidden="1">
       <c r="A51" s="16">
         <v>1</v>
       </c>
@@ -10800,7 +10691,7 @@
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" spans="1:11" ht="27.6">
+    <row r="52" spans="1:11" ht="27.6" hidden="1">
       <c r="A52" s="16">
         <v>1</v>
       </c>
@@ -10827,7 +10718,7 @@
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
     </row>
-    <row r="53" spans="1:11" ht="27.6">
+    <row r="53" spans="1:11" ht="27.6" hidden="1">
       <c r="A53" s="16">
         <v>1</v>
       </c>
@@ -10854,7 +10745,7 @@
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" ht="27.6">
+    <row r="54" spans="1:11" ht="27.6" hidden="1">
       <c r="A54" s="16">
         <v>1</v>
       </c>
@@ -10881,7 +10772,7 @@
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
     </row>
-    <row r="55" spans="1:11" ht="27.6">
+    <row r="55" spans="1:11" ht="27.6" hidden="1">
       <c r="A55" s="16">
         <v>2</v>
       </c>
@@ -10910,7 +10801,7 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="16">
         <v>2</v>
       </c>
@@ -10939,7 +10830,7 @@
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
     </row>
-    <row r="57" spans="1:11" ht="124.2">
+    <row r="57" spans="1:11" ht="124.2" hidden="1">
       <c r="A57" s="16">
         <v>2</v>
       </c>
@@ -10966,7 +10857,7 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
-    <row r="58" spans="1:11" ht="110.4">
+    <row r="58" spans="1:11" ht="110.4" hidden="1">
       <c r="A58" s="16">
         <v>2</v>
       </c>
@@ -10993,7 +10884,7 @@
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
     </row>
-    <row r="59" spans="1:11" ht="27.6">
+    <row r="59" spans="1:11" ht="27.6" hidden="1">
       <c r="A59" s="16">
         <v>2</v>
       </c>
@@ -11020,7 +10911,7 @@
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
     </row>
-    <row r="60" spans="1:11" ht="27.6">
+    <row r="60" spans="1:11" ht="27.6" hidden="1">
       <c r="A60" s="16">
         <v>2</v>
       </c>
@@ -11047,7 +10938,7 @@
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="1:11" ht="27.6">
+    <row r="61" spans="1:11" ht="27.6" hidden="1">
       <c r="A61" s="16">
         <v>2</v>
       </c>
@@ -11076,7 +10967,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="16">
         <v>2</v>
       </c>
@@ -11105,7 +10996,7 @@
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
     </row>
-    <row r="63" spans="1:11" ht="69">
+    <row r="63" spans="1:11" ht="69" hidden="1">
       <c r="A63" s="16">
         <v>2</v>
       </c>
@@ -11132,7 +11023,7 @@
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="1:11" ht="165.6">
+    <row r="64" spans="1:11" ht="165.6" hidden="1">
       <c r="A64" s="16">
         <v>2</v>
       </c>
@@ -11159,7 +11050,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" s="16">
         <v>2</v>
       </c>
@@ -11186,7 +11077,7 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="1:11" ht="14.4">
+    <row r="66" spans="1:11" ht="14.4" hidden="1">
       <c r="A66" s="16">
         <v>1</v>
       </c>
@@ -11211,7 +11102,7 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="1:11" ht="72">
+    <row r="67" spans="1:11" ht="72" hidden="1">
       <c r="A67" s="16">
         <v>1</v>
       </c>
@@ -11219,7 +11110,7 @@
         <v>1694</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>71</v>
@@ -11231,39 +11122,39 @@
         <v>3</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="1:11" ht="57.6">
+    <row r="68" spans="1:11" ht="57.6" hidden="1">
       <c r="A68" s="27" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B68" s="20" t="s">
         <v>2305</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="C68" s="2" t="s">
         <v>2306</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>2307</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F68" s="21" t="s">
+        <v>2307</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>2308</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>2309</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
     </row>
-    <row r="69" spans="1:11" ht="100.8">
+    <row r="69" spans="1:11" ht="100.8" hidden="1">
       <c r="A69" s="16">
         <v>2</v>
       </c>
@@ -11290,7 +11181,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
     </row>
-    <row r="70" spans="1:11" ht="41.4">
+    <row r="70" spans="1:11" ht="41.4" hidden="1">
       <c r="A70" s="16">
         <v>2</v>
       </c>
@@ -11325,7 +11216,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="27.6">
+    <row r="71" spans="1:11" ht="27.6" hidden="1">
       <c r="A71" s="16">
         <v>2</v>
       </c>
@@ -11352,7 +11243,7 @@
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72" s="16">
         <v>2</v>
       </c>
@@ -11379,7 +11270,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" spans="1:11" ht="41.4">
+    <row r="73" spans="1:11" ht="41.4" hidden="1">
       <c r="A73" s="16">
         <v>2</v>
       </c>
@@ -11406,7 +11297,7 @@
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" s="16">
         <v>2</v>
       </c>
@@ -11433,7 +11324,7 @@
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" s="16">
         <v>2</v>
       </c>
@@ -11460,7 +11351,7 @@
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76" s="16">
         <v>2</v>
       </c>
@@ -11487,7 +11378,7 @@
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77" s="16">
         <v>2</v>
       </c>
@@ -11514,7 +11405,7 @@
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1">
+    <row r="78" spans="1:11" s="12" customFormat="1" hidden="1">
       <c r="A78" s="16">
         <v>2</v>
       </c>
@@ -11541,7 +11432,7 @@
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" ht="110.4">
+    <row r="79" spans="1:11" s="12" customFormat="1" ht="110.4" hidden="1">
       <c r="A79" s="16">
         <v>2</v>
       </c>
@@ -11574,7 +11465,7 @@
       </c>
       <c r="K79" s="17"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" ht="41.4">
+    <row r="80" spans="1:11" s="12" customFormat="1" ht="41.4" hidden="1">
       <c r="A80" s="16">
         <v>2</v>
       </c>
@@ -11607,7 +11498,7 @@
       </c>
       <c r="K80" s="17"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1">
+    <row r="81" spans="1:11" s="12" customFormat="1" hidden="1">
       <c r="A81" s="16">
         <v>2</v>
       </c>
@@ -11634,7 +11525,7 @@
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" s="16">
         <v>2</v>
       </c>
@@ -11661,7 +11552,7 @@
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" s="16">
         <v>2</v>
       </c>
@@ -11688,7 +11579,7 @@
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
     </row>
-    <row r="84" spans="1:11" ht="27.6">
+    <row r="84" spans="1:11" ht="27.6" hidden="1">
       <c r="A84" s="16">
         <v>2</v>
       </c>
@@ -11721,15 +11612,15 @@
       </c>
       <c r="K84" s="17"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" s="16">
         <v>2</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C85" s="44" t="s">
-        <v>2310</v>
+      <c r="C85" s="43" t="s">
+        <v>2309</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>914</v>
@@ -11748,15 +11639,15 @@
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" s="16">
         <v>2</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="44" t="s">
-        <v>2311</v>
+      <c r="C86" s="43" t="s">
+        <v>2310</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>914</v>
@@ -11775,15 +11666,15 @@
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87" s="16">
         <v>2</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="44" t="s">
-        <v>2312</v>
+      <c r="C87" s="43" t="s">
+        <v>2311</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>914</v>
@@ -11802,7 +11693,7 @@
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88" s="16">
         <v>2</v>
       </c>
@@ -11829,7 +11720,7 @@
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
     </row>
-    <row r="89" spans="1:11" ht="27.6">
+    <row r="89" spans="1:11" ht="27.6" hidden="1">
       <c r="A89" s="16">
         <v>2</v>
       </c>
@@ -11856,7 +11747,7 @@
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
     </row>
-    <row r="90" spans="1:11" ht="27.6">
+    <row r="90" spans="1:11" ht="27.6" hidden="1">
       <c r="A90" s="16">
         <v>2</v>
       </c>
@@ -11887,7 +11778,7 @@
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
     </row>
-    <row r="91" spans="1:11" ht="55.2">
+    <row r="91" spans="1:11" ht="55.2" hidden="1">
       <c r="A91" s="16">
         <v>2</v>
       </c>
@@ -11914,7 +11805,7 @@
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" hidden="1">
       <c r="A92" s="16">
         <v>2</v>
       </c>
@@ -11941,7 +11832,7 @@
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
     </row>
-    <row r="93" spans="1:11" ht="41.4">
+    <row r="93" spans="1:11" ht="41.4" hidden="1">
       <c r="A93" s="16">
         <v>2</v>
       </c>
@@ -11972,7 +11863,7 @@
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
     </row>
-    <row r="94" spans="1:11" ht="27.6">
+    <row r="94" spans="1:11" ht="27.6" hidden="1">
       <c r="A94" s="16">
         <v>2</v>
       </c>
@@ -12003,7 +11894,7 @@
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
     </row>
-    <row r="95" spans="1:11" ht="27.6">
+    <row r="95" spans="1:11" ht="27.6" hidden="1">
       <c r="A95" s="16"/>
       <c r="B95" s="34" t="s">
         <v>1695</v>
@@ -12026,7 +11917,7 @@
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:11" ht="14.4">
+    <row r="96" spans="1:11" ht="14.4" hidden="1">
       <c r="A96" s="16"/>
       <c r="B96" s="34" t="s">
         <v>1696</v>
@@ -12049,7 +11940,7 @@
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:11" ht="27.6">
+    <row r="97" spans="1:11" ht="27.6" hidden="1">
       <c r="A97" s="16"/>
       <c r="B97" s="34" t="s">
         <v>1697</v>
@@ -12072,7 +11963,7 @@
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="1:11" ht="14.4">
+    <row r="98" spans="1:11" ht="14.4" hidden="1">
       <c r="A98" s="16"/>
       <c r="B98" s="34" t="s">
         <v>1698</v>
@@ -12095,7 +11986,7 @@
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99" s="16">
         <v>2</v>
       </c>
@@ -12122,7 +12013,7 @@
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" hidden="1">
       <c r="A100" s="16">
         <v>2</v>
       </c>
@@ -12149,7 +12040,7 @@
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" hidden="1">
       <c r="A101" s="16">
         <v>2</v>
       </c>
@@ -12176,7 +12067,7 @@
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
     </row>
-    <row r="102" spans="1:11" ht="14.4">
+    <row r="102" spans="1:11" ht="14.4" hidden="1">
       <c r="A102" s="16"/>
       <c r="B102" s="9" t="s">
         <v>1700</v>
@@ -12199,7 +12090,7 @@
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="1:11" ht="27.6">
+    <row r="103" spans="1:11" ht="27.6" hidden="1">
       <c r="A103" s="16">
         <v>2</v>
       </c>
@@ -12230,7 +12121,7 @@
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
     </row>
-    <row r="104" spans="1:11" ht="41.4">
+    <row r="104" spans="1:11" ht="41.4" hidden="1">
       <c r="A104" s="27" t="s">
         <v>1702</v>
       </c>
@@ -12255,7 +12146,7 @@
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
     </row>
-    <row r="105" spans="1:11" ht="55.2">
+    <row r="105" spans="1:11" ht="55.2" hidden="1">
       <c r="A105" s="16">
         <v>2</v>
       </c>
@@ -12284,7 +12175,7 @@
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
     </row>
-    <row r="106" spans="1:11" ht="41.4">
+    <row r="106" spans="1:11" ht="41.4" hidden="1">
       <c r="A106" s="16">
         <v>2</v>
       </c>
@@ -12311,7 +12202,7 @@
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" hidden="1">
       <c r="A107" s="16">
         <v>2</v>
       </c>
@@ -12338,7 +12229,7 @@
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
     </row>
-    <row r="108" spans="1:11" ht="69">
+    <row r="108" spans="1:11" ht="69" hidden="1">
       <c r="A108" s="16">
         <v>2</v>
       </c>
@@ -12373,7 +12264,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="69">
+    <row r="109" spans="1:11" ht="69" hidden="1">
       <c r="A109" s="16">
         <v>2</v>
       </c>
@@ -12408,7 +12299,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="69">
+    <row r="110" spans="1:11" ht="69" hidden="1">
       <c r="A110" s="16">
         <v>2</v>
       </c>
@@ -12443,7 +12334,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="69">
+    <row r="111" spans="1:11" ht="69" hidden="1">
       <c r="A111" s="16">
         <v>2</v>
       </c>
@@ -12476,7 +12367,7 @@
       </c>
       <c r="K111" s="17"/>
     </row>
-    <row r="112" spans="1:11" ht="69">
+    <row r="112" spans="1:11" ht="69" hidden="1">
       <c r="A112" s="16">
         <v>2</v>
       </c>
@@ -12511,7 +12402,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="69">
+    <row r="113" spans="1:11" ht="69" hidden="1">
       <c r="A113" s="16">
         <v>2</v>
       </c>
@@ -12546,7 +12437,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="55.2">
+    <row r="114" spans="1:11" ht="55.2" hidden="1">
       <c r="A114" s="16">
         <v>2</v>
       </c>
@@ -12581,7 +12472,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="55.2">
+    <row r="115" spans="1:11" ht="55.2" hidden="1">
       <c r="A115" s="16">
         <v>2</v>
       </c>
@@ -12616,7 +12507,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="41.4">
+    <row r="116" spans="1:11" ht="41.4" hidden="1">
       <c r="A116" s="16">
         <v>2</v>
       </c>
@@ -12647,7 +12538,7 @@
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117" s="16">
         <v>2</v>
       </c>
@@ -12674,7 +12565,7 @@
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
     </row>
-    <row r="118" spans="1:11" ht="27.6">
+    <row r="118" spans="1:11" ht="27.6" hidden="1">
       <c r="A118" s="16">
         <v>2</v>
       </c>
@@ -12701,7 +12592,7 @@
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" hidden="1">
       <c r="A119" s="16">
         <v>2</v>
       </c>
@@ -12728,7 +12619,7 @@
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120" s="16">
         <v>2</v>
       </c>
@@ -12755,7 +12646,7 @@
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121" s="16">
         <v>2</v>
       </c>
@@ -12782,7 +12673,7 @@
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122" s="16">
         <v>2</v>
       </c>
@@ -12809,7 +12700,7 @@
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" hidden="1">
       <c r="A123" s="16">
         <v>2</v>
       </c>
@@ -12836,7 +12727,7 @@
       <c r="J123" s="17"/>
       <c r="K123" s="17"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" hidden="1">
       <c r="A124" s="16">
         <v>2</v>
       </c>
@@ -12863,7 +12754,7 @@
       <c r="J124" s="17"/>
       <c r="K124" s="17"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125" s="16">
         <v>2</v>
       </c>
@@ -12896,7 +12787,7 @@
       </c>
       <c r="K125" s="17"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" hidden="1">
       <c r="A126" s="16">
         <v>2</v>
       </c>
@@ -12923,7 +12814,7 @@
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" hidden="1">
       <c r="A127" s="16">
         <v>2</v>
       </c>
@@ -12950,7 +12841,7 @@
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" hidden="1">
       <c r="A128" s="16">
         <v>2</v>
       </c>
@@ -12979,7 +12870,7 @@
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
     </row>
-    <row r="129" spans="1:11" ht="27.6">
+    <row r="129" spans="1:11" ht="27.6" hidden="1">
       <c r="A129" s="16">
         <v>2</v>
       </c>
@@ -13010,7 +12901,7 @@
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" hidden="1">
       <c r="A130" s="16">
         <v>2</v>
       </c>
@@ -13037,7 +12928,7 @@
       <c r="J130" s="17"/>
       <c r="K130" s="17"/>
     </row>
-    <row r="131" spans="1:11" ht="27.6">
+    <row r="131" spans="1:11" ht="27.6" hidden="1">
       <c r="A131" s="16">
         <v>2</v>
       </c>
@@ -13068,7 +12959,7 @@
       <c r="J131" s="17"/>
       <c r="K131" s="17"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" hidden="1">
       <c r="A132" s="16" t="s">
         <v>1048</v>
       </c>
@@ -13095,7 +12986,7 @@
       <c r="J132" s="17"/>
       <c r="K132" s="17"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" hidden="1">
       <c r="A133" s="16" t="s">
         <v>1048</v>
       </c>
@@ -13122,7 +13013,7 @@
       <c r="J133" s="17"/>
       <c r="K133" s="17"/>
     </row>
-    <row r="134" spans="1:11" ht="69">
+    <row r="134" spans="1:11" ht="69" hidden="1">
       <c r="A134" s="16" t="s">
         <v>1048</v>
       </c>
@@ -13153,7 +13044,7 @@
       <c r="J134" s="17"/>
       <c r="K134" s="17"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135" s="16" t="s">
         <v>1048</v>
       </c>
@@ -13180,7 +13071,7 @@
       <c r="J135" s="17"/>
       <c r="K135" s="17"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" hidden="1">
       <c r="A136" s="16" t="s">
         <v>1048</v>
       </c>
@@ -13207,7 +13098,7 @@
       <c r="J136" s="17"/>
       <c r="K136" s="17"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137" s="16" t="s">
         <v>1048</v>
       </c>
@@ -13234,7 +13125,7 @@
       <c r="J137" s="17"/>
       <c r="K137" s="17"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" hidden="1">
       <c r="A138" s="16" t="s">
         <v>1048</v>
       </c>
@@ -13261,7 +13152,7 @@
       <c r="J138" s="17"/>
       <c r="K138" s="17"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" hidden="1">
       <c r="A139" s="16" t="s">
         <v>1048</v>
       </c>
@@ -13290,7 +13181,7 @@
       <c r="J139" s="17"/>
       <c r="K139" s="17"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" hidden="1">
       <c r="A140" s="16" t="s">
         <v>1048</v>
       </c>
@@ -13317,7 +13208,7 @@
       <c r="J140" s="17"/>
       <c r="K140" s="17"/>
     </row>
-    <row r="141" spans="1:11" ht="41.4">
+    <row r="141" spans="1:11" ht="41.4" hidden="1">
       <c r="A141" s="27" t="s">
         <v>1096</v>
       </c>
@@ -13340,7 +13231,7 @@
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
     </row>
-    <row r="142" spans="1:11" ht="27.6">
+    <row r="142" spans="1:11" ht="27.6" hidden="1">
       <c r="A142" s="27" t="s">
         <v>1096</v>
       </c>
@@ -13365,7 +13256,7 @@
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" hidden="1">
       <c r="A143" s="16">
         <v>2</v>
       </c>
@@ -13392,7 +13283,7 @@
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
     </row>
-    <row r="144" spans="1:11" ht="27.6">
+    <row r="144" spans="1:11" ht="27.6" hidden="1">
       <c r="A144" s="16">
         <v>2</v>
       </c>
@@ -13425,7 +13316,7 @@
       </c>
       <c r="K144" s="17"/>
     </row>
-    <row r="145" spans="1:11" ht="27.6">
+    <row r="145" spans="1:11" ht="27.6" hidden="1">
       <c r="A145" s="16">
         <v>2</v>
       </c>
@@ -13454,7 +13345,7 @@
       <c r="J145" s="17"/>
       <c r="K145" s="17"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" hidden="1">
       <c r="A146" s="16">
         <v>2</v>
       </c>
@@ -13481,7 +13372,7 @@
       <c r="J146" s="17"/>
       <c r="K146" s="17"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" hidden="1">
       <c r="A147" s="16">
         <v>2</v>
       </c>
@@ -13508,7 +13399,7 @@
       <c r="J147" s="17"/>
       <c r="K147" s="17"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" hidden="1">
       <c r="A148" s="16">
         <v>2</v>
       </c>
@@ -13535,7 +13426,7 @@
       <c r="J148" s="17"/>
       <c r="K148" s="17"/>
     </row>
-    <row r="149" spans="1:11" ht="27.6">
+    <row r="149" spans="1:11" ht="27.6" hidden="1">
       <c r="A149" s="16">
         <v>2</v>
       </c>
@@ -13564,7 +13455,7 @@
       <c r="J149" s="17"/>
       <c r="K149" s="17"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" hidden="1">
       <c r="A150" s="16">
         <v>2</v>
       </c>
@@ -13591,7 +13482,7 @@
       <c r="J150" s="17"/>
       <c r="K150" s="17"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" hidden="1">
       <c r="A151" s="16">
         <v>2</v>
       </c>
@@ -13618,7 +13509,7 @@
       <c r="J151" s="17"/>
       <c r="K151" s="17"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" hidden="1">
       <c r="A152" s="16">
         <v>2</v>
       </c>
@@ -13645,7 +13536,7 @@
       <c r="J152" s="17"/>
       <c r="K152" s="17"/>
     </row>
-    <row r="153" spans="1:11" ht="27.6">
+    <row r="153" spans="1:11" ht="27.6" hidden="1">
       <c r="A153" s="16">
         <v>2</v>
       </c>
@@ -13674,7 +13565,7 @@
       <c r="J153" s="17"/>
       <c r="K153" s="17"/>
     </row>
-    <row r="154" spans="1:11" ht="27.6">
+    <row r="154" spans="1:11" ht="27.6" hidden="1">
       <c r="A154" s="16">
         <v>2</v>
       </c>
@@ -13705,7 +13596,7 @@
       <c r="J154" s="17"/>
       <c r="K154" s="17"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" hidden="1">
       <c r="A155" s="16">
         <v>2</v>
       </c>
@@ -13732,7 +13623,7 @@
       <c r="J155" s="17"/>
       <c r="K155" s="17"/>
     </row>
-    <row r="156" spans="1:11" ht="27.6">
+    <row r="156" spans="1:11" ht="27.6" hidden="1">
       <c r="A156" s="16">
         <v>2</v>
       </c>
@@ -13759,7 +13650,7 @@
       <c r="J156" s="17"/>
       <c r="K156" s="17"/>
     </row>
-    <row r="157" spans="1:11" ht="27.6">
+    <row r="157" spans="1:11" ht="27.6" hidden="1">
       <c r="A157" s="16">
         <v>2</v>
       </c>
@@ -13790,7 +13681,7 @@
       <c r="J157" s="17"/>
       <c r="K157" s="17"/>
     </row>
-    <row r="158" spans="1:11" ht="14.4">
+    <row r="158" spans="1:11" ht="14.4" hidden="1">
       <c r="A158" s="27" t="s">
         <v>1096</v>
       </c>
@@ -13815,7 +13706,7 @@
       <c r="J158" s="17"/>
       <c r="K158" s="17"/>
     </row>
-    <row r="159" spans="1:11" ht="14.4">
+    <row r="159" spans="1:11" ht="14.4" hidden="1">
       <c r="A159" s="27" t="s">
         <v>1096</v>
       </c>
@@ -13840,7 +13731,7 @@
       <c r="J159" s="17"/>
       <c r="K159" s="17"/>
     </row>
-    <row r="160" spans="1:11" ht="14.4">
+    <row r="160" spans="1:11" ht="14.4" hidden="1">
       <c r="A160" s="27" t="s">
         <v>1096</v>
       </c>
@@ -13865,7 +13756,7 @@
       <c r="J160" s="17"/>
       <c r="K160" s="17"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" hidden="1">
       <c r="A161" s="16">
         <v>2</v>
       </c>
@@ -13892,7 +13783,7 @@
       <c r="J161" s="17"/>
       <c r="K161" s="17"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" hidden="1">
       <c r="A162" s="16">
         <v>2</v>
       </c>
@@ -13919,7 +13810,7 @@
       <c r="J162" s="17"/>
       <c r="K162" s="17"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163" s="16">
         <v>2</v>
       </c>
@@ -13946,7 +13837,7 @@
       <c r="J163" s="17"/>
       <c r="K163" s="17"/>
     </row>
-    <row r="164" spans="1:11" ht="27.6">
+    <row r="164" spans="1:11" ht="27.6" hidden="1">
       <c r="A164" s="16">
         <v>2</v>
       </c>
@@ -13973,7 +13864,7 @@
       <c r="J164" s="17"/>
       <c r="K164" s="17"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165" s="16">
         <v>2</v>
       </c>
@@ -14000,7 +13891,7 @@
       <c r="J165" s="17"/>
       <c r="K165" s="17"/>
     </row>
-    <row r="166" spans="1:11" ht="27.6">
+    <row r="166" spans="1:11" ht="27.6" hidden="1">
       <c r="A166" s="28" t="s">
         <v>1096</v>
       </c>
@@ -14025,7 +13916,7 @@
       <c r="J166" s="17"/>
       <c r="K166" s="17"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" hidden="1">
       <c r="A167" s="16">
         <v>2</v>
       </c>
@@ -14052,7 +13943,7 @@
       <c r="J167" s="17"/>
       <c r="K167" s="17"/>
     </row>
-    <row r="168" spans="1:11" ht="138">
+    <row r="168" spans="1:11" ht="138" hidden="1">
       <c r="A168" s="16">
         <v>2</v>
       </c>
@@ -14079,7 +13970,7 @@
       <c r="J168" s="17"/>
       <c r="K168" s="17"/>
     </row>
-    <row r="169" spans="1:11" ht="41.4">
+    <row r="169" spans="1:11" ht="41.4" hidden="1">
       <c r="A169" s="16">
         <v>2</v>
       </c>
@@ -14106,7 +13997,7 @@
       <c r="J169" s="17"/>
       <c r="K169" s="17"/>
     </row>
-    <row r="170" spans="1:11" ht="27.6">
+    <row r="170" spans="1:11" ht="27.6" hidden="1">
       <c r="A170" s="16">
         <v>2</v>
       </c>
@@ -14133,7 +14024,7 @@
       <c r="J170" s="17"/>
       <c r="K170" s="17"/>
     </row>
-    <row r="171" spans="1:11" ht="27.6">
+    <row r="171" spans="1:11" ht="27.6" hidden="1">
       <c r="A171" s="16">
         <v>2</v>
       </c>
@@ -14160,7 +14051,7 @@
       <c r="J171" s="17"/>
       <c r="K171" s="17"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172" s="16" t="s">
         <v>1096</v>
       </c>
@@ -14187,7 +14078,7 @@
       <c r="J172" s="17"/>
       <c r="K172" s="17"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173" s="16" t="s">
         <v>1096</v>
       </c>
@@ -14214,7 +14105,7 @@
       <c r="J173" s="17"/>
       <c r="K173" s="17"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" hidden="1">
       <c r="A174" s="16">
         <v>2</v>
       </c>
@@ -14241,7 +14132,7 @@
       <c r="J174" s="17"/>
       <c r="K174" s="17"/>
     </row>
-    <row r="175" spans="1:11" ht="110.4">
+    <row r="175" spans="1:11" ht="110.4" hidden="1">
       <c r="A175" s="16">
         <v>2</v>
       </c>
@@ -14268,7 +14159,7 @@
       <c r="J175" s="17"/>
       <c r="K175" s="17"/>
     </row>
-    <row r="176" spans="1:11" ht="69">
+    <row r="176" spans="1:11" ht="69" hidden="1">
       <c r="A176" s="16">
         <v>2</v>
       </c>
@@ -14295,7 +14186,7 @@
       <c r="J176" s="17"/>
       <c r="K176" s="17"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" hidden="1">
       <c r="A177" s="16">
         <v>2</v>
       </c>
@@ -14322,7 +14213,7 @@
       <c r="J177" s="17"/>
       <c r="K177" s="17"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178" s="16">
         <v>2</v>
       </c>
@@ -14349,7 +14240,7 @@
       <c r="J178" s="17"/>
       <c r="K178" s="17"/>
     </row>
-    <row r="179" spans="1:11" ht="41.4">
+    <row r="179" spans="1:11" ht="41.4" hidden="1">
       <c r="A179" s="16">
         <v>2</v>
       </c>
@@ -14376,7 +14267,7 @@
       <c r="J179" s="17"/>
       <c r="K179" s="17"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" hidden="1">
       <c r="A180" s="16">
         <v>2</v>
       </c>
@@ -14403,7 +14294,7 @@
       <c r="J180" s="17"/>
       <c r="K180" s="17"/>
     </row>
-    <row r="181" spans="1:11" ht="27.6">
+    <row r="181" spans="1:11" ht="27.6" hidden="1">
       <c r="A181" s="16">
         <v>2</v>
       </c>
@@ -14430,7 +14321,7 @@
       <c r="J181" s="17"/>
       <c r="K181" s="17"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" hidden="1">
       <c r="A182" s="16">
         <v>2</v>
       </c>
@@ -14457,7 +14348,7 @@
       <c r="J182" s="17"/>
       <c r="K182" s="17"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183" s="16">
         <v>2</v>
       </c>
@@ -14486,7 +14377,7 @@
       <c r="J183" s="17"/>
       <c r="K183" s="17"/>
     </row>
-    <row r="184" spans="1:11" ht="27.6">
+    <row r="184" spans="1:11" ht="27.6" hidden="1">
       <c r="A184" s="16">
         <v>2</v>
       </c>
@@ -14513,7 +14404,7 @@
       <c r="J184" s="17"/>
       <c r="K184" s="17"/>
     </row>
-    <row r="185" spans="1:11" ht="27.6">
+    <row r="185" spans="1:11" ht="27.6" hidden="1">
       <c r="A185" s="16">
         <v>2</v>
       </c>
@@ -14540,7 +14431,7 @@
       <c r="J185" s="17"/>
       <c r="K185" s="17"/>
     </row>
-    <row r="186" spans="1:11" ht="27.6">
+    <row r="186" spans="1:11" ht="27.6" hidden="1">
       <c r="A186" s="16">
         <v>5</v>
       </c>
@@ -14571,7 +14462,7 @@
       <c r="J186" s="17"/>
       <c r="K186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="27.6">
+    <row r="187" spans="1:11" ht="27.6" hidden="1">
       <c r="A187" s="16">
         <v>5</v>
       </c>
@@ -14602,7 +14493,7 @@
       <c r="J187" s="17"/>
       <c r="K187" s="17"/>
     </row>
-    <row r="188" spans="1:11" ht="69">
+    <row r="188" spans="1:11" ht="69" hidden="1">
       <c r="A188" s="16">
         <v>5</v>
       </c>
@@ -14631,7 +14522,7 @@
       <c r="J188" s="17"/>
       <c r="K188" s="17"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" hidden="1">
       <c r="A189" s="16">
         <v>5</v>
       </c>
@@ -14656,7 +14547,7 @@
       <c r="J189" s="17"/>
       <c r="K189" s="17"/>
     </row>
-    <row r="190" spans="1:11" ht="14.4">
+    <row r="190" spans="1:11" ht="14.4" hidden="1">
       <c r="A190" s="16">
         <v>5</v>
       </c>
@@ -14681,7 +14572,7 @@
       <c r="J190" s="17"/>
       <c r="K190" s="17"/>
     </row>
-    <row r="191" spans="1:11" ht="14.4">
+    <row r="191" spans="1:11" ht="14.4" hidden="1">
       <c r="A191" s="16">
         <v>5</v>
       </c>
@@ -14706,7 +14597,7 @@
       <c r="J191" s="17"/>
       <c r="K191" s="17"/>
     </row>
-    <row r="192" spans="1:11" ht="14.4">
+    <row r="192" spans="1:11" ht="14.4" hidden="1">
       <c r="A192" s="16">
         <v>5</v>
       </c>
@@ -14731,7 +14622,7 @@
       <c r="J192" s="17"/>
       <c r="K192" s="17"/>
     </row>
-    <row r="193" spans="1:11" ht="14.4">
+    <row r="193" spans="1:11" ht="14.4" hidden="1">
       <c r="A193" s="16">
         <v>5</v>
       </c>
@@ -14756,7 +14647,7 @@
       <c r="J193" s="17"/>
       <c r="K193" s="17"/>
     </row>
-    <row r="194" spans="1:11" ht="14.4">
+    <row r="194" spans="1:11" ht="14.4" hidden="1">
       <c r="A194" s="16">
         <v>5</v>
       </c>
@@ -14781,7 +14672,7 @@
       <c r="J194" s="17"/>
       <c r="K194" s="17"/>
     </row>
-    <row r="195" spans="1:11" ht="14.4">
+    <row r="195" spans="1:11" ht="14.4" hidden="1">
       <c r="A195" s="38" t="s">
         <v>1716</v>
       </c>
@@ -14808,7 +14699,7 @@
       <c r="J195" s="17"/>
       <c r="K195" s="17"/>
     </row>
-    <row r="196" spans="1:11" ht="41.4">
+    <row r="196" spans="1:11" ht="41.4" hidden="1">
       <c r="A196" s="38" t="s">
         <v>1716</v>
       </c>
@@ -14835,7 +14726,7 @@
       <c r="J196" s="17"/>
       <c r="K196" s="17"/>
     </row>
-    <row r="197" spans="1:11" ht="27.6">
+    <row r="197" spans="1:11" ht="27.6" hidden="1">
       <c r="A197" s="16">
         <v>5</v>
       </c>
@@ -14862,7 +14753,7 @@
       <c r="J197" s="17"/>
       <c r="K197" s="17"/>
     </row>
-    <row r="198" spans="1:11" ht="27.6">
+    <row r="198" spans="1:11" ht="27.6" hidden="1">
       <c r="A198" s="16">
         <v>5</v>
       </c>
@@ -14889,7 +14780,7 @@
       <c r="J198" s="17"/>
       <c r="K198" s="17"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199" s="16">
         <v>5</v>
       </c>
@@ -14916,7 +14807,7 @@
       <c r="J199" s="17"/>
       <c r="K199" s="17"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" hidden="1">
       <c r="A200" s="16">
         <v>5</v>
       </c>
@@ -14943,7 +14834,7 @@
       <c r="J200" s="17"/>
       <c r="K200" s="17"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" hidden="1">
       <c r="A201" s="16">
         <v>5</v>
       </c>
@@ -14970,7 +14861,7 @@
       <c r="J201" s="17"/>
       <c r="K201" s="17"/>
     </row>
-    <row r="202" spans="1:11" ht="14.4">
+    <row r="202" spans="1:11" ht="14.4" hidden="1">
       <c r="A202" s="16">
         <v>5</v>
       </c>
@@ -14978,7 +14869,7 @@
         <v>648</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D202" s="16" t="s">
         <v>914</v>
@@ -14997,7 +14888,7 @@
       <c r="J202" s="17"/>
       <c r="K202" s="17"/>
     </row>
-    <row r="203" spans="1:11" ht="27.6">
+    <row r="203" spans="1:11" ht="27.6" hidden="1">
       <c r="A203" s="16">
         <v>5</v>
       </c>
@@ -15030,7 +14921,7 @@
       </c>
       <c r="K203" s="17"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" hidden="1">
       <c r="A204" s="16">
         <v>5</v>
       </c>
@@ -15057,7 +14948,7 @@
       <c r="J204" s="17"/>
       <c r="K204" s="17"/>
     </row>
-    <row r="205" spans="1:11" ht="27.6">
+    <row r="205" spans="1:11" ht="27.6" hidden="1">
       <c r="A205" s="16">
         <v>5</v>
       </c>
@@ -15084,7 +14975,7 @@
       <c r="J205" s="17"/>
       <c r="K205" s="17"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" hidden="1">
       <c r="A206" s="16">
         <v>5</v>
       </c>
@@ -15111,7 +15002,7 @@
       <c r="J206" s="17"/>
       <c r="K206" s="17"/>
     </row>
-    <row r="207" spans="1:11" ht="27.6">
+    <row r="207" spans="1:11" ht="27.6" hidden="1">
       <c r="A207" s="16">
         <v>5</v>
       </c>
@@ -15138,7 +15029,7 @@
       <c r="J207" s="17"/>
       <c r="K207" s="17"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" hidden="1">
       <c r="A208" s="16">
         <v>5</v>
       </c>
@@ -15165,7 +15056,7 @@
       <c r="J208" s="17"/>
       <c r="K208" s="17"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" hidden="1">
       <c r="A209" s="28" t="s">
         <v>1716</v>
       </c>
@@ -15192,13 +15083,13 @@
       <c r="J209" s="17"/>
       <c r="K209" s="17"/>
     </row>
-    <row r="210" spans="1:11" ht="14.4">
+    <row r="210" spans="1:11" ht="14.4" hidden="1">
       <c r="A210" s="27"/>
       <c r="B210" s="20" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C210" s="20" t="s">
         <v>2314</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>2315</v>
       </c>
       <c r="D210" s="24"/>
       <c r="E210" s="24" t="s">
@@ -15208,14 +15099,14 @@
         <v>2155</v>
       </c>
       <c r="G210" s="37" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
       <c r="J210" s="17"/>
       <c r="K210" s="17"/>
     </row>
-    <row r="211" spans="1:11" ht="41.4">
+    <row r="211" spans="1:11" ht="41.4" hidden="1">
       <c r="A211" s="16">
         <v>5</v>
       </c>
@@ -15246,7 +15137,7 @@
       <c r="J211" s="17"/>
       <c r="K211" s="17"/>
     </row>
-    <row r="212" spans="1:11" ht="69">
+    <row r="212" spans="1:11" ht="69" hidden="1">
       <c r="A212" s="16">
         <v>5</v>
       </c>
@@ -15273,7 +15164,7 @@
       <c r="J212" s="17"/>
       <c r="K212" s="17"/>
     </row>
-    <row r="213" spans="1:11" ht="27.6">
+    <row r="213" spans="1:11" ht="27.6" hidden="1">
       <c r="A213" s="16">
         <v>5</v>
       </c>
@@ -15300,7 +15191,7 @@
       <c r="J213" s="17"/>
       <c r="K213" s="17"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" hidden="1">
       <c r="A214" s="16">
         <v>5</v>
       </c>
@@ -15327,7 +15218,7 @@
       <c r="J214" s="17"/>
       <c r="K214" s="17"/>
     </row>
-    <row r="215" spans="1:11" ht="82.8">
+    <row r="215" spans="1:11" ht="82.8" hidden="1">
       <c r="A215" s="16">
         <v>5</v>
       </c>
@@ -15354,7 +15245,7 @@
       <c r="J215" s="17"/>
       <c r="K215" s="17"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" hidden="1">
       <c r="A216" s="16">
         <v>5</v>
       </c>
@@ -15381,7 +15272,7 @@
       <c r="J216" s="17"/>
       <c r="K216" s="17"/>
     </row>
-    <row r="217" spans="1:11" ht="27.6">
+    <row r="217" spans="1:11" ht="27.6" hidden="1">
       <c r="A217" s="16">
         <v>5</v>
       </c>
@@ -15408,7 +15299,7 @@
       <c r="J217" s="17"/>
       <c r="K217" s="17"/>
     </row>
-    <row r="218" spans="1:11" ht="27.6">
+    <row r="218" spans="1:11" ht="27.6" hidden="1">
       <c r="A218" s="16">
         <v>5</v>
       </c>
@@ -15439,7 +15330,7 @@
       <c r="J218" s="17"/>
       <c r="K218" s="17"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" hidden="1">
       <c r="A219" s="16">
         <v>5</v>
       </c>
@@ -15466,7 +15357,7 @@
       <c r="J219" s="17"/>
       <c r="K219" s="17"/>
     </row>
-    <row r="220" spans="1:11" ht="27.6">
+    <row r="220" spans="1:11" ht="27.6" hidden="1">
       <c r="A220" s="16">
         <v>5</v>
       </c>
@@ -15493,7 +15384,7 @@
       <c r="J220" s="17"/>
       <c r="K220" s="17"/>
     </row>
-    <row r="221" spans="1:11" ht="27.6">
+    <row r="221" spans="1:11" ht="27.6" hidden="1">
       <c r="A221" s="16">
         <v>5</v>
       </c>
@@ -15520,15 +15411,15 @@
       <c r="J221" s="17"/>
       <c r="K221" s="17"/>
     </row>
-    <row r="222" spans="1:11" ht="27.6">
+    <row r="222" spans="1:11" ht="27.6" hidden="1">
       <c r="A222" s="16">
         <v>5</v>
       </c>
       <c r="B222" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="C222" s="45" t="s">
-        <v>2317</v>
+      <c r="C222" s="44" t="s">
+        <v>2316</v>
       </c>
       <c r="D222" s="16" t="s">
         <v>1137</v>
@@ -15547,13 +15438,13 @@
       <c r="J222" s="17"/>
       <c r="K222" s="17"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" hidden="1">
       <c r="A223" s="16"/>
-      <c r="B223" s="45" t="s">
+      <c r="B223" s="44" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C223" s="44" t="s">
         <v>2318</v>
-      </c>
-      <c r="C223" s="45" t="s">
-        <v>2319</v>
       </c>
       <c r="D223" s="16"/>
       <c r="E223" s="16" t="s">
@@ -15562,15 +15453,15 @@
       <c r="F223" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G223" s="46" t="s">
-        <v>2320</v>
+      <c r="G223" s="45" t="s">
+        <v>2319</v>
       </c>
       <c r="H223" s="17"/>
       <c r="I223" s="17"/>
       <c r="J223" s="17"/>
       <c r="K223" s="17"/>
     </row>
-    <row r="224" spans="1:11" ht="69">
+    <row r="224" spans="1:11" ht="69" hidden="1">
       <c r="A224" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15597,7 +15488,7 @@
       <c r="J224" s="17"/>
       <c r="K224" s="17"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" hidden="1">
       <c r="A225" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15624,7 +15515,7 @@
       <c r="J225" s="17"/>
       <c r="K225" s="17"/>
     </row>
-    <row r="226" spans="1:11" ht="115.2">
+    <row r="226" spans="1:11" ht="115.2" hidden="1">
       <c r="A226" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15643,15 +15534,15 @@
       <c r="F226" s="16" t="s">
         <v>2155</v>
       </c>
-      <c r="G226" s="47" t="s">
-        <v>2321</v>
+      <c r="G226" s="46" t="s">
+        <v>2320</v>
       </c>
       <c r="H226" s="17"/>
       <c r="I226" s="17"/>
       <c r="J226" s="17"/>
       <c r="K226" s="17"/>
     </row>
-    <row r="227" spans="1:11" ht="55.2">
+    <row r="227" spans="1:11" ht="55.2" hidden="1">
       <c r="A227" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15684,7 +15575,7 @@
       </c>
       <c r="K227" s="17"/>
     </row>
-    <row r="228" spans="1:11" ht="14.4">
+    <row r="228" spans="1:11" ht="14.4" hidden="1">
       <c r="A228" s="27" t="s">
         <v>1096</v>
       </c>
@@ -15709,7 +15600,7 @@
       <c r="J228" s="17"/>
       <c r="K228" s="17"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15736,7 +15627,7 @@
       <c r="J229" s="17"/>
       <c r="K229" s="17"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" hidden="1">
       <c r="A230" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15763,7 +15654,7 @@
       <c r="J230" s="17"/>
       <c r="K230" s="17"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" hidden="1">
       <c r="A231" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15790,7 +15681,7 @@
       <c r="J231" s="17"/>
       <c r="K231" s="17"/>
     </row>
-    <row r="232" spans="1:11" ht="27.6">
+    <row r="232" spans="1:11" ht="27.6" hidden="1">
       <c r="A232" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15819,7 +15710,7 @@
       <c r="J232" s="17"/>
       <c r="K232" s="17"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" hidden="1">
       <c r="A233" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15846,7 +15737,7 @@
       <c r="J233" s="17"/>
       <c r="K233" s="17"/>
     </row>
-    <row r="234" spans="1:11" ht="55.2">
+    <row r="234" spans="1:11" ht="55.2" hidden="1">
       <c r="A234" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15873,7 +15764,7 @@
       <c r="J234" s="17"/>
       <c r="K234" s="17"/>
     </row>
-    <row r="235" spans="1:11" ht="27.6">
+    <row r="235" spans="1:11" ht="27.6" hidden="1">
       <c r="A235" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15900,7 +15791,7 @@
       <c r="J235" s="17"/>
       <c r="K235" s="17"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" hidden="1">
       <c r="A236" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15927,7 +15818,7 @@
       <c r="J236" s="17"/>
       <c r="K236" s="17"/>
     </row>
-    <row r="237" spans="1:11" ht="27.6">
+    <row r="237" spans="1:11" ht="27.6" hidden="1">
       <c r="A237" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15935,7 +15826,7 @@
         <v>509</v>
       </c>
       <c r="C237" s="24" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D237" s="16" t="s">
         <v>914</v>
@@ -15947,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="G237" s="39" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="H237" s="17" t="s">
         <v>988</v>
@@ -15956,7 +15847,7 @@
       <c r="J237" s="17"/>
       <c r="K237" s="17"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" hidden="1">
       <c r="A238" s="16" t="s">
         <v>1096</v>
       </c>
@@ -15983,7 +15874,7 @@
       <c r="J238" s="17"/>
       <c r="K238" s="17"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" hidden="1">
       <c r="A239" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16010,7 +15901,7 @@
       <c r="J239" s="17"/>
       <c r="K239" s="17"/>
     </row>
-    <row r="240" spans="1:11" ht="14.4">
+    <row r="240" spans="1:11" ht="14.4" hidden="1">
       <c r="A240" s="27" t="s">
         <v>1096</v>
       </c>
@@ -16035,7 +15926,7 @@
       <c r="J240" s="17"/>
       <c r="K240" s="17"/>
     </row>
-    <row r="241" spans="1:11" ht="14.4">
+    <row r="241" spans="1:11" ht="14.4" hidden="1">
       <c r="A241" s="27" t="s">
         <v>1096</v>
       </c>
@@ -16060,7 +15951,7 @@
       <c r="J241" s="17"/>
       <c r="K241" s="17"/>
     </row>
-    <row r="242" spans="1:11" ht="14.4">
+    <row r="242" spans="1:11" ht="14.4" hidden="1">
       <c r="A242" s="27" t="s">
         <v>1096</v>
       </c>
@@ -16085,7 +15976,7 @@
       <c r="J242" s="17"/>
       <c r="K242" s="17"/>
     </row>
-    <row r="243" spans="1:11" ht="14.4">
+    <row r="243" spans="1:11" ht="14.4" hidden="1">
       <c r="A243" s="27" t="s">
         <v>1096</v>
       </c>
@@ -16110,7 +16001,7 @@
       <c r="J243" s="17"/>
       <c r="K243" s="17"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" hidden="1">
       <c r="A244" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16137,7 +16028,7 @@
       <c r="J244" s="17"/>
       <c r="K244" s="17"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" hidden="1">
       <c r="A245" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16164,7 +16055,7 @@
       <c r="J245" s="17"/>
       <c r="K245" s="17"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16191,7 +16082,7 @@
       <c r="J246" s="17"/>
       <c r="K246" s="17"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16218,7 +16109,7 @@
       <c r="J247" s="17"/>
       <c r="K247" s="17"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16245,7 +16136,7 @@
       <c r="J248" s="17"/>
       <c r="K248" s="17"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249" s="28" t="s">
         <v>1096</v>
       </c>
@@ -16270,7 +16161,7 @@
       <c r="J249" s="17"/>
       <c r="K249" s="17"/>
     </row>
-    <row r="250" spans="1:11" ht="27.6">
+    <row r="250" spans="1:11" ht="27.6" hidden="1">
       <c r="A250" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16297,7 +16188,7 @@
       <c r="J250" s="17"/>
       <c r="K250" s="17"/>
     </row>
-    <row r="251" spans="1:11" ht="27.6">
+    <row r="251" spans="1:11" ht="27.6" hidden="1">
       <c r="A251" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16328,7 +16219,7 @@
       <c r="J251" s="17"/>
       <c r="K251" s="17"/>
     </row>
-    <row r="252" spans="1:11" ht="27.6">
+    <row r="252" spans="1:11" ht="27.6" hidden="1">
       <c r="A252" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16361,7 +16252,7 @@
       </c>
       <c r="K252" s="17"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" hidden="1">
       <c r="A253" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16388,7 +16279,7 @@
       <c r="J253" s="17"/>
       <c r="K253" s="17"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" hidden="1">
       <c r="A254" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16415,7 +16306,7 @@
       <c r="J254" s="17"/>
       <c r="K254" s="17"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" hidden="1">
       <c r="A255" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16442,7 +16333,7 @@
       <c r="J255" s="17"/>
       <c r="K255" s="17"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16469,7 +16360,7 @@
       <c r="J256" s="17"/>
       <c r="K256" s="17"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" hidden="1">
       <c r="A257" s="28" t="s">
         <v>1096</v>
       </c>
@@ -16494,7 +16385,7 @@
       <c r="J257" s="17"/>
       <c r="K257" s="17"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" hidden="1">
       <c r="A258" s="28" t="s">
         <v>1096</v>
       </c>
@@ -16519,7 +16410,7 @@
       <c r="J258" s="17"/>
       <c r="K258" s="17"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16546,7 +16437,7 @@
       <c r="J259" s="17"/>
       <c r="K259" s="17"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16573,7 +16464,7 @@
       <c r="J260" s="17"/>
       <c r="K260" s="17"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" hidden="1">
       <c r="A261" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16600,7 +16491,7 @@
       <c r="J261" s="17"/>
       <c r="K261" s="17"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" hidden="1">
       <c r="A262" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16627,7 +16518,7 @@
       <c r="J262" s="17"/>
       <c r="K262" s="17"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" hidden="1">
       <c r="A263" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16654,7 +16545,7 @@
       <c r="J263" s="17"/>
       <c r="K263" s="17"/>
     </row>
-    <row r="264" spans="1:11" ht="27.6">
+    <row r="264" spans="1:11" ht="27.6" hidden="1">
       <c r="A264" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16681,7 +16572,7 @@
       <c r="J264" s="17"/>
       <c r="K264" s="17"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" hidden="1">
       <c r="A265" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16708,7 +16599,7 @@
       <c r="J265" s="17"/>
       <c r="K265" s="17"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16735,7 +16626,7 @@
       <c r="J266" s="17"/>
       <c r="K266" s="17"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" hidden="1">
       <c r="A267" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16762,7 +16653,7 @@
       <c r="J267" s="17"/>
       <c r="K267" s="17"/>
     </row>
-    <row r="268" spans="1:11" ht="27.6">
+    <row r="268" spans="1:11" ht="27.6" hidden="1">
       <c r="A268" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16789,7 +16680,7 @@
       <c r="J268" s="17"/>
       <c r="K268" s="17"/>
     </row>
-    <row r="269" spans="1:11" ht="55.2">
+    <row r="269" spans="1:11" ht="55.2" hidden="1">
       <c r="A269" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16816,7 +16707,7 @@
       <c r="J269" s="17"/>
       <c r="K269" s="17"/>
     </row>
-    <row r="270" spans="1:11" ht="55.2">
+    <row r="270" spans="1:11" ht="55.2" hidden="1">
       <c r="A270" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16843,7 +16734,7 @@
       <c r="J270" s="17"/>
       <c r="K270" s="17"/>
     </row>
-    <row r="271" spans="1:11" ht="69">
+    <row r="271" spans="1:11" ht="69" hidden="1">
       <c r="A271" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16870,7 +16761,7 @@
       <c r="J271" s="17"/>
       <c r="K271" s="17"/>
     </row>
-    <row r="272" spans="1:11" ht="27.6">
+    <row r="272" spans="1:11" ht="27.6" hidden="1">
       <c r="A272" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16901,7 +16792,7 @@
       <c r="J272" s="17"/>
       <c r="K272" s="17"/>
     </row>
-    <row r="273" spans="1:11" ht="27.6">
+    <row r="273" spans="1:11" ht="27.6" hidden="1">
       <c r="A273" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16932,7 +16823,7 @@
       <c r="J273" s="17"/>
       <c r="K273" s="17"/>
     </row>
-    <row r="274" spans="1:11" ht="69">
+    <row r="274" spans="1:11" ht="69" hidden="1">
       <c r="A274" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16959,7 +16850,7 @@
       <c r="J274" s="17"/>
       <c r="K274" s="17"/>
     </row>
-    <row r="275" spans="1:11" ht="69">
+    <row r="275" spans="1:11" ht="69" hidden="1">
       <c r="A275" s="16" t="s">
         <v>1096</v>
       </c>
@@ -16986,7 +16877,7 @@
       <c r="J275" s="17"/>
       <c r="K275" s="17"/>
     </row>
-    <row r="276" spans="1:11" ht="27.6">
+    <row r="276" spans="1:11" ht="27.6" hidden="1">
       <c r="A276" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17017,7 +16908,7 @@
       <c r="J276" s="17"/>
       <c r="K276" s="17"/>
     </row>
-    <row r="277" spans="1:11" ht="27.6">
+    <row r="277" spans="1:11" ht="27.6" hidden="1">
       <c r="A277" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17048,7 +16939,7 @@
       <c r="J277" s="17"/>
       <c r="K277" s="17"/>
     </row>
-    <row r="278" spans="1:11" ht="27.6">
+    <row r="278" spans="1:11" ht="27.6" hidden="1">
       <c r="A278" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17079,7 +16970,7 @@
       <c r="J278" s="17"/>
       <c r="K278" s="17"/>
     </row>
-    <row r="279" spans="1:11" ht="69">
+    <row r="279" spans="1:11" ht="69" hidden="1">
       <c r="A279" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17110,7 +17001,7 @@
       <c r="J279" s="17"/>
       <c r="K279" s="17"/>
     </row>
-    <row r="280" spans="1:11" ht="27.6">
+    <row r="280" spans="1:11" ht="27.6" hidden="1">
       <c r="A280" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17139,7 +17030,7 @@
       <c r="J280" s="17"/>
       <c r="K280" s="17"/>
     </row>
-    <row r="281" spans="1:11" ht="27.6">
+    <row r="281" spans="1:11" ht="27.6" hidden="1">
       <c r="A281" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17168,7 +17059,7 @@
       <c r="J281" s="17"/>
       <c r="K281" s="17"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" hidden="1">
       <c r="A282" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17197,7 +17088,7 @@
       <c r="J282" s="17"/>
       <c r="K282" s="17"/>
     </row>
-    <row r="283" spans="1:11" ht="27.6">
+    <row r="283" spans="1:11" ht="27.6" hidden="1">
       <c r="A283" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17226,7 +17117,7 @@
       <c r="J283" s="17"/>
       <c r="K283" s="17"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" hidden="1">
       <c r="A284" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17255,7 +17146,7 @@
       <c r="J284" s="17"/>
       <c r="K284" s="17"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" hidden="1">
       <c r="A285" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17284,7 +17175,7 @@
       <c r="J285" s="17"/>
       <c r="K285" s="17"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" hidden="1">
       <c r="A286" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17311,7 +17202,7 @@
       <c r="J286" s="17"/>
       <c r="K286" s="17"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" hidden="1">
       <c r="A287" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17338,7 +17229,7 @@
       <c r="J287" s="17"/>
       <c r="K287" s="17"/>
     </row>
-    <row r="288" spans="1:11" ht="27.6">
+    <row r="288" spans="1:11" ht="27.6" hidden="1">
       <c r="A288" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17367,7 +17258,7 @@
       <c r="J288" s="17"/>
       <c r="K288" s="17"/>
     </row>
-    <row r="289" spans="1:11" ht="27.6">
+    <row r="289" spans="1:11" ht="27.6" hidden="1">
       <c r="A289" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17396,7 +17287,7 @@
       <c r="J289" s="17"/>
       <c r="K289" s="17"/>
     </row>
-    <row r="290" spans="1:11" ht="27.6">
+    <row r="290" spans="1:11" ht="27.6" hidden="1">
       <c r="A290" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17425,7 +17316,7 @@
       <c r="J290" s="17"/>
       <c r="K290" s="17"/>
     </row>
-    <row r="291" spans="1:11" ht="27.6">
+    <row r="291" spans="1:11" ht="27.6" hidden="1">
       <c r="A291" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17454,7 +17345,7 @@
       <c r="J291" s="17"/>
       <c r="K291" s="17"/>
     </row>
-    <row r="292" spans="1:11" ht="27.6">
+    <row r="292" spans="1:11" ht="27.6" hidden="1">
       <c r="A292" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17481,7 +17372,7 @@
       <c r="J292" s="17"/>
       <c r="K292" s="17"/>
     </row>
-    <row r="293" spans="1:11" ht="27.6">
+    <row r="293" spans="1:11" ht="27.6" hidden="1">
       <c r="A293" s="16" t="s">
         <v>1096</v>
       </c>
@@ -17508,7 +17399,7 @@
       <c r="J293" s="17"/>
       <c r="K293" s="17"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294" s="16">
         <v>5</v>
       </c>
@@ -17535,7 +17426,7 @@
       <c r="J294" s="17"/>
       <c r="K294" s="17"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" hidden="1">
       <c r="A295" s="16">
         <v>3</v>
       </c>
@@ -17562,7 +17453,7 @@
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296" s="16">
         <v>2</v>
       </c>
@@ -17589,7 +17480,7 @@
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
     </row>
-    <row r="297" spans="1:11" ht="41.4">
+    <row r="297" spans="1:11" ht="41.4" hidden="1">
       <c r="A297" s="9">
         <v>8</v>
       </c>
@@ -17616,7 +17507,7 @@
       <c r="J297" s="15"/>
       <c r="K297" s="15"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" hidden="1">
       <c r="A298" s="9">
         <v>8</v>
       </c>
@@ -17643,7 +17534,7 @@
       <c r="J298" s="15"/>
       <c r="K298" s="15"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299" s="9">
         <v>8</v>
       </c>
@@ -17670,7 +17561,7 @@
       <c r="J299" s="15"/>
       <c r="K299" s="15"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300" s="9">
         <v>8</v>
       </c>
@@ -17697,7 +17588,7 @@
       <c r="J300" s="15"/>
       <c r="K300" s="15"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" hidden="1">
       <c r="A301" s="9">
         <v>8</v>
       </c>
@@ -17724,7 +17615,7 @@
       <c r="J301" s="15"/>
       <c r="K301" s="15"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" hidden="1">
       <c r="A302" s="9">
         <v>8</v>
       </c>
@@ -17751,7 +17642,7 @@
       <c r="J302" s="15"/>
       <c r="K302" s="15"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303" s="9">
         <v>8</v>
       </c>
@@ -17778,7 +17669,7 @@
       <c r="J303" s="15"/>
       <c r="K303" s="15"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304" s="9">
         <v>8</v>
       </c>
@@ -17805,7 +17696,7 @@
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" hidden="1">
       <c r="A305" s="9">
         <v>8</v>
       </c>
@@ -17832,7 +17723,7 @@
       <c r="J305" s="15"/>
       <c r="K305" s="15"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" hidden="1">
       <c r="A306" s="9">
         <v>8</v>
       </c>
@@ -17859,7 +17750,7 @@
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" hidden="1">
       <c r="A307" s="9">
         <v>8</v>
       </c>
@@ -17886,7 +17777,7 @@
       <c r="J307" s="15"/>
       <c r="K307" s="15"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" hidden="1">
       <c r="A308" s="9">
         <v>8</v>
       </c>
@@ -17913,7 +17804,7 @@
       <c r="J308" s="15"/>
       <c r="K308" s="15"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" hidden="1">
       <c r="A309" s="9">
         <v>8</v>
       </c>
@@ -17940,7 +17831,7 @@
       <c r="J309" s="15"/>
       <c r="K309" s="15"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" hidden="1">
       <c r="A310" s="9">
         <v>8</v>
       </c>
@@ -17967,7 +17858,7 @@
       <c r="J310" s="15"/>
       <c r="K310" s="15"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" hidden="1">
       <c r="A311" s="9">
         <v>8</v>
       </c>
@@ -17994,7 +17885,7 @@
       <c r="J311" s="15"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" hidden="1">
       <c r="A312" s="9">
         <v>8</v>
       </c>
@@ -18021,7 +17912,7 @@
       <c r="J312" s="15"/>
       <c r="K312" s="15"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" hidden="1">
       <c r="A313" s="9">
         <v>8</v>
       </c>
@@ -18048,7 +17939,7 @@
       <c r="J313" s="15"/>
       <c r="K313" s="15"/>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" hidden="1">
       <c r="A314" s="9">
         <v>8</v>
       </c>
@@ -18075,7 +17966,7 @@
       <c r="J314" s="15"/>
       <c r="K314" s="15"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" hidden="1">
       <c r="A315" s="9">
         <v>8</v>
       </c>
@@ -18102,7 +17993,7 @@
       <c r="J315" s="15"/>
       <c r="K315" s="15"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" hidden="1">
       <c r="A316" s="9">
         <v>8</v>
       </c>
@@ -18129,7 +18020,7 @@
       <c r="J316" s="15"/>
       <c r="K316" s="15"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" hidden="1">
       <c r="A317" s="9">
         <v>8</v>
       </c>
@@ -18156,7 +18047,7 @@
       <c r="J317" s="15"/>
       <c r="K317" s="15"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" hidden="1">
       <c r="A318" s="9">
         <v>8</v>
       </c>
@@ -18183,7 +18074,7 @@
       <c r="J318" s="15"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" hidden="1">
       <c r="A319" s="9">
         <v>8</v>
       </c>
@@ -18210,7 +18101,7 @@
       <c r="J319" s="15"/>
       <c r="K319" s="15"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" hidden="1">
       <c r="A320" s="9">
         <v>8</v>
       </c>
@@ -18237,7 +18128,7 @@
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
     </row>
-    <row r="321" spans="1:11" ht="27.6">
+    <row r="321" spans="1:11" ht="27.6" hidden="1">
       <c r="A321" s="9">
         <v>8</v>
       </c>
@@ -18264,7 +18155,7 @@
       <c r="J321" s="15"/>
       <c r="K321" s="15"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" hidden="1">
       <c r="A322" s="9">
         <v>8</v>
       </c>
@@ -18291,7 +18182,7 @@
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" hidden="1">
       <c r="A323" s="9">
         <v>8</v>
       </c>
@@ -18318,7 +18209,7 @@
       <c r="J323" s="15"/>
       <c r="K323" s="15"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" hidden="1">
       <c r="A324" s="9">
         <v>8</v>
       </c>
@@ -18345,7 +18236,7 @@
       <c r="J324" s="15"/>
       <c r="K324" s="15"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" hidden="1">
       <c r="A325" s="9">
         <v>8</v>
       </c>
@@ -18372,7 +18263,7 @@
       <c r="J325" s="15"/>
       <c r="K325" s="15"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" hidden="1">
       <c r="A326" s="9">
         <v>8</v>
       </c>
@@ -18399,7 +18290,7 @@
       <c r="J326" s="15"/>
       <c r="K326" s="15"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" hidden="1">
       <c r="A327" s="9">
         <v>8</v>
       </c>
@@ -18426,7 +18317,7 @@
       <c r="J327" s="15"/>
       <c r="K327" s="15"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" hidden="1">
       <c r="A328" s="9">
         <v>8</v>
       </c>
@@ -18453,7 +18344,7 @@
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" hidden="1">
       <c r="A329" s="9">
         <v>8</v>
       </c>
@@ -18480,7 +18371,7 @@
       <c r="J329" s="15"/>
       <c r="K329" s="15"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" hidden="1">
       <c r="A330" s="9">
         <v>8</v>
       </c>
@@ -18507,7 +18398,7 @@
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" hidden="1">
       <c r="A331" s="9">
         <v>8</v>
       </c>
@@ -18534,7 +18425,7 @@
       <c r="J331" s="15"/>
       <c r="K331" s="15"/>
     </row>
-    <row r="332" spans="1:11" ht="27.6">
+    <row r="332" spans="1:11" ht="27.6" hidden="1">
       <c r="A332" s="9">
         <v>8</v>
       </c>
@@ -18561,7 +18452,7 @@
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" hidden="1">
       <c r="A333" s="9">
         <v>8</v>
       </c>
@@ -18588,7 +18479,7 @@
       <c r="J333" s="15"/>
       <c r="K333" s="15"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" hidden="1">
       <c r="A334" s="9">
         <v>8</v>
       </c>
@@ -18615,7 +18506,7 @@
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" hidden="1">
       <c r="A335" s="9">
         <v>8</v>
       </c>
@@ -18642,7 +18533,7 @@
       <c r="J335" s="15"/>
       <c r="K335" s="15"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" hidden="1">
       <c r="A336" s="9">
         <v>8</v>
       </c>
@@ -18669,7 +18560,7 @@
       <c r="J336" s="15"/>
       <c r="K336" s="15"/>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" hidden="1">
       <c r="A337" s="9">
         <v>8</v>
       </c>
@@ -18696,7 +18587,7 @@
       <c r="J337" s="15"/>
       <c r="K337" s="15"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" hidden="1">
       <c r="A338" s="9">
         <v>8</v>
       </c>
@@ -18723,7 +18614,7 @@
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" hidden="1">
       <c r="A339" s="9">
         <v>8</v>
       </c>
@@ -18750,7 +18641,7 @@
       <c r="J339" s="15"/>
       <c r="K339" s="15"/>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" hidden="1">
       <c r="A340" s="9">
         <v>8</v>
       </c>
@@ -18777,7 +18668,7 @@
       <c r="J340" s="15"/>
       <c r="K340" s="15"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" hidden="1">
       <c r="A341" s="9">
         <v>8</v>
       </c>
@@ -18804,7 +18695,7 @@
       <c r="J341" s="15"/>
       <c r="K341" s="15"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" hidden="1">
       <c r="A342" s="9">
         <v>8</v>
       </c>
@@ -18831,7 +18722,7 @@
       <c r="J342" s="15"/>
       <c r="K342" s="15"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" hidden="1">
       <c r="A343" s="9">
         <v>8</v>
       </c>
@@ -18858,7 +18749,7 @@
       <c r="J343" s="15"/>
       <c r="K343" s="15"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" hidden="1">
       <c r="A344" s="9">
         <v>8</v>
       </c>
@@ -18885,7 +18776,7 @@
       <c r="J344" s="15"/>
       <c r="K344" s="15"/>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" hidden="1">
       <c r="A345" s="9">
         <v>8</v>
       </c>
@@ -18912,7 +18803,7 @@
       <c r="J345" s="15"/>
       <c r="K345" s="15"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" hidden="1">
       <c r="A346" s="9">
         <v>8</v>
       </c>
@@ -18939,7 +18830,7 @@
       <c r="J346" s="15"/>
       <c r="K346" s="15"/>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" hidden="1">
       <c r="A347" s="9">
         <v>8</v>
       </c>
@@ -18966,7 +18857,7 @@
       <c r="J347" s="15"/>
       <c r="K347" s="15"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" hidden="1">
       <c r="A348" s="9">
         <v>8</v>
       </c>
@@ -18993,7 +18884,7 @@
       <c r="J348" s="15"/>
       <c r="K348" s="15"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" hidden="1">
       <c r="A349" s="9">
         <v>8</v>
       </c>
@@ -19020,7 +18911,7 @@
       <c r="J349" s="15"/>
       <c r="K349" s="15"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" hidden="1">
       <c r="A350" s="9">
         <v>8</v>
       </c>
@@ -19047,7 +18938,7 @@
       <c r="J350" s="15"/>
       <c r="K350" s="15"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" hidden="1">
       <c r="A351" s="9">
         <v>8</v>
       </c>
@@ -19074,7 +18965,7 @@
       <c r="J351" s="15"/>
       <c r="K351" s="15"/>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" hidden="1">
       <c r="A352" s="9">
         <v>8</v>
       </c>
@@ -19101,7 +18992,7 @@
       <c r="J352" s="15"/>
       <c r="K352" s="15"/>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" hidden="1">
       <c r="A353" s="9">
         <v>8</v>
       </c>
@@ -19128,7 +19019,7 @@
       <c r="J353" s="15"/>
       <c r="K353" s="15"/>
     </row>
-    <row r="354" spans="1:11" ht="27.6">
+    <row r="354" spans="1:11" ht="27.6" hidden="1">
       <c r="A354" s="9">
         <v>8</v>
       </c>
@@ -19155,7 +19046,7 @@
       <c r="J354" s="15"/>
       <c r="K354" s="15"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" hidden="1">
       <c r="A355" s="9">
         <v>8</v>
       </c>
@@ -19182,7 +19073,7 @@
       <c r="J355" s="15"/>
       <c r="K355" s="15"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" hidden="1">
       <c r="A356" s="9">
         <v>8</v>
       </c>
@@ -19209,7 +19100,7 @@
       <c r="J356" s="15"/>
       <c r="K356" s="15"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" hidden="1">
       <c r="A357" s="9">
         <v>8</v>
       </c>
@@ -19236,7 +19127,7 @@
       <c r="J357" s="15"/>
       <c r="K357" s="15"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" hidden="1">
       <c r="A358" s="9">
         <v>8</v>
       </c>
@@ -19263,7 +19154,7 @@
       <c r="J358" s="15"/>
       <c r="K358" s="15"/>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" hidden="1">
       <c r="A359" s="9">
         <v>8</v>
       </c>
@@ -19290,7 +19181,7 @@
       <c r="J359" s="15"/>
       <c r="K359" s="15"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" hidden="1">
       <c r="A360" s="9">
         <v>8</v>
       </c>
@@ -19317,7 +19208,7 @@
       <c r="J360" s="15"/>
       <c r="K360" s="15"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" hidden="1">
       <c r="A361" s="9">
         <v>8</v>
       </c>
@@ -19344,7 +19235,7 @@
       <c r="J361" s="15"/>
       <c r="K361" s="15"/>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" hidden="1">
       <c r="A362" s="9">
         <v>8</v>
       </c>
@@ -19371,7 +19262,7 @@
       <c r="J362" s="15"/>
       <c r="K362" s="15"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" hidden="1">
       <c r="A363" s="9">
         <v>8</v>
       </c>
@@ -19398,7 +19289,7 @@
       <c r="J363" s="15"/>
       <c r="K363" s="15"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" hidden="1">
       <c r="A364" s="9">
         <v>8</v>
       </c>
@@ -19425,7 +19316,7 @@
       <c r="J364" s="15"/>
       <c r="K364" s="15"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" hidden="1">
       <c r="A365" s="9">
         <v>8</v>
       </c>
@@ -19452,7 +19343,7 @@
       <c r="J365" s="15"/>
       <c r="K365" s="15"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" hidden="1">
       <c r="A366" s="9">
         <v>8</v>
       </c>
@@ -19479,7 +19370,7 @@
       <c r="J366" s="15"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" hidden="1">
       <c r="A367" s="9">
         <v>8</v>
       </c>
@@ -19506,7 +19397,7 @@
       <c r="J367" s="15"/>
       <c r="K367" s="15"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" hidden="1">
       <c r="A368" s="9">
         <v>8</v>
       </c>
@@ -19533,7 +19424,7 @@
       <c r="J368" s="15"/>
       <c r="K368" s="15"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" hidden="1">
       <c r="A369" s="9">
         <v>8</v>
       </c>
@@ -19560,7 +19451,7 @@
       <c r="J369" s="15"/>
       <c r="K369" s="15"/>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" hidden="1">
       <c r="A370" s="9">
         <v>8</v>
       </c>
@@ -19587,7 +19478,7 @@
       <c r="J370" s="15"/>
       <c r="K370" s="15"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" hidden="1">
       <c r="A371" s="9">
         <v>8</v>
       </c>
@@ -19614,7 +19505,7 @@
       <c r="J371" s="15"/>
       <c r="K371" s="15"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" hidden="1">
       <c r="A372" s="9">
         <v>8</v>
       </c>
@@ -19641,7 +19532,7 @@
       <c r="J372" s="15"/>
       <c r="K372" s="15"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" hidden="1">
       <c r="A373" s="9">
         <v>8</v>
       </c>
@@ -19668,7 +19559,7 @@
       <c r="J373" s="15"/>
       <c r="K373" s="15"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" hidden="1">
       <c r="A374" s="9">
         <v>8</v>
       </c>
@@ -19695,7 +19586,7 @@
       <c r="J374" s="15"/>
       <c r="K374" s="15"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" hidden="1">
       <c r="A375" s="9">
         <v>8</v>
       </c>
@@ -19722,7 +19613,7 @@
       <c r="J375" s="15"/>
       <c r="K375" s="15"/>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" hidden="1">
       <c r="A376" s="9">
         <v>8</v>
       </c>
@@ -19749,7 +19640,7 @@
       <c r="J376" s="15"/>
       <c r="K376" s="15"/>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" hidden="1">
       <c r="A377" s="9">
         <v>8</v>
       </c>
@@ -19776,7 +19667,7 @@
       <c r="J377" s="15"/>
       <c r="K377" s="15"/>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" hidden="1">
       <c r="A378" s="9">
         <v>8</v>
       </c>
@@ -19803,7 +19694,7 @@
       <c r="J378" s="15"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" hidden="1">
       <c r="A379" s="9">
         <v>8</v>
       </c>
@@ -19830,7 +19721,7 @@
       <c r="J379" s="15"/>
       <c r="K379" s="15"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" hidden="1">
       <c r="A380" s="9">
         <v>8</v>
       </c>
@@ -19857,7 +19748,7 @@
       <c r="J380" s="15"/>
       <c r="K380" s="15"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" hidden="1">
       <c r="A381" s="9">
         <v>8</v>
       </c>
@@ -19884,7 +19775,7 @@
       <c r="J381" s="15"/>
       <c r="K381" s="15"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" hidden="1">
       <c r="A382" s="9">
         <v>8</v>
       </c>
@@ -19911,7 +19802,7 @@
       <c r="J382" s="15"/>
       <c r="K382" s="15"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" hidden="1">
       <c r="A383" s="9">
         <v>8</v>
       </c>
@@ -19938,7 +19829,7 @@
       <c r="J383" s="15"/>
       <c r="K383" s="15"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" hidden="1">
       <c r="A384" s="9">
         <v>8</v>
       </c>
@@ -19965,7 +19856,7 @@
       <c r="J384" s="15"/>
       <c r="K384" s="15"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" hidden="1">
       <c r="A385" s="9">
         <v>8</v>
       </c>
@@ -19992,7 +19883,7 @@
       <c r="J385" s="15"/>
       <c r="K385" s="15"/>
     </row>
-    <row r="386" spans="1:11" ht="27.6">
+    <row r="386" spans="1:11" ht="27.6" hidden="1">
       <c r="A386" s="9">
         <v>8</v>
       </c>
@@ -20019,7 +19910,7 @@
       <c r="J386" s="15"/>
       <c r="K386" s="15"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" hidden="1">
       <c r="A387" s="9">
         <v>8</v>
       </c>
@@ -20046,7 +19937,7 @@
       <c r="J387" s="15"/>
       <c r="K387" s="15"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" hidden="1">
       <c r="A388" s="9">
         <v>8</v>
       </c>
@@ -20073,7 +19964,7 @@
       <c r="J388" s="15"/>
       <c r="K388" s="15"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" hidden="1">
       <c r="A389" s="9">
         <v>8</v>
       </c>
@@ -20100,7 +19991,7 @@
       <c r="J389" s="15"/>
       <c r="K389" s="15"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" hidden="1">
       <c r="A390" s="9">
         <v>8</v>
       </c>
@@ -20127,7 +20018,7 @@
       <c r="J390" s="15"/>
       <c r="K390" s="15"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" hidden="1">
       <c r="A391" s="9">
         <v>8</v>
       </c>
@@ -20154,7 +20045,7 @@
       <c r="J391" s="15"/>
       <c r="K391" s="15"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" hidden="1">
       <c r="A392" s="9">
         <v>8</v>
       </c>
@@ -20181,7 +20072,7 @@
       <c r="J392" s="15"/>
       <c r="K392" s="15"/>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" hidden="1">
       <c r="A393" s="9">
         <v>8</v>
       </c>
@@ -20189,7 +20080,7 @@
         <v>535</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D393" s="9" t="s">
         <v>192</v>
@@ -20208,7 +20099,7 @@
       <c r="J393" s="15"/>
       <c r="K393" s="15"/>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" hidden="1">
       <c r="A394" s="9">
         <v>8</v>
       </c>
@@ -20216,7 +20107,7 @@
         <v>536</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>192</v>
@@ -20235,7 +20126,7 @@
       <c r="J394" s="15"/>
       <c r="K394" s="15"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" hidden="1">
       <c r="A395" s="9">
         <v>8</v>
       </c>
@@ -20243,7 +20134,7 @@
         <v>537</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>192</v>
@@ -20262,7 +20153,7 @@
       <c r="J395" s="15"/>
       <c r="K395" s="15"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" hidden="1">
       <c r="A396" s="9">
         <v>8</v>
       </c>
@@ -20270,7 +20161,7 @@
         <v>538</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>192</v>
@@ -20289,7 +20180,7 @@
       <c r="J396" s="15"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" hidden="1">
       <c r="A397" s="9">
         <v>8</v>
       </c>
@@ -20297,7 +20188,7 @@
         <v>539</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>192</v>
@@ -20316,7 +20207,7 @@
       <c r="J397" s="15"/>
       <c r="K397" s="15"/>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" hidden="1">
       <c r="A398" s="9">
         <v>8</v>
       </c>
@@ -20324,7 +20215,7 @@
         <v>540</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>192</v>
@@ -20343,7 +20234,7 @@
       <c r="J398" s="15"/>
       <c r="K398" s="15"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" hidden="1">
       <c r="A399" s="9">
         <v>8</v>
       </c>
@@ -20351,7 +20242,7 @@
         <v>541</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D399" s="9" t="s">
         <v>192</v>
@@ -20370,7 +20261,7 @@
       <c r="J399" s="15"/>
       <c r="K399" s="15"/>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" hidden="1">
       <c r="A400" s="9">
         <v>8</v>
       </c>
@@ -20378,7 +20269,7 @@
         <v>542</v>
       </c>
       <c r="C400" s="9" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>192</v>
@@ -20397,7 +20288,7 @@
       <c r="J400" s="15"/>
       <c r="K400" s="15"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" hidden="1">
       <c r="A401" s="9">
         <v>8</v>
       </c>
@@ -20405,7 +20296,7 @@
         <v>543</v>
       </c>
       <c r="C401" s="9" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>192</v>
@@ -20424,7 +20315,7 @@
       <c r="J401" s="15"/>
       <c r="K401" s="15"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" hidden="1">
       <c r="A402" s="9">
         <v>8</v>
       </c>
@@ -20432,7 +20323,7 @@
         <v>544</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>192</v>
@@ -20451,7 +20342,7 @@
       <c r="J402" s="15"/>
       <c r="K402" s="15"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" hidden="1">
       <c r="A403" s="9">
         <v>8</v>
       </c>
@@ -20459,7 +20350,7 @@
         <v>627</v>
       </c>
       <c r="C403" s="9" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>192</v>
@@ -20478,7 +20369,7 @@
       <c r="J403" s="15"/>
       <c r="K403" s="15"/>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" hidden="1">
       <c r="A404" s="9">
         <v>8</v>
       </c>
@@ -20486,7 +20377,7 @@
         <v>545</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>192</v>
@@ -20505,7 +20396,7 @@
       <c r="J404" s="15"/>
       <c r="K404" s="15"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" hidden="1">
       <c r="A405" s="9">
         <v>8</v>
       </c>
@@ -20513,7 +20404,7 @@
         <v>546</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D405" s="9" t="s">
         <v>192</v>
@@ -20532,7 +20423,7 @@
       <c r="J405" s="15"/>
       <c r="K405" s="15"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" hidden="1">
       <c r="A406" s="9">
         <v>8</v>
       </c>
@@ -20540,7 +20431,7 @@
         <v>547</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>192</v>
@@ -20559,7 +20450,7 @@
       <c r="J406" s="15"/>
       <c r="K406" s="15"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" hidden="1">
       <c r="A407" s="9">
         <v>8</v>
       </c>
@@ -20567,7 +20458,7 @@
         <v>548</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>192</v>
@@ -20586,7 +20477,7 @@
       <c r="J407" s="15"/>
       <c r="K407" s="15"/>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" hidden="1">
       <c r="A408" s="9">
         <v>8</v>
       </c>
@@ -20594,7 +20485,7 @@
         <v>549</v>
       </c>
       <c r="C408" s="9" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D408" s="9" t="s">
         <v>192</v>
@@ -20613,7 +20504,7 @@
       <c r="J408" s="15"/>
       <c r="K408" s="15"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" hidden="1">
       <c r="A409" s="9">
         <v>8</v>
       </c>
@@ -20621,7 +20512,7 @@
         <v>551</v>
       </c>
       <c r="C409" s="9" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D409" s="9" t="s">
         <v>192</v>
@@ -20640,7 +20531,7 @@
       <c r="J409" s="15"/>
       <c r="K409" s="15"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" hidden="1">
       <c r="A410" s="9">
         <v>8</v>
       </c>
@@ -20667,7 +20558,7 @@
       <c r="J410" s="15"/>
       <c r="K410" s="15"/>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" hidden="1">
       <c r="A411" s="9">
         <v>8</v>
       </c>
@@ -20675,7 +20566,7 @@
         <v>567</v>
       </c>
       <c r="C411" s="9" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>192</v>
@@ -20694,7 +20585,7 @@
       <c r="J411" s="15"/>
       <c r="K411" s="15"/>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" hidden="1">
       <c r="A412" s="9">
         <v>8</v>
       </c>
@@ -20721,7 +20612,7 @@
       <c r="J412" s="15"/>
       <c r="K412" s="15"/>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" hidden="1">
       <c r="A413" s="9">
         <v>8</v>
       </c>
@@ -20748,7 +20639,7 @@
       <c r="J413" s="15"/>
       <c r="K413" s="15"/>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" hidden="1">
       <c r="A414" s="9">
         <v>8</v>
       </c>
@@ -20775,7 +20666,7 @@
       <c r="J414" s="15"/>
       <c r="K414" s="15"/>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" hidden="1">
       <c r="A415" s="9">
         <v>8</v>
       </c>
@@ -20783,7 +20674,7 @@
         <v>628</v>
       </c>
       <c r="C415" s="9" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D415" s="9" t="s">
         <v>192</v>
@@ -20802,7 +20693,7 @@
       <c r="J415" s="15"/>
       <c r="K415" s="15"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" hidden="1">
       <c r="A416" s="9">
         <v>8</v>
       </c>
@@ -20829,7 +20720,7 @@
       <c r="J416" s="15"/>
       <c r="K416" s="15"/>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" hidden="1">
       <c r="A417" s="9">
         <v>8</v>
       </c>
@@ -20837,7 +20728,7 @@
         <v>671</v>
       </c>
       <c r="C417" s="9" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D417" s="9" t="s">
         <v>192</v>
@@ -20856,7 +20747,7 @@
       <c r="J417" s="15"/>
       <c r="K417" s="15"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" hidden="1">
       <c r="A418" s="9">
         <v>8</v>
       </c>
@@ -20864,7 +20755,7 @@
         <v>672</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>192</v>
@@ -20883,7 +20774,7 @@
       <c r="J418" s="15"/>
       <c r="K418" s="15"/>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" hidden="1">
       <c r="A419" s="9">
         <v>8</v>
       </c>
@@ -20891,7 +20782,7 @@
         <v>673</v>
       </c>
       <c r="C419" s="9" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>192</v>
@@ -20910,7 +20801,7 @@
       <c r="J419" s="15"/>
       <c r="K419" s="15"/>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" hidden="1">
       <c r="A420" s="9">
         <v>8</v>
       </c>
@@ -20918,7 +20809,7 @@
         <v>674</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>192</v>
@@ -20937,7 +20828,7 @@
       <c r="J420" s="15"/>
       <c r="K420" s="15"/>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" hidden="1">
       <c r="A421" s="9">
         <v>8</v>
       </c>
@@ -20945,7 +20836,7 @@
         <v>2023</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>192</v>
@@ -20964,7 +20855,7 @@
       <c r="J421" s="15"/>
       <c r="K421" s="15"/>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" hidden="1">
       <c r="A422" s="9">
         <v>8</v>
       </c>
@@ -20972,7 +20863,7 @@
         <v>2024</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>192</v>
@@ -20991,7 +20882,7 @@
       <c r="J422" s="15"/>
       <c r="K422" s="15"/>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" hidden="1">
       <c r="A423" s="9">
         <v>8</v>
       </c>
@@ -20999,7 +20890,7 @@
         <v>2025</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>192</v>
@@ -21018,7 +20909,7 @@
       <c r="J423" s="15"/>
       <c r="K423" s="15"/>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" hidden="1">
       <c r="A424" s="9">
         <v>8</v>
       </c>
@@ -21026,7 +20917,7 @@
         <v>2026</v>
       </c>
       <c r="C424" s="9" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>192</v>
@@ -21045,7 +20936,7 @@
       <c r="J424" s="15"/>
       <c r="K424" s="15"/>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" hidden="1">
       <c r="A425" s="9">
         <v>8</v>
       </c>
@@ -21053,7 +20944,7 @@
         <v>2027</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>192</v>
@@ -21072,7 +20963,7 @@
       <c r="J425" s="15"/>
       <c r="K425" s="15"/>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" hidden="1">
       <c r="A426" s="9">
         <v>8</v>
       </c>
@@ -21080,7 +20971,7 @@
         <v>2028</v>
       </c>
       <c r="C426" s="9" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>192</v>
@@ -21099,7 +20990,7 @@
       <c r="J426" s="15"/>
       <c r="K426" s="15"/>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" hidden="1">
       <c r="A427" s="9">
         <v>8</v>
       </c>
@@ -21107,7 +20998,7 @@
         <v>2029</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>192</v>
@@ -21126,7 +21017,7 @@
       <c r="J427" s="15"/>
       <c r="K427" s="15"/>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" hidden="1">
       <c r="A428" s="9">
         <v>8</v>
       </c>
@@ -21134,7 +21025,7 @@
         <v>2030</v>
       </c>
       <c r="C428" s="9" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>192</v>
@@ -21153,7 +21044,7 @@
       <c r="J428" s="15"/>
       <c r="K428" s="15"/>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" hidden="1">
       <c r="A429" s="9">
         <v>8</v>
       </c>
@@ -21161,7 +21052,7 @@
         <v>2031</v>
       </c>
       <c r="C429" s="9" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D429" s="9" t="s">
         <v>192</v>
@@ -21180,7 +21071,7 @@
       <c r="J429" s="15"/>
       <c r="K429" s="15"/>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" hidden="1">
       <c r="A430" s="9">
         <v>8</v>
       </c>
@@ -21188,7 +21079,7 @@
         <v>2032</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>192</v>
@@ -21207,7 +21098,7 @@
       <c r="J430" s="15"/>
       <c r="K430" s="15"/>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" hidden="1">
       <c r="A431" s="9">
         <v>8</v>
       </c>
@@ -21215,7 +21106,7 @@
         <v>2033</v>
       </c>
       <c r="C431" s="9" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>192</v>
@@ -21234,7 +21125,7 @@
       <c r="J431" s="15"/>
       <c r="K431" s="15"/>
     </row>
-    <row r="432" spans="1:11" ht="27.6">
+    <row r="432" spans="1:11" ht="27.6" hidden="1">
       <c r="A432" s="9">
         <v>8</v>
       </c>
@@ -21261,7 +21152,7 @@
       <c r="J432" s="15"/>
       <c r="K432" s="15"/>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" hidden="1">
       <c r="A433" s="9">
         <v>8</v>
       </c>
@@ -21288,7 +21179,7 @@
       <c r="J433" s="15"/>
       <c r="K433" s="15"/>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" hidden="1">
       <c r="A434" s="9">
         <v>8</v>
       </c>
@@ -21315,7 +21206,7 @@
       <c r="J434" s="15"/>
       <c r="K434" s="15"/>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" hidden="1">
       <c r="A435" s="9">
         <v>8</v>
       </c>
@@ -21342,7 +21233,7 @@
       <c r="J435" s="15"/>
       <c r="K435" s="15"/>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" hidden="1">
       <c r="A436" s="9">
         <v>8</v>
       </c>
@@ -21369,7 +21260,7 @@
       <c r="J436" s="15"/>
       <c r="K436" s="15"/>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" hidden="1">
       <c r="A437" s="9">
         <v>8</v>
       </c>
@@ -21396,7 +21287,7 @@
       <c r="J437" s="15"/>
       <c r="K437" s="15"/>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" hidden="1">
       <c r="A438" s="9">
         <v>8</v>
       </c>
@@ -21423,7 +21314,7 @@
       <c r="J438" s="15"/>
       <c r="K438" s="15"/>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" hidden="1">
       <c r="A439" s="9">
         <v>8</v>
       </c>
@@ -21450,7 +21341,7 @@
       <c r="J439" s="15"/>
       <c r="K439" s="15"/>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" hidden="1">
       <c r="A440" s="9">
         <v>8</v>
       </c>
@@ -21477,7 +21368,7 @@
       <c r="J440" s="15"/>
       <c r="K440" s="15"/>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" hidden="1">
       <c r="A441" s="9">
         <v>8</v>
       </c>
@@ -21504,7 +21395,7 @@
       <c r="J441" s="15"/>
       <c r="K441" s="15"/>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" hidden="1">
       <c r="A442" s="9">
         <v>8</v>
       </c>
@@ -21531,7 +21422,7 @@
       <c r="J442" s="15"/>
       <c r="K442" s="15"/>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" hidden="1">
       <c r="A443" s="9">
         <v>8</v>
       </c>
@@ -21558,7 +21449,7 @@
       <c r="J443" s="15"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" hidden="1">
       <c r="A444" s="9">
         <v>8</v>
       </c>
@@ -21585,7 +21476,7 @@
       <c r="J444" s="15"/>
       <c r="K444" s="15"/>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" hidden="1">
       <c r="A445" s="9">
         <v>8</v>
       </c>
@@ -21612,7 +21503,7 @@
       <c r="J445" s="15"/>
       <c r="K445" s="15"/>
     </row>
-    <row r="446" spans="1:11" ht="27.6">
+    <row r="446" spans="1:11" ht="27.6" hidden="1">
       <c r="A446" s="9">
         <v>8</v>
       </c>
@@ -21639,7 +21530,7 @@
       <c r="J446" s="15"/>
       <c r="K446" s="15"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" hidden="1">
       <c r="A447" s="9">
         <v>8</v>
       </c>
@@ -21666,7 +21557,7 @@
       <c r="J447" s="15"/>
       <c r="K447" s="15"/>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" hidden="1">
       <c r="A448" s="9">
         <v>8</v>
       </c>
@@ -21693,7 +21584,7 @@
       <c r="J448" s="15"/>
       <c r="K448" s="15"/>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" hidden="1">
       <c r="A449" s="9">
         <v>8</v>
       </c>
@@ -21720,7 +21611,7 @@
       <c r="J449" s="15"/>
       <c r="K449" s="15"/>
     </row>
-    <row r="450" spans="1:11" ht="14.4">
+    <row r="450" spans="1:11" ht="14.4" hidden="1">
       <c r="A450" s="9"/>
       <c r="B450" s="9" t="s">
         <v>1845</v>
@@ -21739,7 +21630,7 @@
       <c r="J450" s="15"/>
       <c r="K450" s="15"/>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" hidden="1">
       <c r="A451" s="9">
         <v>8</v>
       </c>
@@ -21766,7 +21657,7 @@
       <c r="J451" s="15"/>
       <c r="K451" s="15"/>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" hidden="1">
       <c r="A452" s="9">
         <v>8</v>
       </c>
@@ -21793,7 +21684,7 @@
       <c r="J452" s="15"/>
       <c r="K452" s="15"/>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" hidden="1">
       <c r="A453" s="9">
         <v>8</v>
       </c>
@@ -21820,7 +21711,7 @@
       <c r="J453" s="15"/>
       <c r="K453" s="15"/>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" hidden="1">
       <c r="A454" s="9">
         <v>8</v>
       </c>
@@ -21847,7 +21738,7 @@
       <c r="J454" s="15"/>
       <c r="K454" s="15"/>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" hidden="1">
       <c r="A455" s="9">
         <v>8</v>
       </c>
@@ -21874,7 +21765,7 @@
       <c r="J455" s="15"/>
       <c r="K455" s="15"/>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" hidden="1">
       <c r="A456" s="9">
         <v>8</v>
       </c>
@@ -21901,7 +21792,7 @@
       <c r="J456" s="15"/>
       <c r="K456" s="15"/>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" hidden="1">
       <c r="A457" s="9">
         <v>8</v>
       </c>
@@ -21928,7 +21819,7 @@
       <c r="J457" s="15"/>
       <c r="K457" s="15"/>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" hidden="1">
       <c r="A458" s="9">
         <v>8</v>
       </c>
@@ -21955,7 +21846,7 @@
       <c r="J458" s="15"/>
       <c r="K458" s="15"/>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" hidden="1">
       <c r="A459" s="9">
         <v>8</v>
       </c>
@@ -21982,7 +21873,7 @@
       <c r="J459" s="15"/>
       <c r="K459" s="15"/>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" hidden="1">
       <c r="A460" s="9">
         <v>8</v>
       </c>
@@ -22009,7 +21900,7 @@
       <c r="J460" s="15"/>
       <c r="K460" s="15"/>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" hidden="1">
       <c r="A461" s="9">
         <v>8</v>
       </c>
@@ -22036,7 +21927,7 @@
       <c r="J461" s="15"/>
       <c r="K461" s="15"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" hidden="1">
       <c r="A462" s="9">
         <v>8</v>
       </c>
@@ -22063,7 +21954,7 @@
       <c r="J462" s="15"/>
       <c r="K462" s="15"/>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" hidden="1">
       <c r="A463" s="9">
         <v>8</v>
       </c>
@@ -22090,7 +21981,7 @@
       <c r="J463" s="15"/>
       <c r="K463" s="15"/>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" hidden="1">
       <c r="A464" s="9">
         <v>8</v>
       </c>
@@ -22117,7 +22008,7 @@
       <c r="J464" s="15"/>
       <c r="K464" s="15"/>
     </row>
-    <row r="465" spans="1:11" ht="27.6">
+    <row r="465" spans="1:11" ht="27.6" hidden="1">
       <c r="A465" s="9">
         <v>8</v>
       </c>
@@ -22144,7 +22035,7 @@
       <c r="J465" s="15"/>
       <c r="K465" s="15"/>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" hidden="1">
       <c r="A466" s="9">
         <v>8</v>
       </c>
@@ -22171,7 +22062,7 @@
       <c r="J466" s="15"/>
       <c r="K466" s="15"/>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" hidden="1">
       <c r="A467" s="9">
         <v>8</v>
       </c>
@@ -22198,7 +22089,7 @@
       <c r="J467" s="15"/>
       <c r="K467" s="15"/>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" hidden="1">
       <c r="A468" s="9">
         <v>8</v>
       </c>
@@ -22225,7 +22116,7 @@
       <c r="J468" s="15"/>
       <c r="K468" s="15"/>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" hidden="1">
       <c r="A469" s="9">
         <v>8</v>
       </c>
@@ -22252,7 +22143,7 @@
       <c r="J469" s="15"/>
       <c r="K469" s="15"/>
     </row>
-    <row r="470" spans="1:11" ht="27.6">
+    <row r="470" spans="1:11" ht="27.6" hidden="1">
       <c r="A470" s="9">
         <v>8</v>
       </c>
@@ -22279,7 +22170,7 @@
       <c r="J470" s="15"/>
       <c r="K470" s="15"/>
     </row>
-    <row r="471" spans="1:11" ht="27.6">
+    <row r="471" spans="1:11" ht="27.6" hidden="1">
       <c r="A471" s="9">
         <v>8</v>
       </c>
@@ -22306,7 +22197,7 @@
       <c r="J471" s="15"/>
       <c r="K471" s="15"/>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" hidden="1">
       <c r="A472" s="9">
         <v>8</v>
       </c>
@@ -22333,7 +22224,7 @@
       <c r="J472" s="15"/>
       <c r="K472" s="15"/>
     </row>
-    <row r="473" spans="1:11" ht="27.6">
+    <row r="473" spans="1:11" ht="27.6" hidden="1">
       <c r="A473" s="9">
         <v>8</v>
       </c>
@@ -22360,7 +22251,7 @@
       <c r="J473" s="9"/>
       <c r="K473" s="9"/>
     </row>
-    <row r="474" spans="1:11" ht="27.6">
+    <row r="474" spans="1:11" ht="27.6" hidden="1">
       <c r="A474" s="9">
         <v>8</v>
       </c>
@@ -22387,7 +22278,7 @@
       <c r="J474" s="9"/>
       <c r="K474" s="9"/>
     </row>
-    <row r="475" spans="1:11" ht="27.6">
+    <row r="475" spans="1:11" ht="27.6" hidden="1">
       <c r="A475" s="9">
         <v>8</v>
       </c>
@@ -22414,7 +22305,7 @@
       <c r="J475" s="9"/>
       <c r="K475" s="9"/>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" hidden="1">
       <c r="A476" s="9">
         <v>8</v>
       </c>
@@ -22441,7 +22332,7 @@
       <c r="J476" s="9"/>
       <c r="K476" s="9"/>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" hidden="1">
       <c r="A477" s="9">
         <v>8</v>
       </c>
@@ -22468,7 +22359,7 @@
       <c r="J477" s="9"/>
       <c r="K477" s="9"/>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" hidden="1">
       <c r="A478" s="9">
         <v>8</v>
       </c>
@@ -22495,7 +22386,7 @@
       <c r="J478" s="9"/>
       <c r="K478" s="9"/>
     </row>
-    <row r="479" spans="1:11" ht="27.6">
+    <row r="479" spans="1:11" ht="27.6" hidden="1">
       <c r="A479" s="16">
         <v>2</v>
       </c>
@@ -22524,7 +22415,7 @@
       <c r="J479" s="17"/>
       <c r="K479" s="17"/>
     </row>
-    <row r="480" spans="1:11" ht="41.4">
+    <row r="480" spans="1:11" ht="41.4" hidden="1">
       <c r="A480" s="16">
         <v>2</v>
       </c>
@@ -22553,7 +22444,7 @@
       <c r="J480" s="17"/>
       <c r="K480" s="17"/>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" hidden="1">
       <c r="A481" s="16">
         <v>2</v>
       </c>
@@ -22584,7 +22475,7 @@
       <c r="J481" s="17"/>
       <c r="K481" s="17"/>
     </row>
-    <row r="482" spans="1:11" ht="27.6">
+    <row r="482" spans="1:11" ht="27.6" hidden="1">
       <c r="A482" s="16">
         <v>2</v>
       </c>
@@ -22615,7 +22506,7 @@
       <c r="J482" s="17"/>
       <c r="K482" s="17"/>
     </row>
-    <row r="483" spans="1:11" ht="27.6">
+    <row r="483" spans="1:11" ht="27.6" hidden="1">
       <c r="A483" s="16">
         <v>2</v>
       </c>
@@ -22644,7 +22535,7 @@
       <c r="J483" s="17"/>
       <c r="K483" s="17"/>
     </row>
-    <row r="484" spans="1:11" ht="41.4">
+    <row r="484" spans="1:11" ht="41.4" hidden="1">
       <c r="A484" s="16">
         <v>2</v>
       </c>
@@ -22675,7 +22566,7 @@
       <c r="J484" s="17"/>
       <c r="K484" s="17"/>
     </row>
-    <row r="485" spans="1:11" ht="27.6">
+    <row r="485" spans="1:11" ht="27.6" hidden="1">
       <c r="A485" s="16">
         <v>2</v>
       </c>
@@ -22704,7 +22595,7 @@
       <c r="J485" s="17"/>
       <c r="K485" s="17"/>
     </row>
-    <row r="486" spans="1:11" ht="41.4">
+    <row r="486" spans="1:11" ht="41.4" hidden="1">
       <c r="A486" s="16">
         <v>2</v>
       </c>
@@ -22733,7 +22624,7 @@
       <c r="J486" s="17"/>
       <c r="K486" s="17"/>
     </row>
-    <row r="487" spans="1:11" ht="41.4">
+    <row r="487" spans="1:11" ht="41.4" hidden="1">
       <c r="A487" s="16">
         <v>2</v>
       </c>
@@ -22764,7 +22655,7 @@
       <c r="J487" s="17"/>
       <c r="K487" s="17"/>
     </row>
-    <row r="488" spans="1:11" ht="41.4">
+    <row r="488" spans="1:11" ht="41.4" hidden="1">
       <c r="A488" s="16">
         <v>2</v>
       </c>
@@ -22793,7 +22684,7 @@
       <c r="J488" s="17"/>
       <c r="K488" s="17"/>
     </row>
-    <row r="489" spans="1:11" ht="27.6">
+    <row r="489" spans="1:11" ht="27.6" hidden="1">
       <c r="A489" s="16">
         <v>2</v>
       </c>
@@ -22824,7 +22715,7 @@
       <c r="J489" s="17"/>
       <c r="K489" s="17"/>
     </row>
-    <row r="490" spans="1:11" ht="27.6">
+    <row r="490" spans="1:11" ht="27.6" hidden="1">
       <c r="A490" s="16">
         <v>2</v>
       </c>
@@ -22855,7 +22746,7 @@
       <c r="J490" s="17"/>
       <c r="K490" s="17"/>
     </row>
-    <row r="491" spans="1:11" ht="27.6">
+    <row r="491" spans="1:11" ht="27.6" hidden="1">
       <c r="A491" s="16">
         <v>2</v>
       </c>
@@ -22884,7 +22775,7 @@
       <c r="J491" s="17"/>
       <c r="K491" s="17"/>
     </row>
-    <row r="492" spans="1:11" ht="27.6">
+    <row r="492" spans="1:11" ht="27.6" hidden="1">
       <c r="A492" s="16">
         <v>2</v>
       </c>
@@ -22913,7 +22804,7 @@
       <c r="J492" s="17"/>
       <c r="K492" s="17"/>
     </row>
-    <row r="493" spans="1:11" ht="41.4">
+    <row r="493" spans="1:11" ht="41.4" hidden="1">
       <c r="A493" s="16">
         <v>2</v>
       </c>
@@ -22946,7 +22837,7 @@
       </c>
       <c r="K493" s="17"/>
     </row>
-    <row r="494" spans="1:11" ht="27.6">
+    <row r="494" spans="1:11" ht="27.6" hidden="1">
       <c r="A494" s="16">
         <v>2</v>
       </c>
@@ -22977,7 +22868,7 @@
       <c r="J494" s="17"/>
       <c r="K494" s="17"/>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" hidden="1">
       <c r="A495" s="16">
         <v>2</v>
       </c>
@@ -23006,7 +22897,7 @@
       <c r="J495" s="17"/>
       <c r="K495" s="17"/>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" hidden="1">
       <c r="A496" s="16">
         <v>2</v>
       </c>
@@ -23035,7 +22926,7 @@
       <c r="J496" s="17"/>
       <c r="K496" s="17"/>
     </row>
-    <row r="497" spans="1:11" ht="55.2">
+    <row r="497" spans="1:11" ht="55.2" hidden="1">
       <c r="A497" s="16">
         <v>2</v>
       </c>
@@ -23070,7 +22961,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="55.2">
+    <row r="498" spans="1:11" ht="55.2" hidden="1">
       <c r="A498" s="16">
         <v>2</v>
       </c>
@@ -23105,7 +22996,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="27.6">
+    <row r="499" spans="1:11" ht="27.6" hidden="1">
       <c r="A499" s="16">
         <v>2</v>
       </c>
@@ -23134,7 +23025,7 @@
       <c r="J499" s="17"/>
       <c r="K499" s="17"/>
     </row>
-    <row r="500" spans="1:11" ht="27.6">
+    <row r="500" spans="1:11" ht="27.6" hidden="1">
       <c r="A500" s="16">
         <v>2</v>
       </c>
@@ -23163,7 +23054,7 @@
       <c r="J500" s="17"/>
       <c r="K500" s="17"/>
     </row>
-    <row r="501" spans="1:11" ht="27.6">
+    <row r="501" spans="1:11" ht="27.6" hidden="1">
       <c r="A501" s="16">
         <v>2</v>
       </c>
@@ -23194,7 +23085,7 @@
       <c r="J501" s="17"/>
       <c r="K501" s="17"/>
     </row>
-    <row r="502" spans="1:11" ht="27.6">
+    <row r="502" spans="1:11" ht="27.6" hidden="1">
       <c r="A502" s="16">
         <v>2</v>
       </c>
@@ -23225,7 +23116,7 @@
       <c r="J502" s="17"/>
       <c r="K502" s="17"/>
     </row>
-    <row r="503" spans="1:11" ht="27.6">
+    <row r="503" spans="1:11" ht="27.6" hidden="1">
       <c r="A503" s="16">
         <v>2</v>
       </c>
@@ -23256,7 +23147,7 @@
       <c r="J503" s="17"/>
       <c r="K503" s="17"/>
     </row>
-    <row r="504" spans="1:11" ht="27.6">
+    <row r="504" spans="1:11" ht="27.6" hidden="1">
       <c r="A504" s="16">
         <v>2</v>
       </c>
@@ -23285,7 +23176,7 @@
       <c r="J504" s="17"/>
       <c r="K504" s="17"/>
     </row>
-    <row r="505" spans="1:11" ht="41.4">
+    <row r="505" spans="1:11" ht="41.4" hidden="1">
       <c r="A505" s="16">
         <v>2</v>
       </c>
@@ -23320,7 +23211,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="27.6">
+    <row r="506" spans="1:11" ht="27.6" hidden="1">
       <c r="A506" s="16">
         <v>2</v>
       </c>
@@ -23355,7 +23246,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="41.4">
+    <row r="507" spans="1:11" ht="41.4" hidden="1">
       <c r="A507" s="16">
         <v>2</v>
       </c>
@@ -23390,7 +23281,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="27.6">
+    <row r="508" spans="1:11" ht="27.6" hidden="1">
       <c r="A508" s="16">
         <v>2</v>
       </c>
@@ -23425,7 +23316,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="27.6">
+    <row r="509" spans="1:11" ht="27.6" hidden="1">
       <c r="A509" s="16">
         <v>2</v>
       </c>
@@ -23460,7 +23351,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="41.4">
+    <row r="510" spans="1:11" ht="41.4" hidden="1">
       <c r="A510" s="16">
         <v>2</v>
       </c>
@@ -23491,7 +23382,7 @@
       <c r="J510" s="17"/>
       <c r="K510" s="17"/>
     </row>
-    <row r="511" spans="1:11" ht="27.6">
+    <row r="511" spans="1:11" ht="27.6" hidden="1">
       <c r="A511" s="16">
         <v>2</v>
       </c>
@@ -23522,7 +23413,7 @@
       <c r="J511" s="17"/>
       <c r="K511" s="17"/>
     </row>
-    <row r="512" spans="1:11" ht="27.6">
+    <row r="512" spans="1:11" ht="27.6" hidden="1">
       <c r="A512" s="16">
         <v>2</v>
       </c>
@@ -23553,7 +23444,7 @@
       <c r="J512" s="17"/>
       <c r="K512" s="17"/>
     </row>
-    <row r="513" spans="1:11" ht="27.6">
+    <row r="513" spans="1:11" ht="27.6" hidden="1">
       <c r="A513" s="16">
         <v>2</v>
       </c>
@@ -23584,7 +23475,7 @@
       <c r="J513" s="17"/>
       <c r="K513" s="17"/>
     </row>
-    <row r="514" spans="1:11" ht="55.2">
+    <row r="514" spans="1:11" ht="55.2" hidden="1">
       <c r="A514" s="16">
         <v>2</v>
       </c>
@@ -23615,7 +23506,7 @@
       <c r="J514" s="17"/>
       <c r="K514" s="17"/>
     </row>
-    <row r="515" spans="1:11" ht="27.6">
+    <row r="515" spans="1:11" ht="27.6" hidden="1">
       <c r="A515" s="16">
         <v>2</v>
       </c>
@@ -23646,7 +23537,7 @@
       <c r="J515" s="17"/>
       <c r="K515" s="17"/>
     </row>
-    <row r="516" spans="1:11" ht="27.6">
+    <row r="516" spans="1:11" ht="27.6" hidden="1">
       <c r="A516" s="16">
         <v>2</v>
       </c>
@@ -23677,7 +23568,7 @@
       <c r="J516" s="17"/>
       <c r="K516" s="17"/>
     </row>
-    <row r="517" spans="1:11" ht="27.6">
+    <row r="517" spans="1:11" ht="27.6" hidden="1">
       <c r="A517" s="16">
         <v>2</v>
       </c>
@@ -23708,7 +23599,7 @@
       <c r="J517" s="17"/>
       <c r="K517" s="17"/>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" hidden="1">
       <c r="A518" s="16">
         <v>2</v>
       </c>
@@ -23739,7 +23630,7 @@
       <c r="J518" s="17"/>
       <c r="K518" s="17"/>
     </row>
-    <row r="519" spans="1:11" ht="27.6">
+    <row r="519" spans="1:11" ht="27.6" hidden="1">
       <c r="A519" s="16">
         <v>2</v>
       </c>
@@ -23770,7 +23661,7 @@
       <c r="J519" s="17"/>
       <c r="K519" s="17"/>
     </row>
-    <row r="520" spans="1:11" ht="27.6">
+    <row r="520" spans="1:11" ht="27.6" hidden="1">
       <c r="A520" s="16">
         <v>2</v>
       </c>
@@ -23803,7 +23694,7 @@
       </c>
       <c r="K520" s="17"/>
     </row>
-    <row r="521" spans="1:11" ht="41.4">
+    <row r="521" spans="1:11" ht="41.4" hidden="1">
       <c r="A521" s="16">
         <v>2</v>
       </c>
@@ -23836,7 +23727,7 @@
       </c>
       <c r="K521" s="17"/>
     </row>
-    <row r="522" spans="1:11" ht="27.6">
+    <row r="522" spans="1:11" ht="27.6" hidden="1">
       <c r="A522" s="16">
         <v>2</v>
       </c>
@@ -23867,7 +23758,7 @@
       <c r="J522" s="17"/>
       <c r="K522" s="17"/>
     </row>
-    <row r="523" spans="1:11" ht="27.6">
+    <row r="523" spans="1:11" ht="27.6" hidden="1">
       <c r="A523" s="16">
         <v>2</v>
       </c>
@@ -23898,7 +23789,7 @@
       <c r="J523" s="17"/>
       <c r="K523" s="17"/>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" hidden="1">
       <c r="A524" s="16">
         <v>2</v>
       </c>
@@ -23927,7 +23818,7 @@
       <c r="J524" s="17"/>
       <c r="K524" s="17"/>
     </row>
-    <row r="525" spans="1:11" ht="41.4">
+    <row r="525" spans="1:11" ht="41.4" hidden="1">
       <c r="A525" s="16">
         <v>2</v>
       </c>
@@ -23962,7 +23853,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="41.4">
+    <row r="526" spans="1:11" ht="41.4" hidden="1">
       <c r="A526" s="16">
         <v>2</v>
       </c>
@@ -23993,7 +23884,7 @@
       <c r="J526" s="17"/>
       <c r="K526" s="17"/>
     </row>
-    <row r="527" spans="1:11" ht="27.6">
+    <row r="527" spans="1:11" ht="27.6" hidden="1">
       <c r="A527" s="16">
         <v>2</v>
       </c>
@@ -24024,7 +23915,7 @@
       <c r="J527" s="17"/>
       <c r="K527" s="17"/>
     </row>
-    <row r="528" spans="1:11" ht="27.6">
+    <row r="528" spans="1:11" ht="27.6" hidden="1">
       <c r="A528" s="16">
         <v>2</v>
       </c>
@@ -24053,7 +23944,7 @@
       <c r="J528" s="17"/>
       <c r="K528" s="17"/>
     </row>
-    <row r="529" spans="1:11" ht="27.6">
+    <row r="529" spans="1:11" ht="27.6" hidden="1">
       <c r="A529" s="16">
         <v>2</v>
       </c>
@@ -24084,7 +23975,7 @@
       <c r="J529" s="17"/>
       <c r="K529" s="17"/>
     </row>
-    <row r="530" spans="1:11" ht="27.6">
+    <row r="530" spans="1:11" ht="27.6" hidden="1">
       <c r="A530" s="16">
         <v>2</v>
       </c>
@@ -24115,7 +24006,7 @@
       <c r="J530" s="17"/>
       <c r="K530" s="17"/>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" hidden="1">
       <c r="A531" s="16">
         <v>2</v>
       </c>
@@ -24144,7 +24035,7 @@
       <c r="J531" s="17"/>
       <c r="K531" s="17"/>
     </row>
-    <row r="532" spans="1:11" ht="27.6">
+    <row r="532" spans="1:11" ht="27.6" hidden="1">
       <c r="A532" s="16">
         <v>2</v>
       </c>
@@ -24175,7 +24066,7 @@
       <c r="J532" s="17"/>
       <c r="K532" s="17"/>
     </row>
-    <row r="533" spans="1:11" ht="27.6">
+    <row r="533" spans="1:11" ht="27.6" hidden="1">
       <c r="A533" s="16">
         <v>2</v>
       </c>
@@ -24204,7 +24095,7 @@
       <c r="J533" s="17"/>
       <c r="K533" s="17"/>
     </row>
-    <row r="534" spans="1:11" ht="41.4">
+    <row r="534" spans="1:11" ht="41.4" hidden="1">
       <c r="A534" s="16">
         <v>2</v>
       </c>
@@ -24235,7 +24126,7 @@
       <c r="J534" s="17"/>
       <c r="K534" s="17"/>
     </row>
-    <row r="535" spans="1:11" ht="41.4">
+    <row r="535" spans="1:11" ht="41.4" hidden="1">
       <c r="A535" s="16">
         <v>2</v>
       </c>
@@ -24264,7 +24155,7 @@
       <c r="J535" s="17"/>
       <c r="K535" s="17"/>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" hidden="1">
       <c r="A536" s="32">
         <v>2</v>
       </c>
@@ -24289,7 +24180,7 @@
       <c r="J536" s="17"/>
       <c r="K536" s="17"/>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" hidden="1">
       <c r="A537" s="32">
         <v>2</v>
       </c>
@@ -24314,7 +24205,7 @@
       <c r="J537" s="17"/>
       <c r="K537" s="17"/>
     </row>
-    <row r="538" spans="1:11" ht="27.6">
+    <row r="538" spans="1:11" ht="27.6" hidden="1">
       <c r="A538" s="32">
         <v>2</v>
       </c>
@@ -24339,7 +24230,7 @@
       <c r="J538" s="17"/>
       <c r="K538" s="17"/>
     </row>
-    <row r="539" spans="1:11" ht="27.6">
+    <row r="539" spans="1:11" ht="27.6" hidden="1">
       <c r="A539" s="32">
         <v>2</v>
       </c>
@@ -24364,7 +24255,7 @@
       <c r="J539" s="17"/>
       <c r="K539" s="17"/>
     </row>
-    <row r="540" spans="1:11" ht="27.6">
+    <row r="540" spans="1:11" ht="27.6" hidden="1">
       <c r="A540" s="32">
         <v>2</v>
       </c>
@@ -24389,7 +24280,7 @@
       <c r="J540" s="17"/>
       <c r="K540" s="17"/>
     </row>
-    <row r="541" spans="1:11" ht="55.2">
+    <row r="541" spans="1:11" ht="55.2" hidden="1">
       <c r="A541" s="32">
         <v>2</v>
       </c>
@@ -24414,7 +24305,7 @@
       <c r="J541" s="17"/>
       <c r="K541" s="17"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" hidden="1">
       <c r="A542" s="32">
         <v>2</v>
       </c>
@@ -24439,7 +24330,7 @@
       <c r="J542" s="17"/>
       <c r="K542" s="17"/>
     </row>
-    <row r="543" spans="1:11" ht="27.6">
+    <row r="543" spans="1:11" ht="27.6" hidden="1">
       <c r="A543" s="32">
         <v>2</v>
       </c>
@@ -24464,7 +24355,7 @@
       <c r="J543" s="17"/>
       <c r="K543" s="17"/>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" hidden="1">
       <c r="A544" s="16">
         <v>2</v>
       </c>
@@ -24493,7 +24384,7 @@
       <c r="J544" s="17"/>
       <c r="K544" s="17"/>
     </row>
-    <row r="545" spans="1:11" ht="27.6">
+    <row r="545" spans="1:11" ht="27.6" hidden="1">
       <c r="A545" s="16">
         <v>2</v>
       </c>
@@ -24524,7 +24415,7 @@
       <c r="J545" s="17"/>
       <c r="K545" s="17"/>
     </row>
-    <row r="546" spans="1:11" ht="27.6">
+    <row r="546" spans="1:11" ht="27.6" hidden="1">
       <c r="A546" s="16">
         <v>2</v>
       </c>
@@ -24555,7 +24446,7 @@
       <c r="J546" s="17"/>
       <c r="K546" s="17"/>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" hidden="1">
       <c r="A547" s="16">
         <v>2</v>
       </c>
@@ -24584,7 +24475,7 @@
       <c r="J547" s="17"/>
       <c r="K547" s="17"/>
     </row>
-    <row r="548" spans="1:11" ht="27.6">
+    <row r="548" spans="1:11" ht="27.6" hidden="1">
       <c r="A548" s="16">
         <v>2</v>
       </c>
@@ -24613,7 +24504,7 @@
       <c r="J548" s="17"/>
       <c r="K548" s="17"/>
     </row>
-    <row r="549" spans="1:11" ht="27.6">
+    <row r="549" spans="1:11" ht="27.6" hidden="1">
       <c r="A549" s="16">
         <v>2</v>
       </c>
@@ -24642,7 +24533,7 @@
       <c r="J549" s="17"/>
       <c r="K549" s="17"/>
     </row>
-    <row r="550" spans="1:11" ht="27.6">
+    <row r="550" spans="1:11" ht="27.6" hidden="1">
       <c r="A550" s="16">
         <v>2</v>
       </c>
@@ -24671,7 +24562,7 @@
       <c r="J550" s="17"/>
       <c r="K550" s="17"/>
     </row>
-    <row r="551" spans="1:11" ht="27.6">
+    <row r="551" spans="1:11" ht="27.6" hidden="1">
       <c r="A551" s="16">
         <v>2</v>
       </c>
@@ -24702,7 +24593,7 @@
       <c r="J551" s="17"/>
       <c r="K551" s="17"/>
     </row>
-    <row r="552" spans="1:11" ht="27.6">
+    <row r="552" spans="1:11" ht="27.6" hidden="1">
       <c r="A552" s="16">
         <v>2</v>
       </c>
@@ -24733,7 +24624,7 @@
       <c r="J552" s="17"/>
       <c r="K552" s="17"/>
     </row>
-    <row r="553" spans="1:11" ht="27.6">
+    <row r="553" spans="1:11" ht="27.6" hidden="1">
       <c r="A553" s="16">
         <v>2</v>
       </c>
@@ -24764,7 +24655,7 @@
       <c r="J553" s="17"/>
       <c r="K553" s="17"/>
     </row>
-    <row r="554" spans="1:11" ht="27.6">
+    <row r="554" spans="1:11" ht="27.6" hidden="1">
       <c r="A554" s="16">
         <v>2</v>
       </c>
@@ -24795,7 +24686,7 @@
       <c r="J554" s="17"/>
       <c r="K554" s="17"/>
     </row>
-    <row r="555" spans="1:11" ht="27.6">
+    <row r="555" spans="1:11" ht="27.6" hidden="1">
       <c r="A555" s="16">
         <v>2</v>
       </c>
@@ -24826,7 +24717,7 @@
       <c r="J555" s="17"/>
       <c r="K555" s="17"/>
     </row>
-    <row r="556" spans="1:11" ht="27.6">
+    <row r="556" spans="1:11" ht="27.6" hidden="1">
       <c r="A556" s="16">
         <v>2</v>
       </c>
@@ -24857,7 +24748,7 @@
       <c r="J556" s="17"/>
       <c r="K556" s="17"/>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:11" hidden="1">
       <c r="A557" s="16">
         <v>2</v>
       </c>
@@ -24886,7 +24777,7 @@
       <c r="J557" s="17"/>
       <c r="K557" s="17"/>
     </row>
-    <row r="558" spans="1:11" ht="27.6">
+    <row r="558" spans="1:11" ht="27.6" hidden="1">
       <c r="A558" s="16">
         <v>2</v>
       </c>
@@ -24915,7 +24806,7 @@
       <c r="J558" s="17"/>
       <c r="K558" s="17"/>
     </row>
-    <row r="559" spans="1:11" ht="27.6">
+    <row r="559" spans="1:11" ht="27.6" hidden="1">
       <c r="A559" s="16">
         <v>2</v>
       </c>
@@ -24944,7 +24835,7 @@
       <c r="J559" s="17"/>
       <c r="K559" s="17"/>
     </row>
-    <row r="560" spans="1:11" ht="27.6">
+    <row r="560" spans="1:11" ht="27.6" hidden="1">
       <c r="A560" s="16">
         <v>2</v>
       </c>
@@ -24975,7 +24866,7 @@
       <c r="J560" s="17"/>
       <c r="K560" s="17"/>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" hidden="1">
       <c r="A561" s="16">
         <v>2</v>
       </c>
@@ -25002,7 +24893,7 @@
       <c r="J561" s="17"/>
       <c r="K561" s="17"/>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" hidden="1">
       <c r="A562" s="16">
         <v>2</v>
       </c>
@@ -25029,7 +24920,7 @@
       <c r="J562" s="17"/>
       <c r="K562" s="17"/>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" spans="1:11" hidden="1">
       <c r="A563" s="16">
         <v>2</v>
       </c>
@@ -25056,7 +24947,7 @@
       <c r="J563" s="17"/>
       <c r="K563" s="17"/>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" spans="1:11" hidden="1">
       <c r="A564" s="16">
         <v>2</v>
       </c>
@@ -25085,7 +24976,7 @@
       <c r="J564" s="17"/>
       <c r="K564" s="17"/>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" hidden="1">
       <c r="A565" s="16">
         <v>2</v>
       </c>
@@ -25112,7 +25003,7 @@
       <c r="J565" s="17"/>
       <c r="K565" s="17"/>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" hidden="1">
       <c r="A566" s="16">
         <v>2</v>
       </c>
@@ -25139,7 +25030,7 @@
       <c r="J566" s="17"/>
       <c r="K566" s="17"/>
     </row>
-    <row r="567" spans="1:11" ht="27.6">
+    <row r="567" spans="1:11" ht="27.6" hidden="1">
       <c r="A567" s="16">
         <v>2</v>
       </c>
@@ -25168,7 +25059,7 @@
       <c r="J567" s="17"/>
       <c r="K567" s="17"/>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" hidden="1">
       <c r="A568" s="16">
         <v>2</v>
       </c>
@@ -25197,7 +25088,7 @@
       <c r="J568" s="17"/>
       <c r="K568" s="17"/>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" hidden="1">
       <c r="A569" s="16">
         <v>2</v>
       </c>
@@ -25226,7 +25117,7 @@
       <c r="J569" s="17"/>
       <c r="K569" s="17"/>
     </row>
-    <row r="570" spans="1:11" ht="27.6">
+    <row r="570" spans="1:11" ht="27.6" hidden="1">
       <c r="A570" s="16">
         <v>2</v>
       </c>
@@ -25255,7 +25146,7 @@
       <c r="J570" s="17"/>
       <c r="K570" s="17"/>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" hidden="1">
       <c r="A571" s="16">
         <v>2</v>
       </c>
@@ -25282,7 +25173,7 @@
       <c r="J571" s="17"/>
       <c r="K571" s="17"/>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" spans="1:11" hidden="1">
       <c r="A572" s="16">
         <v>2</v>
       </c>
@@ -25309,7 +25200,7 @@
       <c r="J572" s="17"/>
       <c r="K572" s="17"/>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" spans="1:11" hidden="1">
       <c r="A573" s="16">
         <v>2</v>
       </c>
@@ -25336,7 +25227,7 @@
       <c r="J573" s="17"/>
       <c r="K573" s="17"/>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" hidden="1">
       <c r="A574" s="16">
         <v>2</v>
       </c>
@@ -25363,7 +25254,7 @@
       <c r="J574" s="17"/>
       <c r="K574" s="17"/>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" hidden="1">
       <c r="A575" s="16">
         <v>2</v>
       </c>
@@ -25390,7 +25281,7 @@
       <c r="J575" s="17"/>
       <c r="K575" s="17"/>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" hidden="1">
       <c r="A576" s="16">
         <v>2</v>
       </c>
@@ -25417,7 +25308,7 @@
       <c r="J576" s="17"/>
       <c r="K576" s="17"/>
     </row>
-    <row r="577" spans="1:11" ht="27.6">
+    <row r="577" spans="1:11" ht="27.6" hidden="1">
       <c r="A577" s="16">
         <v>2</v>
       </c>
@@ -25444,7 +25335,7 @@
       <c r="J577" s="17"/>
       <c r="K577" s="17"/>
     </row>
-    <row r="578" spans="1:11" ht="27.6">
+    <row r="578" spans="1:11" ht="27.6" hidden="1">
       <c r="A578" s="16">
         <v>2</v>
       </c>
@@ -25475,7 +25366,7 @@
       <c r="J578" s="17"/>
       <c r="K578" s="17"/>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" hidden="1">
       <c r="A579" s="16">
         <v>2</v>
       </c>
@@ -25504,7 +25395,7 @@
       <c r="J579" s="17"/>
       <c r="K579" s="17"/>
     </row>
-    <row r="580" spans="1:11" ht="27.6">
+    <row r="580" spans="1:11" ht="27.6" hidden="1">
       <c r="A580" s="16">
         <v>2</v>
       </c>
@@ -25535,7 +25426,7 @@
       <c r="J580" s="17"/>
       <c r="K580" s="17"/>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" spans="1:11" hidden="1">
       <c r="A581" s="16">
         <v>2</v>
       </c>
@@ -25562,7 +25453,7 @@
       <c r="J581" s="17"/>
       <c r="K581" s="17"/>
     </row>
-    <row r="582" spans="1:11" ht="27.6">
+    <row r="582" spans="1:11" ht="27.6" hidden="1">
       <c r="A582" s="16">
         <v>2</v>
       </c>
@@ -25591,7 +25482,7 @@
       <c r="J582" s="17"/>
       <c r="K582" s="17"/>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" spans="1:11" hidden="1">
       <c r="A583" s="16">
         <v>2</v>
       </c>
@@ -25620,7 +25511,7 @@
       <c r="J583" s="17"/>
       <c r="K583" s="17"/>
     </row>
-    <row r="584" spans="1:11" ht="27.6">
+    <row r="584" spans="1:11" ht="27.6" hidden="1">
       <c r="A584" s="16">
         <v>2</v>
       </c>
@@ -25649,7 +25540,7 @@
       <c r="J584" s="17"/>
       <c r="K584" s="17"/>
     </row>
-    <row r="585" spans="1:11" ht="27.6">
+    <row r="585" spans="1:11" ht="27.6" hidden="1">
       <c r="A585" s="16">
         <v>2</v>
       </c>
@@ -25682,7 +25573,7 @@
       </c>
       <c r="K585" s="17"/>
     </row>
-    <row r="586" spans="1:11" ht="27.6">
+    <row r="586" spans="1:11" ht="27.6" hidden="1">
       <c r="A586" s="16">
         <v>2</v>
       </c>
@@ -25715,7 +25606,7 @@
       </c>
       <c r="K586" s="17"/>
     </row>
-    <row r="587" spans="1:11" ht="27.6">
+    <row r="587" spans="1:11" ht="27.6" hidden="1">
       <c r="A587" s="32">
         <v>2</v>
       </c>
@@ -25740,7 +25631,7 @@
       <c r="J587" s="17"/>
       <c r="K587" s="17"/>
     </row>
-    <row r="588" spans="1:11" ht="27.6">
+    <row r="588" spans="1:11" ht="27.6" hidden="1">
       <c r="A588" s="16">
         <v>2</v>
       </c>
@@ -25769,7 +25660,7 @@
       <c r="J588" s="17"/>
       <c r="K588" s="17"/>
     </row>
-    <row r="589" spans="1:11" ht="41.4">
+    <row r="589" spans="1:11" ht="41.4" hidden="1">
       <c r="A589" s="16">
         <v>2</v>
       </c>
@@ -25796,7 +25687,7 @@
       <c r="J589" s="17"/>
       <c r="K589" s="17"/>
     </row>
-    <row r="590" spans="1:11" ht="41.4">
+    <row r="590" spans="1:11" ht="41.4" hidden="1">
       <c r="A590" s="16">
         <v>2</v>
       </c>
@@ -25823,7 +25714,7 @@
       <c r="J590" s="17"/>
       <c r="K590" s="17"/>
     </row>
-    <row r="591" spans="1:11" ht="27.6">
+    <row r="591" spans="1:11" ht="27.6" hidden="1">
       <c r="A591" s="16">
         <v>2</v>
       </c>
@@ -25850,7 +25741,7 @@
       <c r="J591" s="17"/>
       <c r="K591" s="17"/>
     </row>
-    <row r="592" spans="1:11" ht="27.6">
+    <row r="592" spans="1:11" ht="27.6" hidden="1">
       <c r="A592" s="16">
         <v>2</v>
       </c>
@@ -25879,7 +25770,7 @@
       <c r="J592" s="17"/>
       <c r="K592" s="17"/>
     </row>
-    <row r="593" spans="1:11" ht="27.6">
+    <row r="593" spans="1:11" ht="27.6" hidden="1">
       <c r="A593" s="16">
         <v>2</v>
       </c>
@@ -25908,7 +25799,7 @@
       <c r="J593" s="17"/>
       <c r="K593" s="17"/>
     </row>
-    <row r="594" spans="1:11" ht="27.6">
+    <row r="594" spans="1:11" ht="27.6" hidden="1">
       <c r="A594" s="16">
         <v>2</v>
       </c>
@@ -25935,7 +25826,7 @@
       <c r="J594" s="17"/>
       <c r="K594" s="17"/>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" spans="1:11" hidden="1">
       <c r="A595" s="16">
         <v>2</v>
       </c>
@@ -25962,7 +25853,7 @@
       <c r="J595" s="17"/>
       <c r="K595" s="17"/>
     </row>
-    <row r="596" spans="1:11" ht="27.6">
+    <row r="596" spans="1:11" ht="27.6" hidden="1">
       <c r="A596" s="16">
         <v>2</v>
       </c>
@@ -25991,7 +25882,7 @@
       <c r="J596" s="17"/>
       <c r="K596" s="17"/>
     </row>
-    <row r="597" spans="1:11" ht="27.6">
+    <row r="597" spans="1:11" ht="27.6" hidden="1">
       <c r="A597" s="16">
         <v>2</v>
       </c>
@@ -26018,7 +25909,7 @@
       <c r="J597" s="17"/>
       <c r="K597" s="17"/>
     </row>
-    <row r="598" spans="1:11" ht="27.6">
+    <row r="598" spans="1:11" ht="27.6" hidden="1">
       <c r="A598" s="16">
         <v>2</v>
       </c>
@@ -26045,7 +25936,7 @@
       <c r="J598" s="17"/>
       <c r="K598" s="17"/>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" hidden="1">
       <c r="A599" s="16">
         <v>2</v>
       </c>
@@ -26072,7 +25963,7 @@
       <c r="J599" s="17"/>
       <c r="K599" s="17"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" hidden="1">
       <c r="A600" s="16">
         <v>2</v>
       </c>
@@ -26099,7 +25990,7 @@
       <c r="J600" s="17"/>
       <c r="K600" s="17"/>
     </row>
-    <row r="601" spans="1:11" ht="55.2">
+    <row r="601" spans="1:11" ht="55.2" hidden="1">
       <c r="A601" s="16">
         <v>2</v>
       </c>
@@ -26126,7 +26017,7 @@
       <c r="J601" s="17"/>
       <c r="K601" s="17"/>
     </row>
-    <row r="602" spans="1:11" ht="41.4">
+    <row r="602" spans="1:11" ht="41.4" hidden="1">
       <c r="A602" s="16">
         <v>2</v>
       </c>
@@ -26153,7 +26044,7 @@
       <c r="J602" s="17"/>
       <c r="K602" s="17"/>
     </row>
-    <row r="603" spans="1:11" ht="27.6">
+    <row r="603" spans="1:11" ht="27.6" hidden="1">
       <c r="A603" s="16">
         <v>2</v>
       </c>
@@ -26180,7 +26071,7 @@
       <c r="J603" s="17"/>
       <c r="K603" s="17"/>
     </row>
-    <row r="604" spans="1:11" ht="27.6">
+    <row r="604" spans="1:11" ht="27.6" hidden="1">
       <c r="A604" s="16">
         <v>2</v>
       </c>
@@ -26207,7 +26098,7 @@
       <c r="J604" s="17"/>
       <c r="K604" s="17"/>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" hidden="1">
       <c r="A605" s="16">
         <v>2</v>
       </c>
@@ -26234,7 +26125,7 @@
       <c r="J605" s="17"/>
       <c r="K605" s="17"/>
     </row>
-    <row r="606" spans="1:11" ht="27.6">
+    <row r="606" spans="1:11" ht="27.6" hidden="1">
       <c r="A606" s="16">
         <v>2</v>
       </c>
@@ -26261,7 +26152,7 @@
       <c r="J606" s="17"/>
       <c r="K606" s="17"/>
     </row>
-    <row r="607" spans="1:11" ht="27.6">
+    <row r="607" spans="1:11" ht="27.6" hidden="1">
       <c r="A607" s="16">
         <v>2</v>
       </c>
@@ -26292,7 +26183,7 @@
       <c r="J607" s="17"/>
       <c r="K607" s="17"/>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" hidden="1">
       <c r="A608" s="16">
         <v>2</v>
       </c>
@@ -26319,7 +26210,7 @@
       <c r="J608" s="17"/>
       <c r="K608" s="17"/>
     </row>
-    <row r="609" spans="1:11" ht="55.2">
+    <row r="609" spans="1:11" ht="55.2" hidden="1">
       <c r="A609" s="16">
         <v>2</v>
       </c>
@@ -26352,7 +26243,7 @@
       </c>
       <c r="K609" s="17"/>
     </row>
-    <row r="610" spans="1:11" ht="41.4">
+    <row r="610" spans="1:11" ht="41.4" hidden="1">
       <c r="A610" s="16">
         <v>2</v>
       </c>
@@ -26387,7 +26278,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="41.4">
+    <row r="611" spans="1:11" ht="41.4" hidden="1">
       <c r="A611" s="16">
         <v>2</v>
       </c>
@@ -26422,7 +26313,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="41.4">
+    <row r="612" spans="1:11" ht="41.4" hidden="1">
       <c r="A612" s="16">
         <v>2</v>
       </c>
@@ -26457,7 +26348,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="27.6">
+    <row r="613" spans="1:11" ht="27.6" hidden="1">
       <c r="A613" s="16">
         <v>2</v>
       </c>
@@ -26488,7 +26379,7 @@
       <c r="J613" s="17"/>
       <c r="K613" s="17"/>
     </row>
-    <row r="614" spans="1:11" ht="27.6">
+    <row r="614" spans="1:11" ht="27.6" hidden="1">
       <c r="A614" s="16">
         <v>2</v>
       </c>
@@ -26519,7 +26410,7 @@
       <c r="J614" s="17"/>
       <c r="K614" s="17"/>
     </row>
-    <row r="615" spans="1:11" ht="27.6">
+    <row r="615" spans="1:11" ht="27.6" hidden="1">
       <c r="A615" s="16">
         <v>2</v>
       </c>
@@ -26550,7 +26441,7 @@
       <c r="J615" s="17"/>
       <c r="K615" s="17"/>
     </row>
-    <row r="616" spans="1:11" ht="27.6">
+    <row r="616" spans="1:11" ht="27.6" hidden="1">
       <c r="A616" s="16">
         <v>2</v>
       </c>
@@ -26581,7 +26472,7 @@
       <c r="J616" s="17"/>
       <c r="K616" s="17"/>
     </row>
-    <row r="617" spans="1:11" ht="27.6">
+    <row r="617" spans="1:11" ht="27.6" hidden="1">
       <c r="A617" s="16">
         <v>2</v>
       </c>
@@ -26612,7 +26503,7 @@
       <c r="J617" s="17"/>
       <c r="K617" s="17"/>
     </row>
-    <row r="618" spans="1:11" ht="96.6">
+    <row r="618" spans="1:11" ht="96.6" hidden="1">
       <c r="A618" s="16">
         <v>2</v>
       </c>
@@ -26643,7 +26534,7 @@
       <c r="J618" s="17"/>
       <c r="K618" s="17"/>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:11" hidden="1">
       <c r="A619" s="16">
         <v>2</v>
       </c>
@@ -26670,7 +26561,7 @@
       <c r="J619" s="17"/>
       <c r="K619" s="17"/>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" spans="1:11" hidden="1">
       <c r="A620" s="16">
         <v>2</v>
       </c>
@@ -26697,7 +26588,7 @@
       <c r="J620" s="17"/>
       <c r="K620" s="17"/>
     </row>
-    <row r="621" spans="1:11" ht="27.6">
+    <row r="621" spans="1:11" ht="27.6" hidden="1">
       <c r="A621" s="16">
         <v>2</v>
       </c>
@@ -26724,7 +26615,7 @@
       <c r="J621" s="17"/>
       <c r="K621" s="17"/>
     </row>
-    <row r="622" spans="1:11">
+    <row r="622" spans="1:11" hidden="1">
       <c r="A622" s="32">
         <v>2</v>
       </c>
@@ -26749,7 +26640,7 @@
       <c r="J622" s="17"/>
       <c r="K622" s="17"/>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" spans="1:11" hidden="1">
       <c r="A623" s="16">
         <v>2</v>
       </c>
@@ -26776,7 +26667,7 @@
       <c r="J623" s="17"/>
       <c r="K623" s="17"/>
     </row>
-    <row r="624" spans="1:11" ht="27.6">
+    <row r="624" spans="1:11" ht="27.6" hidden="1">
       <c r="A624" s="16">
         <v>2</v>
       </c>
@@ -26807,7 +26698,7 @@
       <c r="J624" s="17"/>
       <c r="K624" s="17"/>
     </row>
-    <row r="625" spans="1:11" ht="55.2">
+    <row r="625" spans="1:11" ht="55.2" hidden="1">
       <c r="A625" s="16">
         <v>2</v>
       </c>
@@ -26838,7 +26729,7 @@
       <c r="J625" s="17"/>
       <c r="K625" s="17"/>
     </row>
-    <row r="626" spans="1:11" ht="27.6">
+    <row r="626" spans="1:11" ht="27.6" hidden="1">
       <c r="A626" s="16">
         <v>2</v>
       </c>
@@ -26867,7 +26758,7 @@
       <c r="J626" s="17"/>
       <c r="K626" s="17"/>
     </row>
-    <row r="627" spans="1:11" ht="41.4">
+    <row r="627" spans="1:11" ht="41.4" hidden="1">
       <c r="A627" s="16">
         <v>2</v>
       </c>
@@ -26894,7 +26785,7 @@
       <c r="J627" s="17"/>
       <c r="K627" s="17"/>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" hidden="1">
       <c r="A628" s="16">
         <v>2</v>
       </c>
@@ -26921,7 +26812,7 @@
       <c r="J628" s="17"/>
       <c r="K628" s="17"/>
     </row>
-    <row r="629" spans="1:11" ht="27.6">
+    <row r="629" spans="1:11" ht="27.6" hidden="1">
       <c r="A629" s="16">
         <v>2</v>
       </c>
@@ -26948,7 +26839,7 @@
       <c r="J629" s="17"/>
       <c r="K629" s="17"/>
     </row>
-    <row r="630" spans="1:11" ht="41.4">
+    <row r="630" spans="1:11" ht="41.4" hidden="1">
       <c r="A630" s="16">
         <v>2</v>
       </c>
@@ -26975,7 +26866,7 @@
       <c r="J630" s="17"/>
       <c r="K630" s="17"/>
     </row>
-    <row r="631" spans="1:11" ht="41.4">
+    <row r="631" spans="1:11" ht="41.4" hidden="1">
       <c r="A631" s="16">
         <v>2</v>
       </c>
@@ -27002,7 +26893,7 @@
       <c r="J631" s="17"/>
       <c r="K631" s="17"/>
     </row>
-    <row r="632" spans="1:11" ht="41.4">
+    <row r="632" spans="1:11" ht="41.4" hidden="1">
       <c r="A632" s="16">
         <v>2</v>
       </c>
@@ -27029,7 +26920,7 @@
       <c r="J632" s="17"/>
       <c r="K632" s="17"/>
     </row>
-    <row r="633" spans="1:11" ht="27.6">
+    <row r="633" spans="1:11" ht="27.6" hidden="1">
       <c r="A633" s="16">
         <v>2</v>
       </c>
@@ -27056,7 +26947,7 @@
       <c r="J633" s="17"/>
       <c r="K633" s="17"/>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:11" hidden="1">
       <c r="A634" s="16">
         <v>2</v>
       </c>
@@ -27083,7 +26974,7 @@
       <c r="J634" s="17"/>
       <c r="K634" s="17"/>
     </row>
-    <row r="635" spans="1:11" ht="27.6">
+    <row r="635" spans="1:11" ht="27.6" hidden="1">
       <c r="A635" s="16">
         <v>2</v>
       </c>
@@ -27114,7 +27005,7 @@
       <c r="J635" s="17"/>
       <c r="K635" s="17"/>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" spans="1:11" hidden="1">
       <c r="A636" s="16">
         <v>2</v>
       </c>
@@ -27141,7 +27032,7 @@
       <c r="J636" s="17"/>
       <c r="K636" s="17"/>
     </row>
-    <row r="637" spans="1:11" ht="27.6">
+    <row r="637" spans="1:11" ht="27.6" hidden="1">
       <c r="A637" s="16">
         <v>2</v>
       </c>
@@ -27168,7 +27059,7 @@
       <c r="J637" s="17"/>
       <c r="K637" s="17"/>
     </row>
-    <row r="638" spans="1:11" ht="27.6">
+    <row r="638" spans="1:11" ht="27.6" hidden="1">
       <c r="A638" s="16">
         <v>2</v>
       </c>
@@ -27195,7 +27086,7 @@
       <c r="J638" s="17"/>
       <c r="K638" s="17"/>
     </row>
-    <row r="639" spans="1:11" ht="27.6">
+    <row r="639" spans="1:11" ht="27.6" hidden="1">
       <c r="A639" s="16">
         <v>2</v>
       </c>
@@ -27222,7 +27113,7 @@
       <c r="J639" s="17"/>
       <c r="K639" s="17"/>
     </row>
-    <row r="640" spans="1:11" ht="27.6">
+    <row r="640" spans="1:11" ht="27.6" hidden="1">
       <c r="A640" s="16">
         <v>2</v>
       </c>
@@ -27249,7 +27140,7 @@
       <c r="J640" s="17"/>
       <c r="K640" s="17"/>
     </row>
-    <row r="641" spans="1:11" ht="27.6">
+    <row r="641" spans="1:11" ht="27.6" hidden="1">
       <c r="A641" s="16">
         <v>2</v>
       </c>
@@ -27276,7 +27167,7 @@
       <c r="J641" s="17"/>
       <c r="K641" s="17"/>
     </row>
-    <row r="642" spans="1:11">
+    <row r="642" spans="1:11" hidden="1">
       <c r="A642" s="16">
         <v>2</v>
       </c>
@@ -27303,7 +27194,7 @@
       <c r="J642" s="17"/>
       <c r="K642" s="17"/>
     </row>
-    <row r="643" spans="1:11">
+    <row r="643" spans="1:11" hidden="1">
       <c r="A643" s="16">
         <v>2</v>
       </c>
@@ -27330,7 +27221,7 @@
       <c r="J643" s="17"/>
       <c r="K643" s="17"/>
     </row>
-    <row r="644" spans="1:11">
+    <row r="644" spans="1:11" hidden="1">
       <c r="A644" s="16">
         <v>2</v>
       </c>
@@ -27357,7 +27248,7 @@
       <c r="J644" s="17"/>
       <c r="K644" s="17"/>
     </row>
-    <row r="645" spans="1:11" ht="27.6">
+    <row r="645" spans="1:11" ht="27.6" hidden="1">
       <c r="A645" s="16">
         <v>2</v>
       </c>
@@ -27384,7 +27275,7 @@
       <c r="J645" s="17"/>
       <c r="K645" s="17"/>
     </row>
-    <row r="646" spans="1:11" ht="27.6">
+    <row r="646" spans="1:11" ht="27.6" hidden="1">
       <c r="A646" s="16">
         <v>2</v>
       </c>
@@ -27411,7 +27302,7 @@
       <c r="J646" s="17"/>
       <c r="K646" s="17"/>
     </row>
-    <row r="647" spans="1:11" ht="27.6">
+    <row r="647" spans="1:11" ht="27.6" hidden="1">
       <c r="A647" s="16">
         <v>2</v>
       </c>
@@ -27442,7 +27333,7 @@
       <c r="J647" s="17"/>
       <c r="K647" s="17"/>
     </row>
-    <row r="648" spans="1:11" ht="27.6">
+    <row r="648" spans="1:11" ht="27.6" hidden="1">
       <c r="A648" s="16">
         <v>2</v>
       </c>
@@ -27469,7 +27360,7 @@
       <c r="J648" s="17"/>
       <c r="K648" s="17"/>
     </row>
-    <row r="649" spans="1:11">
+    <row r="649" spans="1:11" hidden="1">
       <c r="A649" s="16">
         <v>2</v>
       </c>
@@ -27496,7 +27387,7 @@
       <c r="J649" s="17"/>
       <c r="K649" s="17"/>
     </row>
-    <row r="650" spans="1:11">
+    <row r="650" spans="1:11" hidden="1">
       <c r="A650" s="16">
         <v>2</v>
       </c>
@@ -27523,7 +27414,7 @@
       <c r="J650" s="17"/>
       <c r="K650" s="17"/>
     </row>
-    <row r="651" spans="1:11" ht="41.4">
+    <row r="651" spans="1:11" ht="41.4" hidden="1">
       <c r="A651" s="16">
         <v>2</v>
       </c>
@@ -27552,7 +27443,7 @@
       <c r="J651" s="17"/>
       <c r="K651" s="17"/>
     </row>
-    <row r="652" spans="1:11" ht="41.4">
+    <row r="652" spans="1:11" ht="41.4" hidden="1">
       <c r="A652" s="16">
         <v>2</v>
       </c>
@@ -27581,7 +27472,7 @@
       <c r="J652" s="17"/>
       <c r="K652" s="17"/>
     </row>
-    <row r="653" spans="1:11">
+    <row r="653" spans="1:11" hidden="1">
       <c r="A653" s="16">
         <v>2</v>
       </c>
@@ -27608,7 +27499,7 @@
       <c r="J653" s="17"/>
       <c r="K653" s="17"/>
     </row>
-    <row r="654" spans="1:11" ht="27.6">
+    <row r="654" spans="1:11" ht="27.6" hidden="1">
       <c r="A654" s="16">
         <v>2</v>
       </c>
@@ -27635,7 +27526,7 @@
       <c r="J654" s="17"/>
       <c r="K654" s="17"/>
     </row>
-    <row r="655" spans="1:11" ht="55.2">
+    <row r="655" spans="1:11" ht="55.2" hidden="1">
       <c r="A655" s="16">
         <v>2</v>
       </c>
@@ -27664,7 +27555,7 @@
       <c r="J655" s="17"/>
       <c r="K655" s="17"/>
     </row>
-    <row r="656" spans="1:11" ht="27.6">
+    <row r="656" spans="1:11" ht="27.6" hidden="1">
       <c r="A656" s="16">
         <v>2</v>
       </c>
@@ -27691,7 +27582,7 @@
       <c r="J656" s="17"/>
       <c r="K656" s="17"/>
     </row>
-    <row r="657" spans="1:11">
+    <row r="657" spans="1:11" hidden="1">
       <c r="A657" s="32">
         <v>2</v>
       </c>
@@ -27714,7 +27605,7 @@
       <c r="J657" s="17"/>
       <c r="K657" s="17"/>
     </row>
-    <row r="658" spans="1:11" ht="27.6">
+    <row r="658" spans="1:11" ht="27.6" hidden="1">
       <c r="A658" s="32">
         <v>2</v>
       </c>
@@ -27737,7 +27628,7 @@
       <c r="J658" s="17"/>
       <c r="K658" s="17"/>
     </row>
-    <row r="659" spans="1:11">
+    <row r="659" spans="1:11" hidden="1">
       <c r="A659" s="32">
         <v>2</v>
       </c>
@@ -27760,7 +27651,7 @@
       <c r="J659" s="17"/>
       <c r="K659" s="17"/>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" spans="1:11" hidden="1">
       <c r="A660" s="32">
         <v>2</v>
       </c>
@@ -27783,7 +27674,7 @@
       <c r="J660" s="17"/>
       <c r="K660" s="17"/>
     </row>
-    <row r="661" spans="1:11">
+    <row r="661" spans="1:11" hidden="1">
       <c r="A661" s="32">
         <v>2</v>
       </c>
@@ -27806,7 +27697,7 @@
       <c r="J661" s="17"/>
       <c r="K661" s="17"/>
     </row>
-    <row r="662" spans="1:11">
+    <row r="662" spans="1:11" hidden="1">
       <c r="A662" s="32">
         <v>2</v>
       </c>
@@ -27829,7 +27720,7 @@
       <c r="J662" s="17"/>
       <c r="K662" s="17"/>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" spans="1:11" hidden="1">
       <c r="A663" s="32">
         <v>2</v>
       </c>
@@ -27852,7 +27743,7 @@
       <c r="J663" s="17"/>
       <c r="K663" s="17"/>
     </row>
-    <row r="664" spans="1:11" ht="27.6">
+    <row r="664" spans="1:11" ht="27.6" hidden="1">
       <c r="A664" s="16">
         <v>4</v>
       </c>
@@ -27879,7 +27770,7 @@
       <c r="J664" s="17"/>
       <c r="K664" s="17"/>
     </row>
-    <row r="665" spans="1:11" ht="27.6">
+    <row r="665" spans="1:11" ht="27.6" hidden="1">
       <c r="A665" s="16">
         <v>4</v>
       </c>
@@ -27908,7 +27799,7 @@
       <c r="J665" s="17"/>
       <c r="K665" s="17"/>
     </row>
-    <row r="666" spans="1:11">
+    <row r="666" spans="1:11" hidden="1">
       <c r="A666" s="16">
         <v>4</v>
       </c>
@@ -27939,7 +27830,7 @@
       <c r="J666" s="17"/>
       <c r="K666" s="17"/>
     </row>
-    <row r="667" spans="1:11">
+    <row r="667" spans="1:11" hidden="1">
       <c r="A667" s="16">
         <v>4</v>
       </c>
@@ -27970,7 +27861,7 @@
       <c r="J667" s="17"/>
       <c r="K667" s="17"/>
     </row>
-    <row r="668" spans="1:11" ht="27.6">
+    <row r="668" spans="1:11" ht="27.6" hidden="1">
       <c r="A668" s="16">
         <v>4</v>
       </c>
@@ -27999,7 +27890,7 @@
       <c r="J668" s="17"/>
       <c r="K668" s="17"/>
     </row>
-    <row r="669" spans="1:11" ht="27.6">
+    <row r="669" spans="1:11" ht="27.6" hidden="1">
       <c r="A669" s="16">
         <v>4</v>
       </c>
@@ -28026,7 +27917,7 @@
       <c r="J669" s="17"/>
       <c r="K669" s="17"/>
     </row>
-    <row r="670" spans="1:11" ht="27.6">
+    <row r="670" spans="1:11" ht="27.6" hidden="1">
       <c r="A670" s="16">
         <v>4</v>
       </c>
@@ -28053,7 +27944,7 @@
       <c r="J670" s="17"/>
       <c r="K670" s="17"/>
     </row>
-    <row r="671" spans="1:11" ht="27.6">
+    <row r="671" spans="1:11" ht="27.6" hidden="1">
       <c r="A671" s="16">
         <v>4</v>
       </c>
@@ -28082,7 +27973,7 @@
       <c r="J671" s="17"/>
       <c r="K671" s="17"/>
     </row>
-    <row r="672" spans="1:11" ht="27.6">
+    <row r="672" spans="1:11" ht="27.6" hidden="1">
       <c r="A672" s="16">
         <v>4</v>
       </c>
@@ -28111,7 +28002,7 @@
       <c r="J672" s="17"/>
       <c r="K672" s="17"/>
     </row>
-    <row r="673" spans="1:11">
+    <row r="673" spans="1:11" hidden="1">
       <c r="A673" s="16">
         <v>4</v>
       </c>
@@ -28140,7 +28031,7 @@
       <c r="J673" s="17"/>
       <c r="K673" s="17"/>
     </row>
-    <row r="674" spans="1:11" ht="27.6">
+    <row r="674" spans="1:11" ht="27.6" hidden="1">
       <c r="A674" s="16">
         <v>4</v>
       </c>
@@ -28169,7 +28060,7 @@
       <c r="J674" s="17"/>
       <c r="K674" s="17"/>
     </row>
-    <row r="675" spans="1:11" ht="27.6">
+    <row r="675" spans="1:11" ht="27.6" hidden="1">
       <c r="A675" s="16">
         <v>4</v>
       </c>
@@ -28198,7 +28089,7 @@
       <c r="J675" s="17"/>
       <c r="K675" s="17"/>
     </row>
-    <row r="676" spans="1:11" ht="27.6">
+    <row r="676" spans="1:11" ht="27.6" hidden="1">
       <c r="A676" s="16">
         <v>4</v>
       </c>
@@ -28227,7 +28118,7 @@
       <c r="J676" s="17"/>
       <c r="K676" s="17"/>
     </row>
-    <row r="677" spans="1:11" ht="27.6">
+    <row r="677" spans="1:11" ht="27.6" hidden="1">
       <c r="A677" s="16">
         <v>4</v>
       </c>
@@ -28256,7 +28147,7 @@
       <c r="J677" s="17"/>
       <c r="K677" s="17"/>
     </row>
-    <row r="678" spans="1:11" ht="41.4">
+    <row r="678" spans="1:11" ht="41.4" hidden="1">
       <c r="A678" s="16">
         <v>4</v>
       </c>
@@ -28285,7 +28176,7 @@
       <c r="J678" s="17"/>
       <c r="K678" s="17"/>
     </row>
-    <row r="679" spans="1:11" ht="27.6">
+    <row r="679" spans="1:11" ht="27.6" hidden="1">
       <c r="A679" s="16">
         <v>4</v>
       </c>
@@ -28312,7 +28203,7 @@
       <c r="J679" s="17"/>
       <c r="K679" s="17"/>
     </row>
-    <row r="680" spans="1:11" ht="41.4">
+    <row r="680" spans="1:11" ht="41.4" hidden="1">
       <c r="A680" s="16">
         <v>4</v>
       </c>
@@ -28345,7 +28236,7 @@
       </c>
       <c r="K680" s="17"/>
     </row>
-    <row r="681" spans="1:11" ht="41.4">
+    <row r="681" spans="1:11" ht="41.4" hidden="1">
       <c r="A681" s="16">
         <v>4</v>
       </c>
@@ -28376,7 +28267,7 @@
       <c r="J681" s="17"/>
       <c r="K681" s="17"/>
     </row>
-    <row r="682" spans="1:11" ht="41.4">
+    <row r="682" spans="1:11" ht="41.4" hidden="1">
       <c r="A682" s="16">
         <v>4</v>
       </c>
@@ -28407,7 +28298,7 @@
       <c r="J682" s="17"/>
       <c r="K682" s="17"/>
     </row>
-    <row r="683" spans="1:11">
+    <row r="683" spans="1:11" hidden="1">
       <c r="A683" s="16">
         <v>4</v>
       </c>
@@ -28434,7 +28325,7 @@
       <c r="J683" s="17"/>
       <c r="K683" s="17"/>
     </row>
-    <row r="684" spans="1:11" ht="27.6">
+    <row r="684" spans="1:11" ht="27.6" hidden="1">
       <c r="A684" s="16">
         <v>4</v>
       </c>
@@ -28461,7 +28352,7 @@
       <c r="J684" s="17"/>
       <c r="K684" s="17"/>
     </row>
-    <row r="685" spans="1:11">
+    <row r="685" spans="1:11" hidden="1">
       <c r="A685" s="16">
         <v>4</v>
       </c>
@@ -28488,7 +28379,7 @@
       <c r="J685" s="17"/>
       <c r="K685" s="17"/>
     </row>
-    <row r="686" spans="1:11">
+    <row r="686" spans="1:11" hidden="1">
       <c r="A686" s="16">
         <v>4</v>
       </c>
@@ -28515,7 +28406,7 @@
       <c r="J686" s="17"/>
       <c r="K686" s="17"/>
     </row>
-    <row r="687" spans="1:11">
+    <row r="687" spans="1:11" hidden="1">
       <c r="A687" s="16">
         <v>4</v>
       </c>
@@ -28542,7 +28433,7 @@
       <c r="J687" s="17"/>
       <c r="K687" s="17"/>
     </row>
-    <row r="688" spans="1:11" ht="27.6">
+    <row r="688" spans="1:11" ht="27.6" hidden="1">
       <c r="A688" s="16">
         <v>4</v>
       </c>
@@ -28569,7 +28460,7 @@
       <c r="J688" s="17"/>
       <c r="K688" s="17"/>
     </row>
-    <row r="689" spans="1:11" ht="27.6">
+    <row r="689" spans="1:11" ht="27.6" hidden="1">
       <c r="A689" s="16">
         <v>4</v>
       </c>
@@ -28596,7 +28487,7 @@
       <c r="J689" s="17"/>
       <c r="K689" s="17"/>
     </row>
-    <row r="690" spans="1:11">
+    <row r="690" spans="1:11" hidden="1">
       <c r="A690" s="16">
         <v>4</v>
       </c>
@@ -28623,7 +28514,7 @@
       <c r="J690" s="17"/>
       <c r="K690" s="17"/>
     </row>
-    <row r="691" spans="1:11" ht="27.6">
+    <row r="691" spans="1:11" ht="27.6" hidden="1">
       <c r="A691" s="16">
         <v>4</v>
       </c>
@@ -28650,7 +28541,7 @@
       <c r="J691" s="17"/>
       <c r="K691" s="17"/>
     </row>
-    <row r="692" spans="1:11" ht="27.6">
+    <row r="692" spans="1:11" ht="27.6" hidden="1">
       <c r="A692" s="16">
         <v>4</v>
       </c>
@@ -28677,7 +28568,7 @@
       <c r="J692" s="17"/>
       <c r="K692" s="17"/>
     </row>
-    <row r="693" spans="1:11" ht="27.6">
+    <row r="693" spans="1:11" ht="27.6" hidden="1">
       <c r="A693" s="16">
         <v>4</v>
       </c>
@@ -28704,7 +28595,7 @@
       <c r="J693" s="17"/>
       <c r="K693" s="17"/>
     </row>
-    <row r="694" spans="1:11">
+    <row r="694" spans="1:11" hidden="1">
       <c r="A694" s="16">
         <v>4</v>
       </c>
@@ -28731,7 +28622,7 @@
       <c r="J694" s="17"/>
       <c r="K694" s="17"/>
     </row>
-    <row r="695" spans="1:11">
+    <row r="695" spans="1:11" hidden="1">
       <c r="A695" s="16">
         <v>4</v>
       </c>
@@ -28758,7 +28649,7 @@
       <c r="J695" s="17"/>
       <c r="K695" s="17"/>
     </row>
-    <row r="696" spans="1:11">
+    <row r="696" spans="1:11" hidden="1">
       <c r="A696" s="16">
         <v>4</v>
       </c>
@@ -28785,7 +28676,7 @@
       <c r="J696" s="17"/>
       <c r="K696" s="17"/>
     </row>
-    <row r="697" spans="1:11">
+    <row r="697" spans="1:11" hidden="1">
       <c r="A697" s="16">
         <v>4</v>
       </c>
@@ -28812,7 +28703,7 @@
       <c r="J697" s="17"/>
       <c r="K697" s="17"/>
     </row>
-    <row r="698" spans="1:11">
+    <row r="698" spans="1:11" hidden="1">
       <c r="A698" s="16">
         <v>4</v>
       </c>
@@ -28839,7 +28730,7 @@
       <c r="J698" s="17"/>
       <c r="K698" s="17"/>
     </row>
-    <row r="699" spans="1:11" ht="27.6">
+    <row r="699" spans="1:11" ht="27.6" hidden="1">
       <c r="A699" s="16">
         <v>4</v>
       </c>
@@ -28866,7 +28757,7 @@
       <c r="J699" s="17"/>
       <c r="K699" s="17"/>
     </row>
-    <row r="700" spans="1:11" ht="41.4">
+    <row r="700" spans="1:11" ht="41.4" hidden="1">
       <c r="A700" s="32">
         <v>2</v>
       </c>
@@ -28891,7 +28782,7 @@
       <c r="J700" s="17"/>
       <c r="K700" s="17"/>
     </row>
-    <row r="701" spans="1:11">
+    <row r="701" spans="1:11" hidden="1">
       <c r="A701" s="16">
         <v>4</v>
       </c>
@@ -28920,7 +28811,7 @@
       <c r="J701" s="17"/>
       <c r="K701" s="17"/>
     </row>
-    <row r="702" spans="1:11">
+    <row r="702" spans="1:11" hidden="1">
       <c r="A702" s="16">
         <v>4</v>
       </c>
@@ -28949,7 +28840,7 @@
       <c r="J702" s="17"/>
       <c r="K702" s="17"/>
     </row>
-    <row r="703" spans="1:11" ht="27.6">
+    <row r="703" spans="1:11" ht="27.6" hidden="1">
       <c r="A703" s="16">
         <v>4</v>
       </c>
@@ -28978,7 +28869,7 @@
       <c r="J703" s="17"/>
       <c r="K703" s="17"/>
     </row>
-    <row r="704" spans="1:11" ht="41.4">
+    <row r="704" spans="1:11" ht="41.4" hidden="1">
       <c r="A704" s="16">
         <v>4</v>
       </c>
@@ -29007,7 +28898,7 @@
       <c r="J704" s="17"/>
       <c r="K704" s="17"/>
     </row>
-    <row r="705" spans="1:11" ht="41.4">
+    <row r="705" spans="1:11" ht="41.4" hidden="1">
       <c r="A705" s="16">
         <v>4</v>
       </c>
@@ -29036,7 +28927,7 @@
       <c r="J705" s="17"/>
       <c r="K705" s="17"/>
     </row>
-    <row r="706" spans="1:11" ht="27.6">
+    <row r="706" spans="1:11" ht="27.6" hidden="1">
       <c r="A706" s="16">
         <v>4</v>
       </c>
@@ -29067,7 +28958,7 @@
       <c r="J706" s="17"/>
       <c r="K706" s="17"/>
     </row>
-    <row r="707" spans="1:11" ht="41.4">
+    <row r="707" spans="1:11" ht="41.4" hidden="1">
       <c r="A707" s="16">
         <v>4</v>
       </c>
@@ -29096,7 +28987,7 @@
       <c r="J707" s="17"/>
       <c r="K707" s="17"/>
     </row>
-    <row r="708" spans="1:11" ht="27.6">
+    <row r="708" spans="1:11" ht="27.6" hidden="1">
       <c r="A708" s="16">
         <v>4</v>
       </c>
@@ -29125,7 +29016,7 @@
       <c r="J708" s="17"/>
       <c r="K708" s="17"/>
     </row>
-    <row r="709" spans="1:11" ht="27.6">
+    <row r="709" spans="1:11" ht="27.6" hidden="1">
       <c r="A709" s="16">
         <v>4</v>
       </c>
@@ -29154,7 +29045,7 @@
       <c r="J709" s="17"/>
       <c r="K709" s="17"/>
     </row>
-    <row r="710" spans="1:11" ht="27.6">
+    <row r="710" spans="1:11" ht="27.6" hidden="1">
       <c r="A710" s="16">
         <v>4</v>
       </c>
@@ -29183,7 +29074,7 @@
       <c r="J710" s="17"/>
       <c r="K710" s="17"/>
     </row>
-    <row r="711" spans="1:11" ht="27.6">
+    <row r="711" spans="1:11" ht="27.6" hidden="1">
       <c r="A711" s="16">
         <v>4</v>
       </c>
@@ -29212,7 +29103,7 @@
       <c r="J711" s="17"/>
       <c r="K711" s="17"/>
     </row>
-    <row r="712" spans="1:11" ht="27.6">
+    <row r="712" spans="1:11" ht="27.6" hidden="1">
       <c r="A712" s="16">
         <v>4</v>
       </c>
@@ -29241,7 +29132,7 @@
       <c r="J712" s="17"/>
       <c r="K712" s="17"/>
     </row>
-    <row r="713" spans="1:11" ht="27.6">
+    <row r="713" spans="1:11" ht="27.6" hidden="1">
       <c r="A713" s="16">
         <v>4</v>
       </c>
@@ -29270,7 +29161,7 @@
       <c r="J713" s="17"/>
       <c r="K713" s="17"/>
     </row>
-    <row r="714" spans="1:11" ht="27.6">
+    <row r="714" spans="1:11" ht="27.6" hidden="1">
       <c r="A714" s="16">
         <v>4</v>
       </c>
@@ -29299,7 +29190,7 @@
       <c r="J714" s="17"/>
       <c r="K714" s="17"/>
     </row>
-    <row r="715" spans="1:11" ht="27.6">
+    <row r="715" spans="1:11" ht="27.6" hidden="1">
       <c r="A715" s="16">
         <v>4</v>
       </c>
@@ -29328,7 +29219,7 @@
       <c r="J715" s="17"/>
       <c r="K715" s="17"/>
     </row>
-    <row r="716" spans="1:11">
+    <row r="716" spans="1:11" hidden="1">
       <c r="A716" s="16">
         <v>4</v>
       </c>
@@ -29357,7 +29248,7 @@
       <c r="J716" s="17"/>
       <c r="K716" s="17"/>
     </row>
-    <row r="717" spans="1:11" ht="27.6">
+    <row r="717" spans="1:11" ht="27.6" hidden="1">
       <c r="A717" s="16">
         <v>4</v>
       </c>
@@ -29386,7 +29277,7 @@
       <c r="J717" s="17"/>
       <c r="K717" s="17"/>
     </row>
-    <row r="718" spans="1:11">
+    <row r="718" spans="1:11" hidden="1">
       <c r="A718" s="16">
         <v>4</v>
       </c>
@@ -29415,7 +29306,7 @@
       <c r="J718" s="17"/>
       <c r="K718" s="17"/>
     </row>
-    <row r="719" spans="1:11" ht="27.6">
+    <row r="719" spans="1:11" ht="27.6" hidden="1">
       <c r="A719" s="16">
         <v>4</v>
       </c>
@@ -29444,7 +29335,7 @@
       <c r="J719" s="17"/>
       <c r="K719" s="17"/>
     </row>
-    <row r="720" spans="1:11" ht="27.6">
+    <row r="720" spans="1:11" ht="27.6" hidden="1">
       <c r="A720" s="16">
         <v>4</v>
       </c>
@@ -29473,7 +29364,7 @@
       <c r="J720" s="17"/>
       <c r="K720" s="17"/>
     </row>
-    <row r="721" spans="1:11" ht="27.6">
+    <row r="721" spans="1:11" ht="27.6" hidden="1">
       <c r="A721" s="16">
         <v>4</v>
       </c>
@@ -29502,7 +29393,7 @@
       <c r="J721" s="17"/>
       <c r="K721" s="17"/>
     </row>
-    <row r="722" spans="1:11" ht="27.6">
+    <row r="722" spans="1:11" ht="27.6" hidden="1">
       <c r="A722" s="16">
         <v>4</v>
       </c>
@@ -29531,7 +29422,7 @@
       <c r="J722" s="17"/>
       <c r="K722" s="17"/>
     </row>
-    <row r="723" spans="1:11" ht="27.6">
+    <row r="723" spans="1:11" ht="27.6" hidden="1">
       <c r="A723" s="16">
         <v>4</v>
       </c>
@@ -29562,7 +29453,7 @@
       <c r="J723" s="17"/>
       <c r="K723" s="17"/>
     </row>
-    <row r="724" spans="1:11" ht="27.6">
+    <row r="724" spans="1:11" ht="27.6" hidden="1">
       <c r="A724" s="16">
         <v>4</v>
       </c>
@@ -29591,7 +29482,7 @@
       <c r="J724" s="17"/>
       <c r="K724" s="17"/>
     </row>
-    <row r="725" spans="1:11" ht="41.4">
+    <row r="725" spans="1:11" ht="41.4" hidden="1">
       <c r="A725" s="16">
         <v>4</v>
       </c>
@@ -29622,7 +29513,7 @@
       <c r="J725" s="17"/>
       <c r="K725" s="17"/>
     </row>
-    <row r="726" spans="1:11" ht="27.6">
+    <row r="726" spans="1:11" ht="27.6" hidden="1">
       <c r="A726" s="16">
         <v>4</v>
       </c>
@@ -29653,7 +29544,7 @@
       <c r="J726" s="17"/>
       <c r="K726" s="17"/>
     </row>
-    <row r="727" spans="1:11">
+    <row r="727" spans="1:11" hidden="1">
       <c r="A727" s="32">
         <v>2</v>
       </c>
@@ -29678,7 +29569,7 @@
       <c r="J727" s="17"/>
       <c r="K727" s="17"/>
     </row>
-    <row r="728" spans="1:11">
+    <row r="728" spans="1:11" hidden="1">
       <c r="A728" s="32">
         <v>2</v>
       </c>
@@ -29703,7 +29594,7 @@
       <c r="J728" s="17"/>
       <c r="K728" s="17"/>
     </row>
-    <row r="729" spans="1:11">
+    <row r="729" spans="1:11" hidden="1">
       <c r="A729" s="9">
         <v>2</v>
       </c>
@@ -29730,7 +29621,7 @@
       <c r="J729" s="9"/>
       <c r="K729" s="9"/>
     </row>
-    <row r="730" spans="1:11">
+    <row r="730" spans="1:11" hidden="1">
       <c r="A730" s="9">
         <v>5</v>
       </c>
@@ -29757,7 +29648,7 @@
       <c r="J730" s="9"/>
       <c r="K730" s="9"/>
     </row>
-    <row r="731" spans="1:11" ht="27.6">
+    <row r="731" spans="1:11" ht="27.6" hidden="1">
       <c r="A731" s="9">
         <v>8</v>
       </c>
@@ -29784,7 +29675,7 @@
       <c r="J731" s="9"/>
       <c r="K731" s="9"/>
     </row>
-    <row r="732" spans="1:11">
+    <row r="732" spans="1:11" hidden="1">
       <c r="A732" s="9">
         <v>8</v>
       </c>
@@ -29811,7 +29702,7 @@
       <c r="J732" s="9"/>
       <c r="K732" s="9"/>
     </row>
-    <row r="733" spans="1:11">
+    <row r="733" spans="1:11" hidden="1">
       <c r="A733" s="9">
         <v>8</v>
       </c>
@@ -29838,7 +29729,7 @@
       <c r="J733" s="9"/>
       <c r="K733" s="9"/>
     </row>
-    <row r="734" spans="1:11">
+    <row r="734" spans="1:11" hidden="1">
       <c r="A734" s="9">
         <v>8</v>
       </c>
@@ -29865,7 +29756,7 @@
       <c r="J734" s="9"/>
       <c r="K734" s="9"/>
     </row>
-    <row r="735" spans="1:11" ht="27.6">
+    <row r="735" spans="1:11" ht="27.6" hidden="1">
       <c r="A735" s="9">
         <v>8</v>
       </c>
@@ -29892,7 +29783,7 @@
       <c r="J735" s="9"/>
       <c r="K735" s="9"/>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" spans="1:11" hidden="1">
       <c r="A736" s="9">
         <v>8</v>
       </c>
@@ -29919,7 +29810,7 @@
       <c r="J736" s="9"/>
       <c r="K736" s="9"/>
     </row>
-    <row r="737" spans="1:11">
+    <row r="737" spans="1:11" hidden="1">
       <c r="A737" s="9">
         <v>8</v>
       </c>
@@ -29946,7 +29837,7 @@
       <c r="J737" s="9"/>
       <c r="K737" s="9"/>
     </row>
-    <row r="738" spans="1:11">
+    <row r="738" spans="1:11" hidden="1">
       <c r="A738" s="9">
         <v>8</v>
       </c>
@@ -29973,7 +29864,7 @@
       <c r="J738" s="9"/>
       <c r="K738" s="9"/>
     </row>
-    <row r="739" spans="1:11">
+    <row r="739" spans="1:11" hidden="1">
       <c r="A739" s="9">
         <v>8</v>
       </c>
@@ -30000,7 +29891,7 @@
       <c r="J739" s="9"/>
       <c r="K739" s="9"/>
     </row>
-    <row r="740" spans="1:11">
+    <row r="740" spans="1:11" hidden="1">
       <c r="A740" s="9">
         <v>8</v>
       </c>
@@ -30027,7 +29918,7 @@
       <c r="J740" s="9"/>
       <c r="K740" s="9"/>
     </row>
-    <row r="741" spans="1:11" ht="27.6">
+    <row r="741" spans="1:11" ht="27.6" hidden="1">
       <c r="A741" s="9">
         <v>8</v>
       </c>
@@ -30054,7 +29945,7 @@
       <c r="J741" s="9"/>
       <c r="K741" s="9"/>
     </row>
-    <row r="742" spans="1:11" ht="27.6">
+    <row r="742" spans="1:11" ht="27.6" hidden="1">
       <c r="A742" s="16">
         <v>6</v>
       </c>
@@ -30081,7 +29972,7 @@
       <c r="J742" s="17"/>
       <c r="K742" s="17"/>
     </row>
-    <row r="743" spans="1:11" ht="27.6">
+    <row r="743" spans="1:11" ht="27.6" hidden="1">
       <c r="A743" s="9">
         <v>8</v>
       </c>
@@ -30108,7 +29999,7 @@
       <c r="J743" s="9"/>
       <c r="K743" s="9"/>
     </row>
-    <row r="744" spans="1:11" ht="27.6">
+    <row r="744" spans="1:11" ht="27.6" hidden="1">
       <c r="A744" s="9">
         <v>8</v>
       </c>
@@ -30135,7 +30026,7 @@
       <c r="J744" s="9"/>
       <c r="K744" s="9"/>
     </row>
-    <row r="745" spans="1:11" ht="27.6">
+    <row r="745" spans="1:11" ht="27.6" hidden="1">
       <c r="A745" s="9">
         <v>8</v>
       </c>
@@ -30162,7 +30053,7 @@
       <c r="J745" s="9"/>
       <c r="K745" s="9"/>
     </row>
-    <row r="746" spans="1:11">
+    <row r="746" spans="1:11" hidden="1">
       <c r="A746" s="9">
         <v>8</v>
       </c>
@@ -30189,7 +30080,7 @@
       <c r="J746" s="9"/>
       <c r="K746" s="9"/>
     </row>
-    <row r="747" spans="1:11">
+    <row r="747" spans="1:11" hidden="1">
       <c r="A747" s="9">
         <v>8</v>
       </c>
@@ -30216,7 +30107,7 @@
       <c r="J747" s="9"/>
       <c r="K747" s="9"/>
     </row>
-    <row r="748" spans="1:11" ht="27.6">
+    <row r="748" spans="1:11" ht="27.6" hidden="1">
       <c r="A748" s="16">
         <v>6</v>
       </c>
@@ -30243,7 +30134,7 @@
       <c r="J748" s="17"/>
       <c r="K748" s="17"/>
     </row>
-    <row r="749" spans="1:11">
+    <row r="749" spans="1:11" hidden="1">
       <c r="A749" s="9">
         <v>8</v>
       </c>
@@ -30270,7 +30161,7 @@
       <c r="J749" s="9"/>
       <c r="K749" s="9"/>
     </row>
-    <row r="750" spans="1:11">
+    <row r="750" spans="1:11" hidden="1">
       <c r="A750" s="9">
         <v>3</v>
       </c>
@@ -30297,7 +30188,7 @@
       <c r="J750" s="9"/>
       <c r="K750" s="9"/>
     </row>
-    <row r="751" spans="1:11">
+    <row r="751" spans="1:11" hidden="1">
       <c r="A751" s="9">
         <v>3</v>
       </c>
@@ -30324,7 +30215,7 @@
       <c r="J751" s="9"/>
       <c r="K751" s="9"/>
     </row>
-    <row r="752" spans="1:11" ht="27.6">
+    <row r="752" spans="1:11" ht="27.6" hidden="1">
       <c r="A752" s="9">
         <v>8</v>
       </c>
@@ -30351,7 +30242,7 @@
       <c r="J752" s="9"/>
       <c r="K752" s="9"/>
     </row>
-    <row r="753" spans="1:11" ht="27.6">
+    <row r="753" spans="1:11" ht="27.6" hidden="1">
       <c r="A753" s="16">
         <v>7</v>
       </c>
@@ -30378,7 +30269,7 @@
       <c r="J753" s="17"/>
       <c r="K753" s="17"/>
     </row>
-    <row r="754" spans="1:11" ht="27.6">
+    <row r="754" spans="1:11" ht="27.6" hidden="1">
       <c r="A754" s="16">
         <v>7</v>
       </c>
@@ -30405,7 +30296,7 @@
       <c r="J754" s="17"/>
       <c r="K754" s="17"/>
     </row>
-    <row r="755" spans="1:11" ht="27.6">
+    <row r="755" spans="1:11" ht="27.6" hidden="1">
       <c r="A755" s="9">
         <v>8</v>
       </c>
@@ -30432,7 +30323,7 @@
       <c r="J755" s="9"/>
       <c r="K755" s="9"/>
     </row>
-    <row r="756" spans="1:11" ht="27.6">
+    <row r="756" spans="1:11" ht="27.6" hidden="1">
       <c r="A756" s="9">
         <v>8</v>
       </c>
@@ -30459,7 +30350,7 @@
       <c r="J756" s="9"/>
       <c r="K756" s="9"/>
     </row>
-    <row r="757" spans="1:11" ht="27.6">
+    <row r="757" spans="1:11" ht="27.6" hidden="1">
       <c r="A757" s="9">
         <v>8</v>
       </c>
@@ -30486,7 +30377,7 @@
       <c r="J757" s="9"/>
       <c r="K757" s="9"/>
     </row>
-    <row r="758" spans="1:11">
+    <row r="758" spans="1:11" hidden="1">
       <c r="A758" s="9">
         <v>8</v>
       </c>
@@ -30513,7 +30404,7 @@
       <c r="J758" s="9"/>
       <c r="K758" s="9"/>
     </row>
-    <row r="759" spans="1:11" ht="41.4">
+    <row r="759" spans="1:11" ht="41.4" hidden="1">
       <c r="A759" s="9">
         <v>8</v>
       </c>
@@ -30540,7 +30431,7 @@
       <c r="J759" s="9"/>
       <c r="K759" s="9"/>
     </row>
-    <row r="760" spans="1:11" ht="41.4">
+    <row r="760" spans="1:11" ht="41.4" hidden="1">
       <c r="A760" s="9">
         <v>8</v>
       </c>
@@ -30567,7 +30458,7 @@
       <c r="J760" s="9"/>
       <c r="K760" s="9"/>
     </row>
-    <row r="761" spans="1:11" ht="41.4">
+    <row r="761" spans="1:11" ht="41.4" hidden="1">
       <c r="A761" s="9">
         <v>8</v>
       </c>
@@ -30594,7 +30485,7 @@
       <c r="J761" s="9"/>
       <c r="K761" s="9"/>
     </row>
-    <row r="762" spans="1:11" ht="41.4">
+    <row r="762" spans="1:11" ht="41.4" hidden="1">
       <c r="A762" s="9">
         <v>8</v>
       </c>
@@ -30621,7 +30512,7 @@
       <c r="J762" s="9"/>
       <c r="K762" s="9"/>
     </row>
-    <row r="763" spans="1:11" ht="27.6">
+    <row r="763" spans="1:11" ht="27.6" hidden="1">
       <c r="A763" s="9">
         <v>8</v>
       </c>
@@ -30648,7 +30539,7 @@
       <c r="J763" s="9"/>
       <c r="K763" s="9"/>
     </row>
-    <row r="764" spans="1:11">
+    <row r="764" spans="1:11" hidden="1">
       <c r="A764" s="9">
         <v>8</v>
       </c>
@@ -30675,7 +30566,7 @@
       <c r="J764" s="9"/>
       <c r="K764" s="9"/>
     </row>
-    <row r="765" spans="1:11" ht="27.6">
+    <row r="765" spans="1:11" ht="27.6" hidden="1">
       <c r="A765" s="9">
         <v>8</v>
       </c>
@@ -30702,7 +30593,7 @@
       <c r="J765" s="9"/>
       <c r="K765" s="9"/>
     </row>
-    <row r="766" spans="1:11" ht="27.6">
+    <row r="766" spans="1:11" ht="27.6" hidden="1">
       <c r="A766" s="9">
         <v>8</v>
       </c>
@@ -30729,7 +30620,7 @@
       <c r="J766" s="9"/>
       <c r="K766" s="9"/>
     </row>
-    <row r="767" spans="1:11" ht="27.6">
+    <row r="767" spans="1:11" ht="27.6" hidden="1">
       <c r="A767" s="9">
         <v>8</v>
       </c>
@@ -30756,7 +30647,7 @@
       <c r="J767" s="9"/>
       <c r="K767" s="9"/>
     </row>
-    <row r="768" spans="1:11" ht="27.6">
+    <row r="768" spans="1:11" ht="27.6" hidden="1">
       <c r="A768" s="9">
         <v>8</v>
       </c>
@@ -30783,7 +30674,7 @@
       <c r="J768" s="9"/>
       <c r="K768" s="9"/>
     </row>
-    <row r="769" spans="1:11" ht="27.6">
+    <row r="769" spans="1:11" ht="27.6" hidden="1">
       <c r="A769" s="9">
         <v>8</v>
       </c>
@@ -30810,7 +30701,7 @@
       <c r="J769" s="9"/>
       <c r="K769" s="9"/>
     </row>
-    <row r="770" spans="1:11" ht="27.6">
+    <row r="770" spans="1:11" ht="27.6" hidden="1">
       <c r="A770" s="9">
         <v>8</v>
       </c>
@@ -30837,7 +30728,7 @@
       <c r="J770" s="9"/>
       <c r="K770" s="9"/>
     </row>
-    <row r="771" spans="1:11" ht="27.6">
+    <row r="771" spans="1:11" ht="27.6" hidden="1">
       <c r="A771" s="9">
         <v>8</v>
       </c>
@@ -30864,7 +30755,7 @@
       <c r="J771" s="9"/>
       <c r="K771" s="9"/>
     </row>
-    <row r="772" spans="1:11" ht="27.6">
+    <row r="772" spans="1:11" ht="27.6" hidden="1">
       <c r="A772" s="9">
         <v>8</v>
       </c>
@@ -30891,7 +30782,7 @@
       <c r="J772" s="9"/>
       <c r="K772" s="9"/>
     </row>
-    <row r="773" spans="1:11" ht="27.6">
+    <row r="773" spans="1:11" ht="27.6" hidden="1">
       <c r="A773" s="9">
         <v>8</v>
       </c>
@@ -30918,7 +30809,7 @@
       <c r="J773" s="9"/>
       <c r="K773" s="9"/>
     </row>
-    <row r="774" spans="1:11" ht="27.6">
+    <row r="774" spans="1:11" ht="27.6" hidden="1">
       <c r="A774" s="9">
         <v>8</v>
       </c>
@@ -30945,7 +30836,7 @@
       <c r="J774" s="9"/>
       <c r="K774" s="9"/>
     </row>
-    <row r="775" spans="1:11" ht="27.6">
+    <row r="775" spans="1:11" ht="27.6" hidden="1">
       <c r="A775" s="9">
         <v>8</v>
       </c>
@@ -30972,7 +30863,7 @@
       <c r="J775" s="9"/>
       <c r="K775" s="9"/>
     </row>
-    <row r="776" spans="1:11" ht="27.6">
+    <row r="776" spans="1:11" ht="27.6" hidden="1">
       <c r="A776" s="9">
         <v>8</v>
       </c>
@@ -30999,7 +30890,7 @@
       <c r="J776" s="9"/>
       <c r="K776" s="9"/>
     </row>
-    <row r="777" spans="1:11" ht="27.6">
+    <row r="777" spans="1:11" ht="27.6" hidden="1">
       <c r="A777" s="9">
         <v>8</v>
       </c>
@@ -31026,7 +30917,7 @@
       <c r="J777" s="9"/>
       <c r="K777" s="9"/>
     </row>
-    <row r="778" spans="1:11" ht="27.6">
+    <row r="778" spans="1:11" ht="27.6" hidden="1">
       <c r="A778" s="9">
         <v>8</v>
       </c>
@@ -31053,7 +30944,7 @@
       <c r="J778" s="9"/>
       <c r="K778" s="9"/>
     </row>
-    <row r="779" spans="1:11" ht="27.6">
+    <row r="779" spans="1:11" ht="27.6" hidden="1">
       <c r="A779" s="9">
         <v>8</v>
       </c>
@@ -31080,7 +30971,7 @@
       <c r="J779" s="9"/>
       <c r="K779" s="9"/>
     </row>
-    <row r="780" spans="1:11" ht="27.6">
+    <row r="780" spans="1:11" ht="27.6" hidden="1">
       <c r="A780" s="9">
         <v>8</v>
       </c>
@@ -31107,7 +30998,7 @@
       <c r="J780" s="9"/>
       <c r="K780" s="9"/>
     </row>
-    <row r="781" spans="1:11" ht="27.6">
+    <row r="781" spans="1:11" ht="27.6" hidden="1">
       <c r="A781" s="9">
         <v>8</v>
       </c>
@@ -31134,7 +31025,7 @@
       <c r="J781" s="9"/>
       <c r="K781" s="9"/>
     </row>
-    <row r="782" spans="1:11" ht="27.6">
+    <row r="782" spans="1:11" ht="27.6" hidden="1">
       <c r="A782" s="9">
         <v>8</v>
       </c>
@@ -31161,7 +31052,7 @@
       <c r="J782" s="9"/>
       <c r="K782" s="9"/>
     </row>
-    <row r="783" spans="1:11" ht="27.6">
+    <row r="783" spans="1:11" ht="27.6" hidden="1">
       <c r="A783" s="9">
         <v>8</v>
       </c>
@@ -31188,7 +31079,7 @@
       <c r="J783" s="9"/>
       <c r="K783" s="9"/>
     </row>
-    <row r="784" spans="1:11" ht="27.6">
+    <row r="784" spans="1:11" ht="27.6" hidden="1">
       <c r="A784" s="9">
         <v>8</v>
       </c>
@@ -31215,7 +31106,7 @@
       <c r="J784" s="9"/>
       <c r="K784" s="9"/>
     </row>
-    <row r="785" spans="1:11">
+    <row r="785" spans="1:11" hidden="1">
       <c r="A785" s="9">
         <v>8</v>
       </c>
@@ -31242,7 +31133,7 @@
       <c r="J785" s="9"/>
       <c r="K785" s="9"/>
     </row>
-    <row r="786" spans="1:11">
+    <row r="786" spans="1:11" hidden="1">
       <c r="A786" s="9">
         <v>8</v>
       </c>
@@ -31269,7 +31160,7 @@
       <c r="J786" s="9"/>
       <c r="K786" s="9"/>
     </row>
-    <row r="787" spans="1:11">
+    <row r="787" spans="1:11" hidden="1">
       <c r="A787" s="9">
         <v>8</v>
       </c>
@@ -31296,7 +31187,7 @@
       <c r="J787" s="9"/>
       <c r="K787" s="9"/>
     </row>
-    <row r="788" spans="1:11">
+    <row r="788" spans="1:11" hidden="1">
       <c r="A788" s="9">
         <v>8</v>
       </c>
@@ -31323,7 +31214,7 @@
       <c r="J788" s="9"/>
       <c r="K788" s="9"/>
     </row>
-    <row r="789" spans="1:11">
+    <row r="789" spans="1:11" hidden="1">
       <c r="A789" s="41"/>
       <c r="B789" s="13" t="s">
         <v>2245</v>
@@ -31342,7 +31233,7 @@
       <c r="J789" s="41"/>
       <c r="K789" s="41"/>
     </row>
-    <row r="790" spans="1:11">
+    <row r="790" spans="1:11" hidden="1">
       <c r="A790" s="41"/>
       <c r="B790" s="13" t="s">
         <v>2246</v>
@@ -31361,7 +31252,7 @@
       <c r="J790" s="41"/>
       <c r="K790" s="41"/>
     </row>
-    <row r="791" spans="1:11">
+    <row r="791" spans="1:11" hidden="1">
       <c r="A791" s="41"/>
       <c r="B791" s="13" t="s">
         <v>2247</v>
@@ -31380,7 +31271,7 @@
       <c r="J791" s="41"/>
       <c r="K791" s="41"/>
     </row>
-    <row r="792" spans="1:11">
+    <row r="792" spans="1:11" hidden="1">
       <c r="A792" s="41"/>
       <c r="B792" s="13" t="s">
         <v>2248</v>
@@ -31401,7 +31292,7 @@
       <c r="J792" s="41"/>
       <c r="K792" s="41"/>
     </row>
-    <row r="793" spans="1:11">
+    <row r="793" spans="1:11" hidden="1">
       <c r="A793" s="41"/>
       <c r="B793" s="13" t="s">
         <v>2249</v>
@@ -31422,7 +31313,7 @@
       <c r="J793" s="41"/>
       <c r="K793" s="41"/>
     </row>
-    <row r="794" spans="1:11">
+    <row r="794" spans="1:11" hidden="1">
       <c r="A794" s="41"/>
       <c r="B794" s="13" t="s">
         <v>2250</v>
@@ -31441,7 +31332,7 @@
       <c r="J794" s="41"/>
       <c r="K794" s="41"/>
     </row>
-    <row r="795" spans="1:11">
+    <row r="795" spans="1:11" hidden="1">
       <c r="A795" s="41"/>
       <c r="B795" s="13" t="s">
         <v>2251</v>
@@ -31468,7 +31359,7 @@
         <v>2252</v>
       </c>
       <c r="C796" s="12" t="s">
-        <v>2264</v>
+        <v>2323</v>
       </c>
       <c r="D796" s="41"/>
       <c r="E796" s="10" t="s">
@@ -31483,13 +31374,13 @@
       <c r="J796" s="41"/>
       <c r="K796" s="41"/>
     </row>
-    <row r="797" spans="1:11">
+    <row r="797" spans="1:11" hidden="1">
       <c r="A797" s="41"/>
       <c r="B797" s="13" t="s">
         <v>2253</v>
       </c>
       <c r="C797" s="12" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D797" s="41"/>
       <c r="E797" s="10" t="s">
@@ -31502,13 +31393,13 @@
       <c r="J797" s="41"/>
       <c r="K797" s="41"/>
     </row>
-    <row r="798" spans="1:11">
+    <row r="798" spans="1:11" hidden="1">
       <c r="A798" s="41"/>
       <c r="B798" s="13" t="s">
         <v>2254</v>
       </c>
       <c r="C798" s="12" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D798" s="41"/>
       <c r="E798" s="10" t="s">
@@ -31523,13 +31414,13 @@
       <c r="J798" s="41"/>
       <c r="K798" s="41"/>
     </row>
-    <row r="799" spans="1:11">
+    <row r="799" spans="1:11" hidden="1">
       <c r="A799" s="41"/>
       <c r="B799" s="13" t="s">
         <v>2255</v>
       </c>
       <c r="C799" s="12" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D799" s="41"/>
       <c r="E799" s="10" t="s">
@@ -31544,13 +31435,13 @@
       <c r="J799" s="41"/>
       <c r="K799" s="41"/>
     </row>
-    <row r="800" spans="1:11">
+    <row r="800" spans="1:11" hidden="1">
       <c r="A800" s="41"/>
       <c r="B800" s="13" t="s">
         <v>2256</v>
       </c>
       <c r="C800" s="36" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D800" s="41"/>
       <c r="E800" s="10" t="s">
@@ -31563,7 +31454,7 @@
       <c r="J800" s="41"/>
       <c r="K800" s="41"/>
     </row>
-    <row r="801" spans="1:6">
+    <row r="801" spans="1:6" hidden="1">
       <c r="A801" s="41"/>
       <c r="B801" s="13" t="s">
         <v>2172</v>
@@ -31578,7 +31469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="802" spans="1:6" ht="27.6">
+    <row r="802" spans="1:6" ht="27.6" hidden="1">
       <c r="A802" s="41"/>
       <c r="B802" s="13" t="s">
         <v>2173</v>
@@ -31593,7 +31484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="803" spans="1:6" ht="27.6">
+    <row r="803" spans="1:6" ht="27.6" hidden="1">
       <c r="B803" s="13" t="s">
         <v>2174</v>
       </c>
@@ -31604,7 +31495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:6" ht="27.6">
+    <row r="804" spans="1:6" ht="27.6" hidden="1">
       <c r="B804" s="13" t="s">
         <v>2175</v>
       </c>
@@ -31618,7 +31509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="27.6">
+    <row r="805" spans="1:6" ht="27.6" hidden="1">
       <c r="B805" s="13" t="s">
         <v>2176</v>
       </c>
@@ -31629,7 +31520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:6">
+    <row r="806" spans="1:6" hidden="1">
       <c r="B806" s="13" t="s">
         <v>2177</v>
       </c>
@@ -31643,7 +31534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="807" spans="1:6">
+    <row r="807" spans="1:6" hidden="1">
       <c r="B807" s="13" t="s">
         <v>2178</v>
       </c>
@@ -31657,7 +31548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="808" spans="1:6">
+    <row r="808" spans="1:6" hidden="1">
       <c r="B808" s="13" t="s">
         <v>2179</v>
       </c>
@@ -31668,7 +31559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:6">
+    <row r="809" spans="1:6" hidden="1">
       <c r="B809" s="13" t="s">
         <v>2180</v>
       </c>
@@ -31682,7 +31573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="810" spans="1:6">
+    <row r="810" spans="1:6" hidden="1">
       <c r="B810" s="13" t="s">
         <v>2181</v>
       </c>
@@ -31696,7 +31587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="811" spans="1:6">
+    <row r="811" spans="1:6" hidden="1">
       <c r="B811" s="13" t="s">
         <v>2182</v>
       </c>
@@ -31707,7 +31598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:6" ht="27.6">
+    <row r="812" spans="1:6" ht="27.6" hidden="1">
       <c r="B812" s="13" t="s">
         <v>2183</v>
       </c>
@@ -31721,7 +31612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="813" spans="1:6">
+    <row r="813" spans="1:6" hidden="1">
       <c r="B813" s="13" t="s">
         <v>2184</v>
       </c>
@@ -31735,7 +31626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="814" spans="1:6">
+    <row r="814" spans="1:6" hidden="1">
       <c r="B814" s="13" t="s">
         <v>2185</v>
       </c>
@@ -31746,7 +31637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:6">
+    <row r="815" spans="1:6" hidden="1">
       <c r="B815" s="13" t="s">
         <v>2186</v>
       </c>
@@ -31760,7 +31651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="816" spans="1:6">
+    <row r="816" spans="1:6" hidden="1">
       <c r="B816" s="13" t="s">
         <v>2187</v>
       </c>
@@ -31771,7 +31662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="2:6" ht="27.6">
+    <row r="817" spans="2:6" ht="27.6" hidden="1">
       <c r="B817" s="13" t="s">
         <v>2188</v>
       </c>
@@ -31785,7 +31676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="818" spans="2:6">
+    <row r="818" spans="2:6" hidden="1">
       <c r="B818" s="13" t="s">
         <v>2189</v>
       </c>
@@ -31799,7 +31690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="819" spans="2:6">
+    <row r="819" spans="2:6" hidden="1">
       <c r="B819" s="13" t="s">
         <v>2190</v>
       </c>
@@ -31810,7 +31701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="2:6" ht="27.6">
+    <row r="820" spans="2:6" ht="27.6" hidden="1">
       <c r="B820" s="13" t="s">
         <v>2191</v>
       </c>
@@ -31824,7 +31715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="821" spans="2:6">
+    <row r="821" spans="2:6" hidden="1">
       <c r="B821" s="13" t="s">
         <v>2192</v>
       </c>
@@ -31838,7 +31729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="822" spans="2:6">
+    <row r="822" spans="2:6" hidden="1">
       <c r="B822" s="13" t="s">
         <v>2193</v>
       </c>
@@ -31849,7 +31740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="2:6">
+    <row r="823" spans="2:6" hidden="1">
       <c r="B823" s="13" t="s">
         <v>2194</v>
       </c>
@@ -31863,7 +31754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="824" spans="2:6">
+    <row r="824" spans="2:6" hidden="1">
       <c r="B824" s="13" t="s">
         <v>2195</v>
       </c>
@@ -31877,7 +31768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="2:6">
+    <row r="825" spans="2:6" hidden="1">
       <c r="B825" s="13" t="s">
         <v>2196</v>
       </c>
@@ -31888,7 +31779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="2:6" ht="27.6">
+    <row r="826" spans="2:6" ht="27.6" hidden="1">
       <c r="B826" s="13" t="s">
         <v>2197</v>
       </c>
@@ -31902,7 +31793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="2:6">
+    <row r="827" spans="2:6" hidden="1">
       <c r="B827" s="13" t="s">
         <v>2198</v>
       </c>
@@ -31916,7 +31807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="828" spans="2:6">
+    <row r="828" spans="2:6" hidden="1">
       <c r="B828" s="13" t="s">
         <v>2199</v>
       </c>
@@ -31927,7 +31818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="2:6" ht="27.6">
+    <row r="829" spans="2:6" ht="27.6" hidden="1">
       <c r="B829" s="13" t="s">
         <v>2200</v>
       </c>
@@ -31941,7 +31832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="830" spans="2:6">
+    <row r="830" spans="2:6" hidden="1">
       <c r="B830" s="13" t="s">
         <v>2201</v>
       </c>
@@ -31955,7 +31846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="831" spans="2:6">
+    <row r="831" spans="2:6" hidden="1">
       <c r="B831" s="13" t="s">
         <v>2202</v>
       </c>
@@ -31966,7 +31857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="2:6" ht="27.6">
+    <row r="832" spans="2:6" ht="27.6" hidden="1">
       <c r="B832" s="13" t="s">
         <v>2203</v>
       </c>
@@ -31980,7 +31871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="833" spans="2:6">
+    <row r="833" spans="2:6" hidden="1">
       <c r="B833" s="13" t="s">
         <v>2204</v>
       </c>
@@ -31994,7 +31885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="834" spans="2:6" ht="27.6">
+    <row r="834" spans="2:6" ht="27.6" hidden="1">
       <c r="B834" s="13" t="s">
         <v>2205</v>
       </c>
@@ -32005,7 +31896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="2:6">
+    <row r="835" spans="2:6" hidden="1">
       <c r="B835" s="13" t="s">
         <v>2206</v>
       </c>
@@ -32019,7 +31910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="836" spans="2:6">
+    <row r="836" spans="2:6" hidden="1">
       <c r="B836" s="13" t="s">
         <v>2207</v>
       </c>
@@ -32033,7 +31924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="837" spans="2:6">
+    <row r="837" spans="2:6" hidden="1">
       <c r="B837" s="13" t="s">
         <v>2208</v>
       </c>
@@ -32045,416 +31936,382 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K788" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}"/>
+  <autoFilter ref="A1:K837" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TPOD2441"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A67 A69:A103 G69:K207 E24:F728">
-    <cfRule type="containsText" dxfId="85" priority="566" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="A4:A67 A69:A103">
+    <cfRule type="containsText" dxfId="75" priority="566" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:A140">
-    <cfRule type="containsText" dxfId="84" priority="104" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="104" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A105)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A167:A196">
-    <cfRule type="containsText" dxfId="83" priority="24" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="A167:A208">
+    <cfRule type="containsText" dxfId="73" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229:A242">
-    <cfRule type="containsText" dxfId="82" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A276">
-    <cfRule type="containsText" dxfId="81" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A294">
-    <cfRule type="containsText" dxfId="80" priority="102" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="102" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="79" priority="533" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="533" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A536:B543">
-    <cfRule type="containsText" dxfId="78" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A536)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A587:B587">
-    <cfRule type="containsText" dxfId="77" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A587)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A657:B663">
-    <cfRule type="containsText" dxfId="76" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A657)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A700:B700 F700:F702">
-    <cfRule type="containsText" dxfId="75" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A700)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A727:B728">
-    <cfRule type="containsText" dxfId="74" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A727)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A68:C68">
+    <cfRule type="containsText" dxfId="63" priority="16" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A104:C104">
-    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141:C142">
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A141)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:C160">
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:C166">
-    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A166)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:C209">
-    <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="A209:C210">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A228:C228">
-    <cfRule type="containsText" dxfId="68" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240:C243">
-    <cfRule type="containsText" dxfId="67" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A240)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249:C249">
-    <cfRule type="containsText" dxfId="66" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A257:C258">
-    <cfRule type="containsText" dxfId="65" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A257)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:K1 G2:K28 B4 A5:B5 E6 E8 E10:E11 F11:K11 F12:F15 H29:K29 L78:R81 F126:F131 A143:A157 F147:F152 F153:K153 E161:E162 A161:A165 F164:F165 F167:F188 A197:A208 F197:F208 A211:A227 F229:F239 A244:A248 F250:F256 F259:F276 F211:F227">
-    <cfRule type="containsText" dxfId="64" priority="618" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="A1:K1 G2:K28 B4 A5:B5 E6 E8 E10:E11 F11:K11 F12:F15 H29:K29 L78:R81 F126:F131 A143:A157 F147:F152 F153:K153 E161:E162 A161:A165 F164:F165 F167:F188 F197:F208 A211:A227 F211:F227 F229:F239 A244:A248 F250:F256 F259:F276">
+    <cfRule type="containsText" dxfId="53" priority="618" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:C66 B67">
-    <cfRule type="containsText" dxfId="63" priority="84" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="B66:C67">
+    <cfRule type="containsText" dxfId="52" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:C98">
-    <cfRule type="containsText" dxfId="62" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:C102">
-    <cfRule type="containsText" dxfId="61" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189:C196">
-    <cfRule type="containsText" dxfId="60" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B189)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B223:C223">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B223)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="59" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C46">
-    <cfRule type="containsText" dxfId="58" priority="96" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="96" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C54">
-    <cfRule type="containsText" dxfId="57" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="containsText" dxfId="56" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C60">
-    <cfRule type="containsText" dxfId="55" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="containsText" dxfId="54" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="containsText" dxfId="53" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C69)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C85:C87">
+    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="containsText" dxfId="52" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="51" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C137:C138">
-    <cfRule type="containsText" dxfId="50" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143">
-    <cfRule type="containsText" dxfId="49" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="48" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171">
-    <cfRule type="containsText" dxfId="47" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C188">
-    <cfRule type="containsText" dxfId="46" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C188)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C224:C225">
-    <cfRule type="containsText" dxfId="45" priority="20" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="C202">
+    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C222)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C224:C226">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C224)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C259:C262">
-    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="43" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C514:C515">
-    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C514)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C575">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C575)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C666:C667">
-    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C666)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C752">
-    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C752)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:E81">
-    <cfRule type="containsText" dxfId="38" priority="345" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:E77">
-    <cfRule type="containsText" dxfId="37" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:E101 F98">
-    <cfRule type="containsText" dxfId="36" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="containsText" dxfId="35" priority="370" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="370" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:E141">
-    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143:E153">
-    <cfRule type="containsText" dxfId="33" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E622">
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E622)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E657:E663">
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E657)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E700">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E700)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E209:G209 E210:F210">
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E209)))</formula>
+  <conditionalFormatting sqref="E24:F728 E209:G209">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10">
-    <cfRule type="containsText" dxfId="28" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:F79">
-    <cfRule type="containsText" dxfId="27" priority="338" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="338" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244:F248">
-    <cfRule type="containsText" dxfId="26" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F581 F627:F634 F636:F646 F649:F650 F653:F654 F656:F663 F679 F754">
-    <cfRule type="containsText" dxfId="25" priority="105" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F581)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F608:F623 A622:B622">
-    <cfRule type="containsText" dxfId="24" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A608)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G225">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="G210">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G210)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G223">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G223)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G225:G226">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G225)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G237">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G608">
-    <cfRule type="containsText" dxfId="22" priority="101" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="101" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G608)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:K66 H67:K68">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
+  <conditionalFormatting sqref="G30:K207">
+    <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:C68">
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A210:C210">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A210)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G210">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G210)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C222)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B223:C223">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B223)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G223">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G223)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C226)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G226">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G226)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C237)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G237">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -32497,10 +32354,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
@@ -32785,12 +32642,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 C1">
-    <cfRule type="containsText" dxfId="8" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C1048576">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32812,6 +32669,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100216A073BBB3FB3429D87D77C40313058" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8cfc1d06a525c7d4ea1098b3952a2226">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="385505e6-e5d7-4f1a-b335-045f4e6272b3" xmlns:ns3="86b5f7f7-2f15-447a-b5f6-1e4312ec3a6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67eef51872945492eed3b93ded28523b" ns2:_="" ns3:_="">
     <xsd:import namespace="385505e6-e5d7-4f1a-b335-045f4e6272b3"/>
@@ -32994,12 +32857,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
   <ds:schemaRefs>
@@ -33009,6 +32866,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD65B255-3494-4F5F-976E-876698EF30C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33025,21 +32899,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Validatiematrix.xlsx
+++ b/Validatiematrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w.quak\Git\Geonovum\dso-validatiematrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC7B9FC-B22D-4E97-9814-AC074A19AADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43BBDEF-6A54-4E34-832C-15CF66AC04DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12525" yWindow="-21720" windowWidth="51840" windowHeight="21120" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7863,13 +7863,13 @@
     <t>Het is niet mogelijk om een directe mutatie te doen op een ontwerpregeling.</t>
   </si>
   <si>
-    <t>Een te verwijderen wID in een RegelingMutatie MOET voorkomen in de was-versie.</t>
-  </si>
-  <si>
     <t>De volgende elementen binnen RegelingMetadata MOGEN NIET worden gewijzigd: Eindverantwoordelijke, Opvolging, SoortRegeling, Maker.</t>
   </si>
   <si>
     <t>De volgende elementen binnen InformatieobjectMetadata MOGEN NIET worden gewijzigd: Eindverantwoordelijke, FormaatInformatieobject, Opvolging, Publicatieinstructie, Maker.</t>
+  </si>
+  <si>
+    <t>De RegelingMutatie MAG GEEN te verwijderen wId's bevatten die niet voorkomen in de was-versie</t>
   </si>
 </sst>
 </file>
@@ -9408,11 +9408,11 @@
   <dimension ref="A1:K853"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C233" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C193" sqref="C193"/>
+      <selection pane="bottomRight" activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -14706,7 +14706,7 @@
         <v>2350</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D190" s="16"/>
       <c r="E190" s="16" t="s">
@@ -14729,7 +14729,7 @@
         <v>2351</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D191" s="16"/>
       <c r="E191" s="16" t="s">
@@ -16306,7 +16306,7 @@
         <v>2319</v>
       </c>
       <c r="C250" s="47" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="D250" s="24"/>
       <c r="E250" s="24" t="s">
@@ -33193,12 +33193,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100216A073BBB3FB3429D87D77C40313058" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8cfc1d06a525c7d4ea1098b3952a2226">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="385505e6-e5d7-4f1a-b335-045f4e6272b3" xmlns:ns3="86b5f7f7-2f15-447a-b5f6-1e4312ec3a6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67eef51872945492eed3b93ded28523b" ns2:_="" ns3:_="">
     <xsd:import namespace="385505e6-e5d7-4f1a-b335-045f4e6272b3"/>
@@ -33381,6 +33375,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
   <ds:schemaRefs>
@@ -33390,23 +33390,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD65B255-3494-4F5F-976E-876698EF30C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33423,4 +33406,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Validatiematrix.xlsx
+++ b/Validatiematrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w.quak\Git\Geonovum\dso-validatiematrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A1C15-9D5C-42B4-A18B-B26CFAAFBB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECA793E-657A-4D91-B679-D91D6B194F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12510" yWindow="-21600" windowWidth="26010" windowHeight="20985" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -5306,11 +5306,6 @@
     <t>Een @wordt-versie in een besluit MOET gelijk zijn aan precies één meegeleverde FRBRExpression-identificatie in de lvbba:RegelingVersieInformatie.</t>
   </si>
   <si>
-    <t>Bij een definitief besluit MOGEN ALLEEN de volgende procedurestappen voorkomen: 
-Vaststelling
-Ondertekening</t>
-  </si>
-  <si>
     <t>Bij een ontwerpbesluit MOGEN ALLEEN de volgende procedurestappen voorkomen:
 Vaststelling
 Ondertekening</t>
@@ -7194,6 +7189,9 @@
   </si>
   <si>
     <t>Als soortRegeling = 'Waterschapsverordening' dan mag van de waardelijst Type Gebiedsaanwijzing alleen een waarde uit de volgende lijst voorkomen {beperkingengebied, bodem, energievoorziening, erfgoed, geluid, landschap, leiding, natuur, verkeer, water en watersysteem}</t>
+  </si>
+  <si>
+    <t>Bij een definitief besluit MOGEN ALLEEN de volgende procedurestappen voorkomen: 'Vaststelling', 'Ondertekening'.</t>
   </si>
 </sst>
 </file>
@@ -8725,11 +8723,11 @@
   <dimension ref="A1:K849"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C836" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B820" sqref="B820:B849"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -8791,7 +8789,7 @@
         <v>476</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>1542</v>
@@ -8818,7 +8816,7 @@
         <v>477</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>1542</v>
@@ -8847,7 +8845,7 @@
         <v>478</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>1545</v>
@@ -8967,7 +8965,7 @@
         <v>482</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>1545</v>
@@ -8996,7 +8994,7 @@
         <v>483</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>1542</v>
@@ -9027,7 +9025,7 @@
         <v>484</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>1542</v>
@@ -9058,7 +9056,7 @@
         <v>485</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>1542</v>
@@ -9170,7 +9168,7 @@
         <v>558</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>1545</v>
@@ -9282,7 +9280,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="41.4">
+    <row r="19" spans="1:11" ht="27.6">
       <c r="A19" s="16">
         <v>2</v>
       </c>
@@ -9290,7 +9288,7 @@
         <v>825</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>1715</v>
+        <v>2327</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>1571</v>
@@ -9346,7 +9344,7 @@
         <v>827</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>1571</v>
@@ -9375,7 +9373,7 @@
         <v>828</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>1571</v>
@@ -9518,7 +9516,7 @@
         <v>833</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>1571</v>
@@ -9545,7 +9543,7 @@
         <v>834</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>1571</v>
@@ -9569,10 +9567,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>2060</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>2061</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>1023</v>
@@ -9581,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -9599,7 +9597,7 @@
         <v>835</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>1571</v>
@@ -9626,7 +9624,7 @@
         <v>301</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>449</v>
@@ -9653,7 +9651,7 @@
         <v>570</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>449</v>
@@ -9680,7 +9678,7 @@
         <v>302</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>449</v>
@@ -9707,7 +9705,7 @@
         <v>303</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>449</v>
@@ -9734,7 +9732,7 @@
         <v>304</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>449</v>
@@ -9923,7 +9921,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>845</v>
@@ -9950,7 +9948,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>845</v>
@@ -9977,7 +9975,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>845</v>
@@ -10004,7 +10002,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>845</v>
@@ -10031,7 +10029,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>845</v>
@@ -10058,7 +10056,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>845</v>
@@ -10085,7 +10083,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>845</v>
@@ -10112,7 +10110,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>845</v>
@@ -10139,7 +10137,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>845</v>
@@ -10166,7 +10164,7 @@
         <v>38</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>845</v>
@@ -10193,7 +10191,7 @@
         <v>39</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>845</v>
@@ -10220,7 +10218,7 @@
         <v>40</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>845</v>
@@ -10247,7 +10245,7 @@
         <v>41</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>845</v>
@@ -10303,7 +10301,7 @@
         <v>240</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>69</v>
@@ -10386,7 +10384,7 @@
         <v>679</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>69</v>
@@ -10413,7 +10411,7 @@
         <v>680</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>69</v>
@@ -10469,7 +10467,7 @@
         <v>682</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>69</v>
@@ -10552,7 +10550,7 @@
         <v>685</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>69</v>
@@ -10579,7 +10577,7 @@
         <v>1620</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>69</v>
@@ -10604,7 +10602,7 @@
         <v>1621</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>69</v>
@@ -10616,7 +10614,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -10625,23 +10623,23 @@
     </row>
     <row r="68" spans="1:11" ht="57.6">
       <c r="A68" s="27" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B68" s="20" t="s">
         <v>2195</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="C68" s="2" t="s">
         <v>2196</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>2197</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F68" s="21" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>2198</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>2199</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
@@ -10656,7 +10654,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>845</v>
@@ -10683,7 +10681,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>845</v>
@@ -10718,7 +10716,7 @@
         <v>494</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>845</v>
@@ -10745,7 +10743,7 @@
         <v>66</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>889</v>
@@ -10772,7 +10770,7 @@
         <v>67</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>845</v>
@@ -10799,7 +10797,7 @@
         <v>199</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>845</v>
@@ -10826,7 +10824,7 @@
         <v>317</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>845</v>
@@ -10853,7 +10851,7 @@
         <v>318</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>845</v>
@@ -10880,7 +10878,7 @@
         <v>319</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>845</v>
@@ -10907,7 +10905,7 @@
         <v>632</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>845</v>
@@ -10934,7 +10932,7 @@
         <v>633</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>845</v>
@@ -10967,7 +10965,7 @@
         <v>634</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>845</v>
@@ -11000,7 +10998,7 @@
         <v>200</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>845</v>
@@ -11027,7 +11025,7 @@
         <v>201</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>845</v>
@@ -11054,7 +11052,7 @@
         <v>202</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>845</v>
@@ -11114,7 +11112,7 @@
         <v>204</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>845</v>
@@ -11141,7 +11139,7 @@
         <v>205</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>845</v>
@@ -11168,7 +11166,7 @@
         <v>206</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>845</v>
@@ -11195,7 +11193,7 @@
         <v>207</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>845</v>
@@ -11222,7 +11220,7 @@
         <v>580</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>845</v>
@@ -11249,7 +11247,7 @@
         <v>635</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>845</v>
@@ -11307,7 +11305,7 @@
         <v>637</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>845</v>
@@ -11334,7 +11332,7 @@
         <v>638</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>845</v>
@@ -11365,7 +11363,7 @@
         <v>639</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>845</v>
@@ -11394,7 +11392,7 @@
         <v>1622</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D95" s="22" t="s">
         <v>1023</v>
@@ -11417,7 +11415,7 @@
         <v>1623</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>1023</v>
@@ -11440,7 +11438,7 @@
         <v>1624</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D97" s="22" t="s">
         <v>1023</v>
@@ -11488,7 +11486,7 @@
         <v>686</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>69</v>
@@ -11515,7 +11513,7 @@
         <v>687</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>69</v>
@@ -11542,7 +11540,7 @@
         <v>688</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>69</v>
@@ -11587,10 +11585,10 @@
     <row r="103" spans="1:11" ht="14.4">
       <c r="A103" s="16"/>
       <c r="B103" s="9" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C103" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D103" s="25"/>
       <c r="E103" s="25" t="s">
@@ -11600,7 +11598,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="47" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
@@ -11610,10 +11608,10 @@
     <row r="104" spans="1:11" ht="14.4">
       <c r="A104" s="16"/>
       <c r="B104" s="9" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C104" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D104" s="25"/>
       <c r="E104" s="25" t="s">
@@ -11623,7 +11621,7 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
@@ -11633,10 +11631,10 @@
     <row r="105" spans="1:11" ht="14.4">
       <c r="A105" s="16"/>
       <c r="B105" s="9" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C105" s="51" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D105" s="25"/>
       <c r="E105" s="25" t="s">
@@ -11646,7 +11644,7 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
@@ -11656,10 +11654,10 @@
     <row r="106" spans="1:11" ht="14.4">
       <c r="A106" s="16"/>
       <c r="B106" s="9" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C106" t="s">
         <v>2237</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2238</v>
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="25" t="s">
@@ -11669,7 +11667,7 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
@@ -11684,7 +11682,7 @@
         <v>320</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>69</v>
@@ -11740,7 +11738,7 @@
         <v>17</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>845</v>
@@ -11769,7 +11767,7 @@
         <v>18</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>845</v>
@@ -11823,7 +11821,7 @@
         <v>495</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>845</v>
@@ -11858,7 +11856,7 @@
         <v>496</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>845</v>
@@ -11893,7 +11891,7 @@
         <v>497</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>845</v>
@@ -11961,7 +11959,7 @@
         <v>499</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>845</v>
@@ -11996,7 +11994,7 @@
         <v>500</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>845</v>
@@ -12031,7 +12029,7 @@
         <v>501</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>845</v>
@@ -12066,7 +12064,7 @@
         <v>502</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>845</v>
@@ -12132,7 +12130,7 @@
         <v>321</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>845</v>
@@ -12159,7 +12157,7 @@
         <v>322</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>845</v>
@@ -12186,7 +12184,7 @@
         <v>323</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>845</v>
@@ -12213,7 +12211,7 @@
         <v>640</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>845</v>
@@ -12240,7 +12238,7 @@
         <v>209</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>845</v>
@@ -12267,7 +12265,7 @@
         <v>210</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>845</v>
@@ -12294,7 +12292,7 @@
         <v>211</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>845</v>
@@ -12321,7 +12319,7 @@
         <v>212</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>845</v>
@@ -12348,7 +12346,7 @@
         <v>213</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>845</v>
@@ -12381,7 +12379,7 @@
         <v>689</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>69</v>
@@ -12408,7 +12406,7 @@
         <v>690</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>69</v>
@@ -12435,7 +12433,7 @@
         <v>691</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>69</v>
@@ -12495,7 +12493,7 @@
         <v>693</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>69</v>
@@ -12522,7 +12520,7 @@
         <v>694</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>69</v>
@@ -12553,7 +12551,7 @@
         <v>523</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>845</v>
@@ -12580,7 +12578,7 @@
         <v>19</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>845</v>
@@ -12607,7 +12605,7 @@
         <v>20</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>845</v>
@@ -12638,7 +12636,7 @@
         <v>21</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>845</v>
@@ -12665,7 +12663,7 @@
         <v>33</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>845</v>
@@ -12692,7 +12690,7 @@
         <v>42</v>
       </c>
       <c r="C141" s="34" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>845</v>
@@ -12719,7 +12717,7 @@
         <v>504</v>
       </c>
       <c r="C142" s="34" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>845</v>
@@ -12746,7 +12744,7 @@
         <v>524</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>845</v>
@@ -12775,7 +12773,7 @@
         <v>581</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>845</v>
@@ -12802,7 +12800,7 @@
         <v>1632</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>69</v>
@@ -12850,7 +12848,7 @@
         <v>43</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>845</v>
@@ -12877,7 +12875,7 @@
         <v>44</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D148" s="16" t="s">
         <v>845</v>
@@ -12910,7 +12908,7 @@
         <v>45</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>845</v>
@@ -12939,7 +12937,7 @@
         <v>46</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>845</v>
@@ -12966,7 +12964,7 @@
         <v>47</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>845</v>
@@ -12993,7 +12991,7 @@
         <v>48</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>845</v>
@@ -13049,7 +13047,7 @@
         <v>215</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>845</v>
@@ -13076,7 +13074,7 @@
         <v>216</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>845</v>
@@ -13103,7 +13101,7 @@
         <v>217</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>845</v>
@@ -13159,7 +13157,7 @@
         <v>582</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>845</v>
@@ -13217,7 +13215,7 @@
         <v>642</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>845</v>
@@ -13244,7 +13242,7 @@
         <v>695</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>69</v>
@@ -13350,7 +13348,7 @@
         <v>696</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>69</v>
@@ -13377,7 +13375,7 @@
         <v>697</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>69</v>
@@ -13404,7 +13402,7 @@
         <v>698</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>69</v>
@@ -13431,7 +13429,7 @@
         <v>583</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>845</v>
@@ -13458,7 +13456,7 @@
         <v>584</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>845</v>
@@ -13537,7 +13535,7 @@
         <v>23</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>845</v>
@@ -13564,7 +13562,7 @@
         <v>505</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D173" s="16" t="s">
         <v>1023</v>
@@ -13591,7 +13589,7 @@
         <v>218</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>845</v>
@@ -13618,7 +13616,7 @@
         <v>338</v>
       </c>
       <c r="C175" s="34" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>845</v>
@@ -13699,7 +13697,7 @@
         <v>49</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D178" s="16" t="s">
         <v>845</v>
@@ -13726,7 +13724,7 @@
         <v>50</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D179" s="16" t="s">
         <v>845</v>
@@ -13753,7 +13751,7 @@
         <v>51</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D180" s="16" t="s">
         <v>845</v>
@@ -13780,7 +13778,7 @@
         <v>52</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>845</v>
@@ -13807,7 +13805,7 @@
         <v>53</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D182" s="16" t="s">
         <v>845</v>
@@ -13834,7 +13832,7 @@
         <v>54</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D183" s="16" t="s">
         <v>845</v>
@@ -13861,7 +13859,7 @@
         <v>55</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D184" s="16" t="s">
         <v>845</v>
@@ -13915,7 +13913,7 @@
         <v>340</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D186" s="16" t="s">
         <v>845</v>
@@ -13942,7 +13940,7 @@
         <v>341</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D187" s="16" t="s">
         <v>845</v>
@@ -13971,7 +13969,7 @@
         <v>342</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D188" s="16" t="s">
         <v>845</v>
@@ -13998,7 +13996,7 @@
         <v>699</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D189" s="16" t="s">
         <v>1023</v>
@@ -14020,10 +14018,10 @@
     <row r="190" spans="1:11" ht="14.4">
       <c r="A190" s="16"/>
       <c r="B190" s="16" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D190" s="16"/>
       <c r="E190" s="16" t="s">
@@ -14033,7 +14031,7 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="H190" s="17"/>
       <c r="I190" s="17"/>
@@ -14043,10 +14041,10 @@
     <row r="191" spans="1:11" ht="27.6">
       <c r="A191" s="16"/>
       <c r="B191" s="16" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D191" s="16"/>
       <c r="E191" s="16" t="s">
@@ -14056,7 +14054,7 @@
         <v>2</v>
       </c>
       <c r="G191" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
@@ -14071,7 +14069,7 @@
         <v>585</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D192" s="16" t="s">
         <v>845</v>
@@ -14102,7 +14100,7 @@
         <v>586</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D193" s="16" t="s">
         <v>845</v>
@@ -14133,7 +14131,7 @@
         <v>587</v>
       </c>
       <c r="C194" s="34" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D194" s="16" t="s">
         <v>845</v>
@@ -14162,7 +14160,7 @@
         <v>587</v>
       </c>
       <c r="C195" s="34" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D195" s="24" t="s">
         <v>845</v>
@@ -14187,7 +14185,7 @@
         <v>1644</v>
       </c>
       <c r="C196" s="34" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D196" s="24" t="s">
         <v>1023</v>
@@ -14212,7 +14210,7 @@
         <v>1645</v>
       </c>
       <c r="C197" s="34" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D197" s="24" t="s">
         <v>1023</v>
@@ -14237,7 +14235,7 @@
         <v>1646</v>
       </c>
       <c r="C198" s="34" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D198" s="24" t="s">
         <v>1023</v>
@@ -14287,7 +14285,7 @@
         <v>1649</v>
       </c>
       <c r="C200" s="34" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D200" s="24" t="s">
         <v>1023</v>
@@ -14309,10 +14307,10 @@
         <v>1643</v>
       </c>
       <c r="B201" s="34" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C201" s="20" t="s">
         <v>2044</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>2045</v>
       </c>
       <c r="D201" s="24" t="s">
         <v>1023</v>
@@ -14321,10 +14319,10 @@
         <v>0</v>
       </c>
       <c r="F201" s="21" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G201" s="39" t="s">
         <v>2046</v>
-      </c>
-      <c r="G201" s="39" t="s">
-        <v>2047</v>
       </c>
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
@@ -14336,10 +14334,10 @@
         <v>1643</v>
       </c>
       <c r="B202" s="34" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C202" s="20" t="s">
         <v>2048</v>
-      </c>
-      <c r="C202" s="20" t="s">
-        <v>2049</v>
       </c>
       <c r="D202" s="24" t="s">
         <v>1023</v>
@@ -14348,10 +14346,10 @@
         <v>0</v>
       </c>
       <c r="F202" s="21" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G202" s="39" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H202" s="17"/>
       <c r="I202" s="17"/>
@@ -14361,20 +14359,20 @@
     <row r="203" spans="1:11" ht="14.4">
       <c r="A203" s="38"/>
       <c r="B203" s="34" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C203" s="20" t="s">
         <v>2253</v>
-      </c>
-      <c r="C203" s="20" t="s">
-        <v>2254</v>
       </c>
       <c r="D203" s="24"/>
       <c r="E203" s="24" t="s">
         <v>0</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G203" s="47" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
@@ -14389,7 +14387,7 @@
         <v>588</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D204" s="16" t="s">
         <v>845</v>
@@ -14416,7 +14414,7 @@
         <v>589</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D205" s="16" t="s">
         <v>845</v>
@@ -14443,7 +14441,7 @@
         <v>604</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D206" s="16" t="s">
         <v>845</v>
@@ -14470,7 +14468,7 @@
         <v>590</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D207" s="16" t="s">
         <v>845</v>
@@ -14497,7 +14495,7 @@
         <v>591</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D208" s="16" t="s">
         <v>845</v>
@@ -14524,7 +14522,7 @@
         <v>646</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D209" s="16" t="s">
         <v>845</v>
@@ -14551,7 +14549,7 @@
         <v>647</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D210" s="16" t="s">
         <v>845</v>
@@ -14584,7 +14582,7 @@
         <v>648</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D211" s="16" t="s">
         <v>845</v>
@@ -14611,7 +14609,7 @@
         <v>649</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D212" s="16" t="s">
         <v>845</v>
@@ -14665,7 +14663,7 @@
         <v>651</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D214" s="16" t="s">
         <v>845</v>
@@ -14692,7 +14690,7 @@
         <v>592</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D215" s="16" t="s">
         <v>845</v>
@@ -14719,7 +14717,7 @@
         <v>1650</v>
       </c>
       <c r="C216" s="34" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D216" s="24" t="s">
         <v>1023</v>
@@ -14731,7 +14729,7 @@
         <v>3</v>
       </c>
       <c r="G216" s="40" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
@@ -14741,20 +14739,20 @@
     <row r="217" spans="1:11" ht="14.4">
       <c r="A217" s="27"/>
       <c r="B217" s="20" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C217" s="20" t="s">
         <v>2204</v>
-      </c>
-      <c r="C217" s="20" t="s">
-        <v>2205</v>
       </c>
       <c r="D217" s="24"/>
       <c r="E217" s="24" t="s">
         <v>0</v>
       </c>
       <c r="F217" s="24" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G217" s="37" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
@@ -14769,7 +14767,7 @@
         <v>593</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D218" s="16" t="s">
         <v>845</v>
@@ -14800,7 +14798,7 @@
         <v>594</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D219" s="16" t="s">
         <v>845</v>
@@ -14854,7 +14852,7 @@
         <v>595</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D221" s="16" t="s">
         <v>845</v>
@@ -14881,7 +14879,7 @@
         <v>596</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D222" s="16" t="s">
         <v>845</v>
@@ -14908,7 +14906,7 @@
         <v>597</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D223" s="16" t="s">
         <v>845</v>
@@ -14935,7 +14933,7 @@
         <v>598</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D224" s="16" t="s">
         <v>845</v>
@@ -14962,7 +14960,7 @@
         <v>657</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D225" s="16" t="s">
         <v>845</v>
@@ -14993,7 +14991,7 @@
         <v>658</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D226" s="16" t="s">
         <v>845</v>
@@ -15020,7 +15018,7 @@
         <v>701</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D227" s="16" t="s">
         <v>1068</v>
@@ -15047,7 +15045,7 @@
         <v>702</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D228" s="16" t="s">
         <v>1068</v>
@@ -15074,7 +15072,7 @@
         <v>703</v>
       </c>
       <c r="C229" s="44" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D229" s="16" t="s">
         <v>1068</v>
@@ -15096,10 +15094,10 @@
     <row r="230" spans="1:11">
       <c r="A230" s="16"/>
       <c r="B230" s="44" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C230" s="44" t="s">
         <v>2208</v>
-      </c>
-      <c r="C230" s="44" t="s">
-        <v>2209</v>
       </c>
       <c r="D230" s="16"/>
       <c r="E230" s="16" t="s">
@@ -15109,7 +15107,7 @@
         <v>2</v>
       </c>
       <c r="G230" s="45" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="H230" s="17"/>
       <c r="I230" s="17"/>
@@ -15121,10 +15119,10 @@
         <v>1027</v>
       </c>
       <c r="B231" s="16" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C231" s="33" t="s">
         <v>2052</v>
-      </c>
-      <c r="C231" s="33" t="s">
-        <v>2053</v>
       </c>
       <c r="D231" s="16" t="s">
         <v>1023</v>
@@ -15133,10 +15131,10 @@
         <v>0</v>
       </c>
       <c r="F231" s="16" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="H231" s="17"/>
       <c r="I231" s="17"/>
@@ -15148,10 +15146,10 @@
         <v>1027</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C232" s="24" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D232" s="16" t="s">
         <v>1023</v>
@@ -15160,10 +15158,10 @@
         <v>0</v>
       </c>
       <c r="F232" s="16" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G232" s="39" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="H232" s="17"/>
       <c r="I232" s="17"/>
@@ -15175,10 +15173,10 @@
         <v>1027</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C233" s="24" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D233" s="16" t="s">
         <v>1023</v>
@@ -15187,10 +15185,10 @@
         <v>0</v>
       </c>
       <c r="F233" s="16" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G233" s="46" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="H233" s="17"/>
       <c r="I233" s="17"/>
@@ -15205,7 +15203,7 @@
         <v>1651</v>
       </c>
       <c r="C234" s="34" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D234" s="24" t="s">
         <v>845</v>
@@ -15230,7 +15228,7 @@
         <v>56</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D235" s="16" t="s">
         <v>845</v>
@@ -15257,7 +15255,7 @@
         <v>57</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D236" s="16" t="s">
         <v>845</v>
@@ -15284,7 +15282,7 @@
         <v>58</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D237" s="16" t="s">
         <v>845</v>
@@ -15311,7 +15309,7 @@
         <v>59</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D238" s="16" t="s">
         <v>845</v>
@@ -15340,7 +15338,7 @@
         <v>506</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D239" s="16" t="s">
         <v>845</v>
@@ -15367,7 +15365,7 @@
         <v>60</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D240" s="16" t="s">
         <v>845</v>
@@ -15394,7 +15392,7 @@
         <v>219</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D241" s="16" t="s">
         <v>845</v>
@@ -15421,7 +15419,7 @@
         <v>507</v>
       </c>
       <c r="C242" s="24" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D242" s="16" t="s">
         <v>845</v>
@@ -15433,7 +15431,7 @@
         <v>2</v>
       </c>
       <c r="G242" s="39" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="H242" s="17" t="s">
         <v>919</v>
@@ -15450,7 +15448,7 @@
         <v>704</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D243" s="16" t="s">
         <v>845</v>
@@ -15477,7 +15475,7 @@
         <v>705</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D244" s="16" t="s">
         <v>845</v>
@@ -15574,10 +15572,10 @@
     <row r="248" spans="1:11" ht="14.4">
       <c r="A248" s="27"/>
       <c r="B248" s="34" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C248" s="47" t="s">
         <v>2256</v>
-      </c>
-      <c r="C248" s="47" t="s">
-        <v>2257</v>
       </c>
       <c r="D248" s="24"/>
       <c r="E248" s="24" t="s">
@@ -15587,7 +15585,7 @@
         <v>2</v>
       </c>
       <c r="G248" s="47" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="H248" s="17"/>
       <c r="I248" s="17"/>
@@ -15597,10 +15595,10 @@
     <row r="249" spans="1:11" ht="14.4">
       <c r="A249" s="27"/>
       <c r="B249" s="34" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C249" s="47" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D249" s="24"/>
       <c r="E249" s="24" t="s">
@@ -15610,7 +15608,7 @@
         <v>2</v>
       </c>
       <c r="G249" s="47" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="H249" s="17"/>
       <c r="I249" s="17"/>
@@ -15620,10 +15618,10 @@
     <row r="250" spans="1:11" ht="14.4">
       <c r="A250" s="27"/>
       <c r="B250" s="34" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C250" s="47" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D250" s="24"/>
       <c r="E250" s="24" t="s">
@@ -15633,7 +15631,7 @@
         <v>2</v>
       </c>
       <c r="G250" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="H250" s="17"/>
       <c r="I250" s="17"/>
@@ -15643,10 +15641,10 @@
     <row r="251" spans="1:11" ht="15" customHeight="1">
       <c r="A251" s="27"/>
       <c r="B251" s="34" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="C251" s="47" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D251" s="24"/>
       <c r="E251" s="24" t="s">
@@ -15656,7 +15654,7 @@
         <v>2</v>
       </c>
       <c r="G251" s="47" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
@@ -15666,10 +15664,10 @@
     <row r="252" spans="1:11" ht="14.4">
       <c r="A252" s="27"/>
       <c r="B252" s="34" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="C252" s="47" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D252" s="24"/>
       <c r="E252" s="24" t="s">
@@ -15679,7 +15677,7 @@
         <v>2</v>
       </c>
       <c r="G252" s="49" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="H252" s="17"/>
       <c r="I252" s="17"/>
@@ -15689,10 +15687,10 @@
     <row r="253" spans="1:11" ht="14.4">
       <c r="A253" s="27"/>
       <c r="B253" s="34" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="C253" s="50" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D253" s="24"/>
       <c r="E253" s="24" t="s">
@@ -15702,7 +15700,7 @@
         <v>2</v>
       </c>
       <c r="G253" s="48" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="H253" s="17"/>
       <c r="I253" s="17"/>
@@ -15712,10 +15710,10 @@
     <row r="254" spans="1:11" ht="14.4">
       <c r="A254" s="27"/>
       <c r="B254" s="34" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C254" s="50" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D254" s="24"/>
       <c r="E254" s="24" t="s">
@@ -15725,7 +15723,7 @@
         <v>2</v>
       </c>
       <c r="G254" s="48" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="H254" s="17"/>
       <c r="I254" s="17"/>
@@ -15735,10 +15733,10 @@
     <row r="255" spans="1:11" ht="14.4">
       <c r="A255" s="27"/>
       <c r="B255" s="34" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="C255" s="47" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D255" s="24"/>
       <c r="E255" s="24" t="s">
@@ -15748,7 +15746,7 @@
         <v>2</v>
       </c>
       <c r="G255" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="H255" s="17"/>
       <c r="I255" s="17"/>
@@ -15758,10 +15756,10 @@
     <row r="256" spans="1:11" ht="14.4">
       <c r="A256" s="27"/>
       <c r="B256" s="34" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C256" s="47" t="s">
         <v>2259</v>
-      </c>
-      <c r="C256" s="47" t="s">
-        <v>2260</v>
       </c>
       <c r="D256" s="24"/>
       <c r="E256" s="24" t="s">
@@ -15771,7 +15769,7 @@
         <v>2</v>
       </c>
       <c r="G256" s="48" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="17"/>
@@ -15806,10 +15804,10 @@
     <row r="258" spans="1:11" ht="14.4">
       <c r="A258" s="27"/>
       <c r="B258" s="34" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C258" s="34" t="s">
         <v>2262</v>
-      </c>
-      <c r="C258" s="34" t="s">
-        <v>2263</v>
       </c>
       <c r="D258" s="24"/>
       <c r="E258" s="24" t="s">
@@ -15819,7 +15817,7 @@
         <v>2</v>
       </c>
       <c r="G258" s="47" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="H258" s="17"/>
       <c r="I258" s="17"/>
@@ -15861,7 +15859,7 @@
         <v>654</v>
       </c>
       <c r="C260" s="17" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D260" s="16" t="s">
         <v>845</v>
@@ -15888,7 +15886,7 @@
         <v>655</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D261" s="16" t="s">
         <v>845</v>
@@ -15915,7 +15913,7 @@
         <v>656</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D262" s="16" t="s">
         <v>845</v>
@@ -15969,7 +15967,7 @@
         <v>1660</v>
       </c>
       <c r="C264" s="34" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D264" s="24" t="s">
         <v>845</v>
@@ -15994,7 +15992,7 @@
         <v>61</v>
       </c>
       <c r="C265" s="17" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D265" s="16" t="s">
         <v>845</v>
@@ -16021,7 +16019,7 @@
         <v>62</v>
       </c>
       <c r="C266" s="17" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D266" s="16" t="s">
         <v>845</v>
@@ -16052,7 +16050,7 @@
         <v>63</v>
       </c>
       <c r="C267" s="17" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D267" s="16" t="s">
         <v>845</v>
@@ -18741,10 +18739,10 @@
         <v>8</v>
       </c>
       <c r="B365" s="9" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C365" s="9" t="s">
         <v>1892</v>
-      </c>
-      <c r="C365" s="9" t="s">
-        <v>1893</v>
       </c>
       <c r="D365" s="9" t="s">
         <v>190</v>
@@ -19335,10 +19333,10 @@
         <v>8</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C387" s="17" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D387" s="9" t="s">
         <v>190</v>
@@ -19362,10 +19360,10 @@
         <v>8</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C388" s="17" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D388" s="9" t="s">
         <v>190</v>
@@ -19389,10 +19387,10 @@
         <v>8</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C389" s="17" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>190</v>
@@ -19416,10 +19414,10 @@
         <v>8</v>
       </c>
       <c r="B390" s="9" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C390" s="17" t="s">
         <v>2215</v>
-      </c>
-      <c r="C390" s="17" t="s">
-        <v>2216</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>190</v>
@@ -19470,10 +19468,10 @@
         <v>8</v>
       </c>
       <c r="B392" s="9" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C392" s="9" t="s">
         <v>1900</v>
-      </c>
-      <c r="C392" s="9" t="s">
-        <v>1901</v>
       </c>
       <c r="D392" s="9" t="s">
         <v>190</v>
@@ -19524,10 +19522,10 @@
         <v>8</v>
       </c>
       <c r="B394" s="9" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C394" s="36" t="s">
         <v>1760</v>
-      </c>
-      <c r="C394" s="36" t="s">
-        <v>1761</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>190</v>
@@ -19551,10 +19549,10 @@
         <v>8</v>
       </c>
       <c r="B395" s="9" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C395" s="36" t="s">
         <v>1762</v>
-      </c>
-      <c r="C395" s="36" t="s">
-        <v>1763</v>
       </c>
       <c r="D395" s="9" t="s">
         <v>190</v>
@@ -19578,10 +19576,10 @@
         <v>8</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C396" s="36" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D396" s="9" t="s">
         <v>190</v>
@@ -19689,7 +19687,7 @@
         <v>291</v>
       </c>
       <c r="C400" s="9" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>190</v>
@@ -19716,7 +19714,7 @@
         <v>292</v>
       </c>
       <c r="C401" s="9" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>190</v>
@@ -19743,7 +19741,7 @@
         <v>293</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>190</v>
@@ -19770,7 +19768,7 @@
         <v>610</v>
       </c>
       <c r="C403" s="9" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D403" s="9" t="s">
         <v>190</v>
@@ -19797,7 +19795,7 @@
         <v>609</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>190</v>
@@ -19878,7 +19876,7 @@
         <v>1592</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D407" s="9" t="s">
         <v>190</v>
@@ -19932,7 +19930,7 @@
         <v>533</v>
       </c>
       <c r="C409" s="9" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D409" s="9" t="s">
         <v>190</v>
@@ -19959,7 +19957,7 @@
         <v>534</v>
       </c>
       <c r="C410" s="9" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>190</v>
@@ -19986,7 +19984,7 @@
         <v>535</v>
       </c>
       <c r="C411" s="9" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>190</v>
@@ -20013,7 +20011,7 @@
         <v>536</v>
       </c>
       <c r="C412" s="9" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>190</v>
@@ -20040,7 +20038,7 @@
         <v>537</v>
       </c>
       <c r="C413" s="9" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D413" s="9" t="s">
         <v>190</v>
@@ -20067,7 +20065,7 @@
         <v>538</v>
       </c>
       <c r="C414" s="9" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>190</v>
@@ -20094,7 +20092,7 @@
         <v>539</v>
       </c>
       <c r="C415" s="9" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D415" s="9" t="s">
         <v>190</v>
@@ -20121,7 +20119,7 @@
         <v>540</v>
       </c>
       <c r="C416" s="9" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D416" s="9" t="s">
         <v>190</v>
@@ -20148,7 +20146,7 @@
         <v>541</v>
       </c>
       <c r="C417" s="9" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D417" s="9" t="s">
         <v>190</v>
@@ -20175,7 +20173,7 @@
         <v>542</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>190</v>
@@ -20202,7 +20200,7 @@
         <v>625</v>
       </c>
       <c r="C419" s="9" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D419" s="9" t="s">
         <v>190</v>
@@ -20229,7 +20227,7 @@
         <v>543</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>190</v>
@@ -20256,7 +20254,7 @@
         <v>544</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D421" s="9" t="s">
         <v>190</v>
@@ -20283,7 +20281,7 @@
         <v>545</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>190</v>
@@ -20310,7 +20308,7 @@
         <v>546</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>190</v>
@@ -20337,7 +20335,7 @@
         <v>547</v>
       </c>
       <c r="C424" s="9" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>190</v>
@@ -20364,7 +20362,7 @@
         <v>549</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D425" s="9" t="s">
         <v>190</v>
@@ -20391,7 +20389,7 @@
         <v>564</v>
       </c>
       <c r="C426" s="9" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>190</v>
@@ -20418,7 +20416,7 @@
         <v>565</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D427" s="9" t="s">
         <v>190</v>
@@ -20526,7 +20524,7 @@
         <v>626</v>
       </c>
       <c r="C431" s="9" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>190</v>
@@ -20580,7 +20578,7 @@
         <v>669</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>190</v>
@@ -20607,7 +20605,7 @@
         <v>670</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>190</v>
@@ -20634,7 +20632,7 @@
         <v>671</v>
       </c>
       <c r="C435" s="9" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D435" s="9" t="s">
         <v>190</v>
@@ -20661,7 +20659,7 @@
         <v>672</v>
       </c>
       <c r="C436" s="9" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>190</v>
@@ -20685,10 +20683,10 @@
         <v>8</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C437" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D437" s="9" t="s">
         <v>190</v>
@@ -20712,10 +20710,10 @@
         <v>8</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C438" s="9" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D438" s="9" t="s">
         <v>190</v>
@@ -20739,10 +20737,10 @@
         <v>8</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C439" s="9" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D439" s="9" t="s">
         <v>190</v>
@@ -20766,10 +20764,10 @@
         <v>8</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C440" s="9" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>190</v>
@@ -20793,10 +20791,10 @@
         <v>8</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C441" s="9" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>190</v>
@@ -20820,10 +20818,10 @@
         <v>8</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C442" s="9" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>190</v>
@@ -20847,10 +20845,10 @@
         <v>8</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C443" s="9" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D443" s="9" t="s">
         <v>190</v>
@@ -20874,10 +20872,10 @@
         <v>8</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C444" s="9" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D444" s="9" t="s">
         <v>190</v>
@@ -20901,10 +20899,10 @@
         <v>8</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C445" s="9" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D445" s="9" t="s">
         <v>190</v>
@@ -20928,10 +20926,10 @@
         <v>8</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C446" s="9" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D446" s="9" t="s">
         <v>190</v>
@@ -20955,10 +20953,10 @@
         <v>8</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C447" s="9" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D447" s="9" t="s">
         <v>190</v>
@@ -21036,10 +21034,10 @@
         <v>8</v>
       </c>
       <c r="B450" s="9" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C450" s="9" t="s">
         <v>1902</v>
-      </c>
-      <c r="C450" s="9" t="s">
-        <v>1903</v>
       </c>
       <c r="D450" s="15" t="s">
         <v>198</v>
@@ -21282,7 +21280,7 @@
         <v>611</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D459" s="15" t="s">
         <v>190</v>
@@ -21387,10 +21385,10 @@
         <v>8</v>
       </c>
       <c r="B463" s="9" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C463" s="9" t="s">
         <v>1904</v>
-      </c>
-      <c r="C463" s="9" t="s">
-        <v>1905</v>
       </c>
       <c r="D463" s="15" t="s">
         <v>190</v>
@@ -21466,10 +21464,10 @@
     <row r="466" spans="1:11" ht="14.4">
       <c r="A466" s="9"/>
       <c r="B466" s="9" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C466" t="s">
         <v>1772</v>
-      </c>
-      <c r="C466" t="s">
-        <v>1773</v>
       </c>
       <c r="D466" s="15"/>
       <c r="E466" s="10" t="s">
@@ -21598,7 +21596,7 @@
         <v>574</v>
       </c>
       <c r="C471" s="9" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D471" s="15" t="s">
         <v>190</v>
@@ -21625,7 +21623,7 @@
         <v>575</v>
       </c>
       <c r="C472" s="9" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D472" s="15" t="s">
         <v>190</v>
@@ -21814,7 +21812,7 @@
         <v>627</v>
       </c>
       <c r="C479" s="9" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D479" s="9" t="s">
         <v>190</v>
@@ -21973,10 +21971,10 @@
         <v>8</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C485" s="11" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D485" s="9" t="s">
         <v>190</v>
@@ -22000,10 +21998,10 @@
         <v>8</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D486" s="9" t="s">
         <v>190</v>
@@ -22015,7 +22013,7 @@
         <v>2</v>
       </c>
       <c r="G486" s="15" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H486" s="15"/>
       <c r="I486" s="15"/>
@@ -22027,10 +22025,10 @@
         <v>8</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C487" s="11" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D487" s="9" t="s">
         <v>190</v>
@@ -22042,7 +22040,7 @@
         <v>2</v>
       </c>
       <c r="G487" s="15" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H487" s="15"/>
       <c r="I487" s="15"/>
@@ -22054,10 +22052,10 @@
         <v>8</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C488" s="11" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D488" s="9" t="s">
         <v>190</v>
@@ -22165,7 +22163,7 @@
         <v>297</v>
       </c>
       <c r="C492" s="9" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D492" s="9" t="s">
         <v>190</v>
@@ -22192,7 +22190,7 @@
         <v>298</v>
       </c>
       <c r="C493" s="9" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D493" s="9" t="s">
         <v>190</v>
@@ -22219,7 +22217,7 @@
         <v>299</v>
       </c>
       <c r="C494" s="9" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D494" s="9" t="s">
         <v>190</v>
@@ -22246,7 +22244,7 @@
         <v>386</v>
       </c>
       <c r="C495" s="17" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D495" s="16" t="s">
         <v>1192</v>
@@ -22275,7 +22273,7 @@
         <v>387</v>
       </c>
       <c r="C496" s="17" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D496" s="16" t="s">
         <v>1192</v>
@@ -22304,7 +22302,7 @@
         <v>365</v>
       </c>
       <c r="C497" s="17" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D497" s="16" t="s">
         <v>1192</v>
@@ -22335,7 +22333,7 @@
         <v>354</v>
       </c>
       <c r="C498" s="17" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D498" s="16" t="s">
         <v>1192</v>
@@ -22366,7 +22364,7 @@
         <v>388</v>
       </c>
       <c r="C499" s="17" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D499" s="16" t="s">
         <v>1192</v>
@@ -22395,7 +22393,7 @@
         <v>389</v>
       </c>
       <c r="C500" s="17" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D500" s="16" t="s">
         <v>1192</v>
@@ -22426,7 +22424,7 @@
         <v>709</v>
       </c>
       <c r="C501" s="17" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D501" s="16" t="s">
         <v>1192</v>
@@ -22484,7 +22482,7 @@
         <v>369</v>
       </c>
       <c r="C503" s="17" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D503" s="16" t="s">
         <v>1192</v>
@@ -22515,7 +22513,7 @@
         <v>356</v>
       </c>
       <c r="C504" s="17" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D504" s="16" t="s">
         <v>1192</v>
@@ -22544,7 +22542,7 @@
         <v>390</v>
       </c>
       <c r="C505" s="17" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D505" s="16" t="s">
         <v>1192</v>
@@ -22575,7 +22573,7 @@
         <v>391</v>
       </c>
       <c r="C506" s="17" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D506" s="16" t="s">
         <v>1192</v>
@@ -22606,7 +22604,7 @@
         <v>368</v>
       </c>
       <c r="C507" s="17" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D507" s="16" t="s">
         <v>1192</v>
@@ -22635,7 +22633,7 @@
         <v>367</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D508" s="16" t="s">
         <v>1192</v>
@@ -22664,7 +22662,7 @@
         <v>357</v>
       </c>
       <c r="C509" s="17" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D509" s="16" t="s">
         <v>1068</v>
@@ -22697,7 +22695,7 @@
         <v>358</v>
       </c>
       <c r="C510" s="17" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D510" s="16" t="s">
         <v>1068</v>
@@ -22786,7 +22784,7 @@
         <v>394</v>
       </c>
       <c r="C513" s="17" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D513" s="16" t="s">
         <v>1192</v>
@@ -22821,7 +22819,7 @@
         <v>395</v>
       </c>
       <c r="C514" s="17" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D514" s="16" t="s">
         <v>1192</v>
@@ -22856,7 +22854,7 @@
         <v>396</v>
       </c>
       <c r="C515" s="17" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D515" s="16" t="s">
         <v>1192</v>
@@ -22885,7 +22883,7 @@
         <v>397</v>
       </c>
       <c r="C516" s="17" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D516" s="16" t="s">
         <v>1192</v>
@@ -22914,7 +22912,7 @@
         <v>366</v>
       </c>
       <c r="C517" s="17" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D517" s="16" t="s">
         <v>1192</v>
@@ -22945,7 +22943,7 @@
         <v>398</v>
       </c>
       <c r="C518" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D518" s="16" t="s">
         <v>1192</v>
@@ -22976,7 +22974,7 @@
         <v>399</v>
       </c>
       <c r="C519" s="17" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D519" s="16" t="s">
         <v>1192</v>
@@ -23007,7 +23005,7 @@
         <v>359</v>
       </c>
       <c r="C520" s="17" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D520" s="16" t="s">
         <v>1192</v>
@@ -23036,7 +23034,7 @@
         <v>370</v>
       </c>
       <c r="C521" s="17" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D521" s="16" t="s">
         <v>1192</v>
@@ -23106,7 +23104,7 @@
         <v>360</v>
       </c>
       <c r="C523" s="17" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D523" s="16" t="s">
         <v>1192</v>
@@ -23141,7 +23139,7 @@
         <v>361</v>
       </c>
       <c r="C524" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D524" s="16" t="s">
         <v>1192</v>
@@ -23176,7 +23174,7 @@
         <v>362</v>
       </c>
       <c r="C525" s="17" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D525" s="16" t="s">
         <v>1192</v>
@@ -23211,7 +23209,7 @@
         <v>364</v>
       </c>
       <c r="C526" s="17" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D526" s="16" t="s">
         <v>1192</v>
@@ -23273,7 +23271,7 @@
         <v>401</v>
       </c>
       <c r="C528" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D528" s="16" t="s">
         <v>1192</v>
@@ -23304,7 +23302,7 @@
         <v>402</v>
       </c>
       <c r="C529" s="17" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D529" s="16" t="s">
         <v>1192</v>
@@ -23490,7 +23488,7 @@
         <v>474</v>
       </c>
       <c r="C535" s="17" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D535" s="16" t="s">
         <v>1192</v>
@@ -23554,7 +23552,7 @@
         <v>551</v>
       </c>
       <c r="C537" s="17" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D537" s="16" t="s">
         <v>1192</v>
@@ -23587,7 +23585,7 @@
         <v>552</v>
       </c>
       <c r="C538" s="17" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D538" s="16" t="s">
         <v>1192</v>
@@ -23618,7 +23616,7 @@
         <v>553</v>
       </c>
       <c r="C539" s="17" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D539" s="16" t="s">
         <v>1192</v>
@@ -23649,7 +23647,7 @@
         <v>554</v>
       </c>
       <c r="C540" s="17" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D540" s="16" t="s">
         <v>1192</v>
@@ -23678,7 +23676,7 @@
         <v>555</v>
       </c>
       <c r="C541" s="17" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D541" s="16" t="s">
         <v>1192</v>
@@ -23713,7 +23711,7 @@
         <v>556</v>
       </c>
       <c r="C542" s="17" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D542" s="16" t="s">
         <v>1068</v>
@@ -23775,7 +23773,7 @@
         <v>712</v>
       </c>
       <c r="C544" s="17" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D544" s="16" t="s">
         <v>1068</v>
@@ -23835,7 +23833,7 @@
         <v>714</v>
       </c>
       <c r="C546" s="17" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D546" s="16" t="s">
         <v>1068</v>
@@ -23926,7 +23924,7 @@
         <v>717</v>
       </c>
       <c r="C549" s="17" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D549" s="16" t="s">
         <v>1279</v>
@@ -24306,7 +24304,7 @@
         <v>406</v>
       </c>
       <c r="C563" s="17" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D563" s="16" t="s">
         <v>1192</v>
@@ -24335,7 +24333,7 @@
         <v>407</v>
       </c>
       <c r="C564" s="17" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D564" s="16" t="s">
         <v>1192</v>
@@ -24364,7 +24362,7 @@
         <v>408</v>
       </c>
       <c r="C565" s="17" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D565" s="16" t="s">
         <v>1192</v>
@@ -24393,7 +24391,7 @@
         <v>353</v>
       </c>
       <c r="C566" s="17" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D566" s="16" t="s">
         <v>1192</v>
@@ -24422,7 +24420,7 @@
         <v>409</v>
       </c>
       <c r="C567" s="17" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D567" s="16" t="s">
         <v>1192</v>
@@ -24453,7 +24451,7 @@
         <v>410</v>
       </c>
       <c r="C568" s="17" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D568" s="16" t="s">
         <v>1192</v>
@@ -24515,7 +24513,7 @@
         <v>352</v>
       </c>
       <c r="C570" s="17" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D570" s="16" t="s">
         <v>1192</v>
@@ -24546,7 +24544,7 @@
         <v>411</v>
       </c>
       <c r="C571" s="17" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D571" s="16" t="s">
         <v>1068</v>
@@ -24577,7 +24575,7 @@
         <v>412</v>
       </c>
       <c r="C572" s="17" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D572" s="16" t="s">
         <v>1192</v>
@@ -24608,7 +24606,7 @@
         <v>413</v>
       </c>
       <c r="C573" s="17" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D573" s="16" t="s">
         <v>1192</v>
@@ -24637,7 +24635,7 @@
         <v>414</v>
       </c>
       <c r="C574" s="17" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D574" s="16" t="s">
         <v>1192</v>
@@ -24695,7 +24693,7 @@
         <v>380</v>
       </c>
       <c r="C576" s="17" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D576" s="16" t="s">
         <v>1192</v>
@@ -24726,7 +24724,7 @@
         <v>416</v>
       </c>
       <c r="C577" s="17" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D577" s="16" t="s">
         <v>1068</v>
@@ -24780,7 +24778,7 @@
         <v>417</v>
       </c>
       <c r="C579" s="17" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D579" s="16" t="s">
         <v>1068</v>
@@ -24807,7 +24805,7 @@
         <v>384</v>
       </c>
       <c r="C580" s="17" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D580" s="16" t="s">
         <v>1068</v>
@@ -24890,7 +24888,7 @@
         <v>420</v>
       </c>
       <c r="C583" s="17" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D583" s="16" t="s">
         <v>1068</v>
@@ -24919,7 +24917,7 @@
         <v>421</v>
       </c>
       <c r="C584" s="17" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D584" s="16" t="s">
         <v>1192</v>
@@ -25006,7 +25004,7 @@
         <v>424</v>
       </c>
       <c r="C587" s="17" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D587" s="16" t="s">
         <v>1068</v>
@@ -25168,7 +25166,7 @@
         <v>378</v>
       </c>
       <c r="C593" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D593" s="16" t="s">
         <v>1192</v>
@@ -25195,7 +25193,7 @@
         <v>720</v>
       </c>
       <c r="C594" s="17" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D594" s="16" t="s">
         <v>1068</v>
@@ -25226,7 +25224,7 @@
         <v>721</v>
       </c>
       <c r="C595" s="17" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D595" s="16" t="s">
         <v>1068</v>
@@ -25255,7 +25253,7 @@
         <v>722</v>
       </c>
       <c r="C596" s="17" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D596" s="16" t="s">
         <v>1068</v>
@@ -26394,7 +26392,7 @@
         <v>760</v>
       </c>
       <c r="C635" s="17" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D635" s="16" t="s">
         <v>1068</v>
@@ -26421,7 +26419,7 @@
         <v>761</v>
       </c>
       <c r="C636" s="17" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D636" s="16" t="s">
         <v>1068</v>
@@ -26558,7 +26556,7 @@
         <v>765</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D641" s="16" t="s">
         <v>1068</v>
@@ -26865,7 +26863,7 @@
         <v>776</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D652" s="16" t="s">
         <v>1068</v>
@@ -26892,7 +26890,7 @@
         <v>777</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D653" s="16" t="s">
         <v>1068</v>
@@ -27511,7 +27509,7 @@
         <v>1704</v>
       </c>
       <c r="C676" s="17" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D676" s="32" t="s">
         <v>1446</v>
@@ -27534,7 +27532,7 @@
         <v>1705</v>
       </c>
       <c r="C677" s="17" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D677" s="32" t="s">
         <v>1446</v>
@@ -27557,7 +27555,7 @@
         <v>1706</v>
       </c>
       <c r="C678" s="17" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D678" s="32" t="s">
         <v>1446</v>
@@ -27580,7 +27578,7 @@
         <v>1707</v>
       </c>
       <c r="C679" s="17" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D679" s="32" t="s">
         <v>1446</v>
@@ -28905,7 +28903,7 @@
         <v>432</v>
       </c>
       <c r="C726" s="17" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D726" s="16" t="s">
         <v>1192</v>
@@ -28934,7 +28932,7 @@
         <v>433</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D727" s="16" t="s">
         <v>1192</v>
@@ -28963,7 +28961,7 @@
         <v>434</v>
       </c>
       <c r="C728" s="17" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D728" s="16" t="s">
         <v>1192</v>
@@ -28992,7 +28990,7 @@
         <v>435</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D729" s="16" t="s">
         <v>1192</v>
@@ -29021,7 +29019,7 @@
         <v>436</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D730" s="16" t="s">
         <v>1192</v>
@@ -29050,7 +29048,7 @@
         <v>437</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D731" s="16" t="s">
         <v>1192</v>
@@ -29079,7 +29077,7 @@
         <v>438</v>
       </c>
       <c r="C732" s="17" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D732" s="16" t="s">
         <v>1192</v>
@@ -29108,7 +29106,7 @@
         <v>439</v>
       </c>
       <c r="C733" s="17" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D733" s="16" t="s">
         <v>1192</v>
@@ -29137,7 +29135,7 @@
         <v>440</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D734" s="16" t="s">
         <v>1192</v>
@@ -29166,7 +29164,7 @@
         <v>441</v>
       </c>
       <c r="C735" s="17" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D735" s="16" t="s">
         <v>1192</v>
@@ -29195,7 +29193,7 @@
         <v>442</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D736" s="16" t="s">
         <v>1192</v>
@@ -29224,7 +29222,7 @@
         <v>443</v>
       </c>
       <c r="C737" s="17" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D737" s="16" t="s">
         <v>1192</v>
@@ -29253,7 +29251,7 @@
         <v>444</v>
       </c>
       <c r="C738" s="17" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D738" s="16" t="s">
         <v>1192</v>
@@ -29282,7 +29280,7 @@
         <v>445</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D739" s="16" t="s">
         <v>1192</v>
@@ -29342,7 +29340,7 @@
         <v>447</v>
       </c>
       <c r="C741" s="17" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D741" s="16" t="s">
         <v>1192</v>
@@ -29508,7 +29506,7 @@
         <v>72</v>
       </c>
       <c r="C747" s="9" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D747" s="9" t="s">
         <v>190</v>
@@ -29589,7 +29587,7 @@
         <v>77</v>
       </c>
       <c r="C750" s="9" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D750" s="9" t="s">
         <v>190</v>
@@ -29616,7 +29614,7 @@
         <v>78</v>
       </c>
       <c r="C751" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D751" s="9" t="s">
         <v>190</v>
@@ -29643,7 +29641,7 @@
         <v>79</v>
       </c>
       <c r="C752" s="9" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D752" s="9" t="s">
         <v>190</v>
@@ -29778,7 +29776,7 @@
         <v>192</v>
       </c>
       <c r="C757" s="9" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D757" s="9" t="s">
         <v>190</v>
@@ -29805,7 +29803,7 @@
         <v>86</v>
       </c>
       <c r="C758" s="17" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D758" s="16" t="s">
         <v>190</v>
@@ -29859,7 +29857,7 @@
         <v>186</v>
       </c>
       <c r="C760" s="9" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D760" s="9" t="s">
         <v>190</v>
@@ -29886,7 +29884,7 @@
         <v>187</v>
       </c>
       <c r="C761" s="9" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D761" s="9" t="s">
         <v>190</v>
@@ -29913,7 +29911,7 @@
         <v>188</v>
       </c>
       <c r="C762" s="9" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D762" s="9" t="s">
         <v>190</v>
@@ -29940,7 +29938,7 @@
         <v>189</v>
       </c>
       <c r="C763" s="9" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D763" s="9" t="s">
         <v>190</v>
@@ -29967,7 +29965,7 @@
         <v>193</v>
       </c>
       <c r="C764" s="17" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D764" s="16" t="s">
         <v>190</v>
@@ -30048,7 +30046,7 @@
         <v>243</v>
       </c>
       <c r="C767" s="9" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D767" s="9" t="s">
         <v>69</v>
@@ -30075,7 +30073,7 @@
         <v>571</v>
       </c>
       <c r="C768" s="35" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D768" s="9" t="s">
         <v>190</v>
@@ -30102,7 +30100,7 @@
         <v>643</v>
       </c>
       <c r="C769" s="17" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D769" s="16" t="s">
         <v>190</v>
@@ -30129,7 +30127,7 @@
         <v>836</v>
       </c>
       <c r="C770" s="17" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D770" s="16" t="s">
         <v>190</v>
@@ -30151,10 +30149,10 @@
     <row r="771" spans="1:11">
       <c r="A771" s="41"/>
       <c r="B771" s="13" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C771" s="12" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D771" s="41"/>
       <c r="E771" s="10" t="s">
@@ -30170,10 +30168,10 @@
     <row r="772" spans="1:11">
       <c r="A772" s="41"/>
       <c r="B772" s="13" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C772" s="12" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D772" s="41"/>
       <c r="E772" s="10" t="s">
@@ -30189,10 +30187,10 @@
     <row r="773" spans="1:11">
       <c r="A773" s="41"/>
       <c r="B773" s="13" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C773" s="36" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D773" s="41"/>
       <c r="E773" s="10" t="s">
@@ -30208,10 +30206,10 @@
     <row r="774" spans="1:11">
       <c r="A774" s="41"/>
       <c r="B774" s="13" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C774" s="12" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D774" s="41"/>
       <c r="E774" s="10" t="s">
@@ -30229,10 +30227,10 @@
     <row r="775" spans="1:11">
       <c r="A775" s="41"/>
       <c r="B775" s="13" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C775" s="12" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D775" s="41"/>
       <c r="E775" s="10" t="s">
@@ -30250,10 +30248,10 @@
     <row r="776" spans="1:11">
       <c r="A776" s="41"/>
       <c r="B776" s="13" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C776" s="12" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D776" s="41"/>
       <c r="E776" s="10" t="s">
@@ -30269,10 +30267,10 @@
     <row r="777" spans="1:11">
       <c r="A777" s="41"/>
       <c r="B777" s="13" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C777" s="12" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D777" s="41"/>
       <c r="E777" s="10" t="s">
@@ -30290,10 +30288,10 @@
     <row r="778" spans="1:11">
       <c r="A778" s="41"/>
       <c r="B778" s="13" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="C778" s="12" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D778" s="41"/>
       <c r="E778" s="10" t="s">
@@ -30311,10 +30309,10 @@
     <row r="779" spans="1:11">
       <c r="A779" s="41"/>
       <c r="B779" s="13" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="C779" s="12" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D779" s="41"/>
       <c r="E779" s="10" t="s">
@@ -30330,10 +30328,10 @@
     <row r="780" spans="1:11">
       <c r="A780" s="41"/>
       <c r="B780" s="13" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="C780" s="12" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D780" s="41"/>
       <c r="E780" s="10" t="s">
@@ -30351,10 +30349,10 @@
     <row r="781" spans="1:11">
       <c r="A781" s="41"/>
       <c r="B781" s="13" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C781" s="12" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D781" s="41"/>
       <c r="E781" s="10" t="s">
@@ -30372,10 +30370,10 @@
     <row r="782" spans="1:11">
       <c r="A782" s="41"/>
       <c r="B782" s="13" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C782" s="36" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D782" s="41"/>
       <c r="E782" s="10" t="s">
@@ -30391,10 +30389,10 @@
     <row r="783" spans="1:11">
       <c r="A783" s="41"/>
       <c r="B783" s="13" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C783" s="36" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E783" s="10" t="s">
         <v>0</v>
@@ -30406,10 +30404,10 @@
     <row r="784" spans="1:11" ht="27.6">
       <c r="A784" s="41"/>
       <c r="B784" s="13" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C784" s="12" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E784" s="10" t="s">
         <v>0</v>
@@ -30420,10 +30418,10 @@
     </row>
     <row r="785" spans="2:6" ht="27.6">
       <c r="B785" s="13" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C785" s="12" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E785" s="10" t="s">
         <v>0</v>
@@ -30431,10 +30429,10 @@
     </row>
     <row r="786" spans="2:6" ht="27.6">
       <c r="B786" s="13" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C786" s="11" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E786" s="10" t="s">
         <v>0</v>
@@ -30445,10 +30443,10 @@
     </row>
     <row r="787" spans="2:6" ht="27.6">
       <c r="B787" s="13" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C787" s="12" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E787" s="10" t="s">
         <v>0</v>
@@ -30456,10 +30454,10 @@
     </row>
     <row r="788" spans="2:6">
       <c r="B788" s="13" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C788" s="12" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E788" s="10" t="s">
         <v>0</v>
@@ -30470,10 +30468,10 @@
     </row>
     <row r="789" spans="2:6">
       <c r="B789" s="13" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C789" s="12" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E789" s="10" t="s">
         <v>0</v>
@@ -30484,10 +30482,10 @@
     </row>
     <row r="790" spans="2:6">
       <c r="B790" s="13" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C790" s="12" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E790" s="10" t="s">
         <v>0</v>
@@ -30495,10 +30493,10 @@
     </row>
     <row r="791" spans="2:6">
       <c r="B791" s="13" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C791" s="12" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E791" s="10" t="s">
         <v>0</v>
@@ -30509,10 +30507,10 @@
     </row>
     <row r="792" spans="2:6">
       <c r="B792" s="13" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C792" s="12" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E792" s="10" t="s">
         <v>0</v>
@@ -30523,10 +30521,10 @@
     </row>
     <row r="793" spans="2:6">
       <c r="B793" s="13" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C793" s="12" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="E793" s="10" t="s">
         <v>0</v>
@@ -30534,10 +30532,10 @@
     </row>
     <row r="794" spans="2:6" ht="27.6">
       <c r="B794" s="13" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C794" s="12" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E794" s="10" t="s">
         <v>0</v>
@@ -30548,10 +30546,10 @@
     </row>
     <row r="795" spans="2:6">
       <c r="B795" s="13" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C795" s="12" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E795" s="10" t="s">
         <v>0</v>
@@ -30562,10 +30560,10 @@
     </row>
     <row r="796" spans="2:6">
       <c r="B796" s="13" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C796" s="12" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E796" s="10" t="s">
         <v>0</v>
@@ -30573,10 +30571,10 @@
     </row>
     <row r="797" spans="2:6">
       <c r="B797" s="13" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C797" s="12" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E797" s="10" t="s">
         <v>0</v>
@@ -30587,10 +30585,10 @@
     </row>
     <row r="798" spans="2:6">
       <c r="B798" s="13" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C798" s="12" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E798" s="10" t="s">
         <v>0</v>
@@ -30598,10 +30596,10 @@
     </row>
     <row r="799" spans="2:6" ht="27.6">
       <c r="B799" s="13" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C799" s="12" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E799" s="10" t="s">
         <v>0</v>
@@ -30612,10 +30610,10 @@
     </row>
     <row r="800" spans="2:6">
       <c r="B800" s="13" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C800" s="12" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E800" s="10" t="s">
         <v>0</v>
@@ -30626,10 +30624,10 @@
     </row>
     <row r="801" spans="2:6">
       <c r="B801" s="13" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C801" s="12" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E801" s="10" t="s">
         <v>0</v>
@@ -30637,10 +30635,10 @@
     </row>
     <row r="802" spans="2:6" ht="27.6">
       <c r="B802" s="13" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C802" s="12" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E802" s="10" t="s">
         <v>0</v>
@@ -30651,10 +30649,10 @@
     </row>
     <row r="803" spans="2:6">
       <c r="B803" s="13" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C803" s="12" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E803" s="10" t="s">
         <v>0</v>
@@ -30665,10 +30663,10 @@
     </row>
     <row r="804" spans="2:6">
       <c r="B804" s="13" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C804" s="12" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E804" s="10" t="s">
         <v>0</v>
@@ -30676,10 +30674,10 @@
     </row>
     <row r="805" spans="2:6">
       <c r="B805" s="13" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C805" s="12" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E805" s="10" t="s">
         <v>0</v>
@@ -30690,10 +30688,10 @@
     </row>
     <row r="806" spans="2:6">
       <c r="B806" s="13" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C806" s="12" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E806" s="10" t="s">
         <v>0</v>
@@ -30704,10 +30702,10 @@
     </row>
     <row r="807" spans="2:6">
       <c r="B807" s="13" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C807" s="12" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="E807" s="10" t="s">
         <v>0</v>
@@ -30715,10 +30713,10 @@
     </row>
     <row r="808" spans="2:6" ht="27.6">
       <c r="B808" s="13" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C808" s="12" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E808" s="10" t="s">
         <v>0</v>
@@ -30729,10 +30727,10 @@
     </row>
     <row r="809" spans="2:6">
       <c r="B809" s="13" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C809" s="12" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E809" s="10" t="s">
         <v>0</v>
@@ -30743,10 +30741,10 @@
     </row>
     <row r="810" spans="2:6">
       <c r="B810" s="13" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C810" s="12" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E810" s="10" t="s">
         <v>0</v>
@@ -30754,10 +30752,10 @@
     </row>
     <row r="811" spans="2:6" ht="27.6">
       <c r="B811" s="13" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C811" s="12" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E811" s="10" t="s">
         <v>0</v>
@@ -30768,10 +30766,10 @@
     </row>
     <row r="812" spans="2:6">
       <c r="B812" s="13" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C812" s="12" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E812" s="10" t="s">
         <v>0</v>
@@ -30782,10 +30780,10 @@
     </row>
     <row r="813" spans="2:6">
       <c r="B813" s="13" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C813" s="12" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="E813" s="10" t="s">
         <v>0</v>
@@ -30793,10 +30791,10 @@
     </row>
     <row r="814" spans="2:6" ht="27.6">
       <c r="B814" s="13" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C814" s="12" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="E814" s="10" t="s">
         <v>0</v>
@@ -30807,10 +30805,10 @@
     </row>
     <row r="815" spans="2:6">
       <c r="B815" s="13" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C815" s="12" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E815" s="10" t="s">
         <v>0</v>
@@ -30821,10 +30819,10 @@
     </row>
     <row r="816" spans="2:6" ht="27.6">
       <c r="B816" s="13" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C816" s="12" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E816" s="10" t="s">
         <v>0</v>
@@ -30832,10 +30830,10 @@
     </row>
     <row r="817" spans="2:6">
       <c r="B817" s="13" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C817" s="12" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E817" s="10" t="s">
         <v>0</v>
@@ -30846,10 +30844,10 @@
     </row>
     <row r="818" spans="2:6">
       <c r="B818" s="13" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C818" s="12" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="E818" s="10" t="s">
         <v>0</v>
@@ -30860,10 +30858,10 @@
     </row>
     <row r="819" spans="2:6">
       <c r="B819" s="13" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C819" s="12" t="s">
         <v>2099</v>
-      </c>
-      <c r="C819" s="12" t="s">
-        <v>2100</v>
       </c>
       <c r="E819" s="10" t="s">
         <v>0</v>
@@ -30874,10 +30872,10 @@
     </row>
     <row r="820" spans="2:6" ht="27.6">
       <c r="B820" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C820" s="9" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="E820" s="10" t="s">
         <v>0</v>
@@ -30888,10 +30886,10 @@
     </row>
     <row r="821" spans="2:6" ht="41.4">
       <c r="B821" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C821" s="9" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E821" s="10" t="s">
         <v>0</v>
@@ -30902,10 +30900,10 @@
     </row>
     <row r="822" spans="2:6" ht="27.6">
       <c r="B822" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C822" s="9" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="E822" s="10" t="s">
         <v>0</v>
@@ -30916,10 +30914,10 @@
     </row>
     <row r="823" spans="2:6" ht="41.4">
       <c r="B823" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C823" s="17" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E823" s="10" t="s">
         <v>0</v>
@@ -30930,10 +30928,10 @@
     </row>
     <row r="824" spans="2:6" ht="41.4">
       <c r="B824" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C824" s="9" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E824" s="10" t="s">
         <v>0</v>
@@ -30944,10 +30942,10 @@
     </row>
     <row r="825" spans="2:6" ht="41.4">
       <c r="B825" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C825" s="9" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E825" s="10" t="s">
         <v>0</v>
@@ -30958,10 +30956,10 @@
     </row>
     <row r="826" spans="2:6" ht="41.4">
       <c r="B826" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C826" s="9" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E826" s="10" t="s">
         <v>0</v>
@@ -30972,10 +30970,10 @@
     </row>
     <row r="827" spans="2:6" ht="27.6">
       <c r="B827" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C827" s="17" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="E827" s="10" t="s">
         <v>0</v>
@@ -30986,10 +30984,10 @@
     </row>
     <row r="828" spans="2:6" ht="27.6">
       <c r="B828" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C828" s="9" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E828" s="10" t="s">
         <v>0</v>
@@ -31000,10 +30998,10 @@
     </row>
     <row r="829" spans="2:6" ht="27.6">
       <c r="B829" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C829" s="9" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="E829" s="10" t="s">
         <v>0</v>
@@ -31014,10 +31012,10 @@
     </row>
     <row r="830" spans="2:6" ht="41.4">
       <c r="B830" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C830" s="9" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="E830" s="10" t="s">
         <v>0</v>
@@ -31028,10 +31026,10 @@
     </row>
     <row r="831" spans="2:6" ht="41.4">
       <c r="B831" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C831" s="17" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="E831" s="10" t="s">
         <v>0</v>
@@ -31042,10 +31040,10 @@
     </row>
     <row r="832" spans="2:6" ht="41.4">
       <c r="B832" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C832" s="9" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="E832" s="10" t="s">
         <v>0</v>
@@ -31056,10 +31054,10 @@
     </row>
     <row r="833" spans="2:6" ht="41.4">
       <c r="B833" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C833" s="9" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E833" s="10" t="s">
         <v>0</v>
@@ -31070,10 +31068,10 @@
     </row>
     <row r="834" spans="2:6" ht="41.4">
       <c r="B834" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C834" s="9" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="E834" s="10" t="s">
         <v>0</v>
@@ -31084,10 +31082,10 @@
     </row>
     <row r="835" spans="2:6" ht="41.4">
       <c r="B835" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C835" s="17" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E835" s="10" t="s">
         <v>0</v>
@@ -31098,10 +31096,10 @@
     </row>
     <row r="836" spans="2:6" ht="27.6">
       <c r="B836" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C836" s="9" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="E836" s="10" t="s">
         <v>0</v>
@@ -31112,10 +31110,10 @@
     </row>
     <row r="837" spans="2:6" ht="41.4">
       <c r="B837" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C837" s="9" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="E837" s="10" t="s">
         <v>0</v>
@@ -31126,10 +31124,10 @@
     </row>
     <row r="838" spans="2:6" ht="41.4">
       <c r="B838" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C838" s="9" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="E838" s="10" t="s">
         <v>0</v>
@@ -31140,10 +31138,10 @@
     </row>
     <row r="839" spans="2:6" ht="41.4">
       <c r="B839" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C839" s="17" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="E839" s="10" t="s">
         <v>0</v>
@@ -31154,10 +31152,10 @@
     </row>
     <row r="840" spans="2:6" ht="41.4">
       <c r="B840" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C840" s="9" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="E840" s="10" t="s">
         <v>0</v>
@@ -31168,10 +31166,10 @@
     </row>
     <row r="841" spans="2:6" ht="41.4">
       <c r="B841" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C841" s="9" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="E841" s="10" t="s">
         <v>0</v>
@@ -31182,10 +31180,10 @@
     </row>
     <row r="842" spans="2:6" ht="41.4">
       <c r="B842" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C842" s="9" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="E842" s="10" t="s">
         <v>0</v>
@@ -31196,10 +31194,10 @@
     </row>
     <row r="843" spans="2:6" ht="41.4">
       <c r="B843" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="C843" s="17" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="E843" s="10" t="s">
         <v>0</v>
@@ -31210,10 +31208,10 @@
     </row>
     <row r="844" spans="2:6" ht="41.4">
       <c r="B844" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C844" s="9" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E844" s="10" t="s">
         <v>0</v>
@@ -31224,10 +31222,10 @@
     </row>
     <row r="845" spans="2:6" ht="27.6">
       <c r="B845" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C845" s="9" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E845" s="10" t="s">
         <v>0</v>
@@ -31238,10 +31236,10 @@
     </row>
     <row r="846" spans="2:6" ht="41.4">
       <c r="B846" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C846" s="9" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="E846" s="10" t="s">
         <v>0</v>
@@ -31252,10 +31250,10 @@
     </row>
     <row r="847" spans="2:6" ht="41.4">
       <c r="B847" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="C847" s="17" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="E847" s="10" t="s">
         <v>0</v>
@@ -31266,10 +31264,10 @@
     </row>
     <row r="848" spans="2:6" ht="41.4">
       <c r="B848" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C848" s="9" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="E848" s="10" t="s">
         <v>0</v>
@@ -31280,10 +31278,10 @@
     </row>
     <row r="849" spans="2:6" ht="27.6">
       <c r="B849" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="C849" s="9" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E849" s="10" t="s">
         <v>0</v>
@@ -32006,9 +32004,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32195,27 +32196,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32240,9 +32229,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Validatiematrix.xlsx
+++ b/Validatiematrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w.quak\Git\Geonovum\dso-validatiematrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECA793E-657A-4D91-B679-D91D6B194F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47809C72-A20D-463E-BFD1-E98FFDFB624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-384" yWindow="24" windowWidth="23016" windowHeight="12216" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Legenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validatieregels!$A$1:$K$819</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validatieregels!$A$1:$K$822</definedName>
     <definedName name="_Hlk45872431" localSheetId="0">Validatieregels!$D$147</definedName>
     <definedName name="_Hlk45872452" localSheetId="0">Validatieregels!$D$148</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Legenda!$A:$B</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5395" uniqueCount="2328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="2334">
   <si>
     <t>Blokkerend</t>
   </si>
@@ -7192,6 +7192,24 @@
   </si>
   <si>
     <t>Bij een definitief besluit MOGEN ALLEEN de volgende procedurestappen voorkomen: 'Vaststelling', 'Ondertekening'.</t>
+  </si>
+  <si>
+    <t>TPOD2050</t>
+  </si>
+  <si>
+    <t>TPOD2051</t>
+  </si>
+  <si>
+    <t>TPOD2052</t>
+  </si>
+  <si>
+    <t>Er mag hoogstens één Regeltekst-object naar een Artikel/Lid verwijzen.</t>
+  </si>
+  <si>
+    <t>Er mag hoogstens één OW Divisie-object naar een OP Divisie verwijzen.</t>
+  </si>
+  <si>
+    <t>Er mag hoogstens één OW Divisietekst-object naar een OP Divisietekst verwijzen.</t>
   </si>
 </sst>
 </file>
@@ -8720,14 +8738,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
-  <dimension ref="A1:K849"/>
+  <dimension ref="A1:K852"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C751" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="F759" sqref="F759:F761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -29822,96 +29840,78 @@
       <c r="J758" s="17"/>
       <c r="K758" s="17"/>
     </row>
-    <row r="759" spans="1:11" ht="27.6">
-      <c r="A759" s="9">
-        <v>8</v>
-      </c>
-      <c r="B759" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C759" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="D759" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E759" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F759" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G759" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="H759" s="9"/>
-      <c r="I759" s="9"/>
-      <c r="J759" s="9"/>
-      <c r="K759" s="9"/>
-    </row>
-    <row r="760" spans="1:11" ht="27.6">
-      <c r="A760" s="9">
-        <v>8</v>
-      </c>
-      <c r="B760" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C760" s="9" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D760" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E760" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F760" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G760" s="9" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H760" s="9"/>
-      <c r="I760" s="9"/>
-      <c r="J760" s="9"/>
-      <c r="K760" s="9"/>
-    </row>
-    <row r="761" spans="1:11" ht="27.6">
-      <c r="A761" s="9">
-        <v>8</v>
-      </c>
-      <c r="B761" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C761" s="9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D761" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E761" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F761" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G761" s="9" t="s">
-        <v>1602</v>
-      </c>
-      <c r="H761" s="9"/>
-      <c r="I761" s="9"/>
-      <c r="J761" s="9"/>
-      <c r="K761" s="9"/>
-    </row>
-    <row r="762" spans="1:11">
+    <row r="759" spans="1:11">
+      <c r="A759" s="16"/>
+      <c r="B759" s="16" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C759" s="17" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D759" s="16"/>
+      <c r="E759" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F759" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G759" s="17"/>
+      <c r="H759" s="17"/>
+      <c r="I759" s="17"/>
+      <c r="J759" s="17"/>
+      <c r="K759" s="17"/>
+    </row>
+    <row r="760" spans="1:11">
+      <c r="A760" s="16"/>
+      <c r="B760" s="16" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C760" s="17" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D760" s="16"/>
+      <c r="E760" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F760" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G760" s="17"/>
+      <c r="H760" s="17"/>
+      <c r="I760" s="17"/>
+      <c r="J760" s="17"/>
+      <c r="K760" s="17"/>
+    </row>
+    <row r="761" spans="1:11">
+      <c r="A761" s="16"/>
+      <c r="B761" s="16" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C761" s="17" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D761" s="16"/>
+      <c r="E761" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F761" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G761" s="17"/>
+      <c r="H761" s="17"/>
+      <c r="I761" s="17"/>
+      <c r="J761" s="17"/>
+      <c r="K761" s="17"/>
+    </row>
+    <row r="762" spans="1:11" ht="27.6">
       <c r="A762" s="9">
         <v>8</v>
       </c>
       <c r="B762" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C762" s="9" t="s">
-        <v>1777</v>
+        <v>490</v>
       </c>
       <c r="D762" s="9" t="s">
         <v>190</v>
@@ -29923,22 +29923,22 @@
         <v>2</v>
       </c>
       <c r="G762" s="9" t="s">
-        <v>1603</v>
+        <v>661</v>
       </c>
       <c r="H762" s="9"/>
       <c r="I762" s="9"/>
       <c r="J762" s="9"/>
       <c r="K762" s="9"/>
     </row>
-    <row r="763" spans="1:11">
+    <row r="763" spans="1:11" ht="27.6">
       <c r="A763" s="9">
         <v>8</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C763" s="9" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D763" s="9" t="s">
         <v>190</v>
@@ -29950,7 +29950,7 @@
         <v>2</v>
       </c>
       <c r="G763" s="9" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="H763" s="9"/>
       <c r="I763" s="9"/>
@@ -29958,41 +29958,41 @@
       <c r="K763" s="9"/>
     </row>
     <row r="764" spans="1:11" ht="27.6">
-      <c r="A764" s="16">
-        <v>6</v>
-      </c>
-      <c r="B764" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C764" s="17" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D764" s="16" t="s">
+      <c r="A764" s="9">
+        <v>8</v>
+      </c>
+      <c r="B764" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C764" s="9" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D764" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E764" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F764" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G764" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="H764" s="17"/>
-      <c r="I764" s="17"/>
-      <c r="J764" s="17"/>
-      <c r="K764" s="17"/>
+      <c r="E764" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F764" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G764" s="9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H764" s="9"/>
+      <c r="I764" s="9"/>
+      <c r="J764" s="9"/>
+      <c r="K764" s="9"/>
     </row>
     <row r="765" spans="1:11">
       <c r="A765" s="9">
         <v>8</v>
       </c>
       <c r="B765" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C765" s="9" t="s">
-        <v>195</v>
+        <v>1777</v>
       </c>
       <c r="D765" s="9" t="s">
         <v>190</v>
@@ -30004,7 +30004,7 @@
         <v>2</v>
       </c>
       <c r="G765" s="9" t="s">
-        <v>607</v>
+        <v>1603</v>
       </c>
       <c r="H765" s="9"/>
       <c r="I765" s="9"/>
@@ -30013,67 +30013,67 @@
     </row>
     <row r="766" spans="1:11">
       <c r="A766" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B766" s="9" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="C766" s="9" t="s">
-        <v>241</v>
+        <v>1775</v>
       </c>
       <c r="D766" s="9" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E766" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F766" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G766" s="9" t="s">
-        <v>659</v>
+        <v>1604</v>
       </c>
       <c r="H766" s="9"/>
       <c r="I766" s="9"/>
       <c r="J766" s="9"/>
       <c r="K766" s="9"/>
     </row>
-    <row r="767" spans="1:11">
-      <c r="A767" s="9">
-        <v>3</v>
-      </c>
-      <c r="B767" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C767" s="9" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D767" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E767" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F767" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G767" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="H767" s="9"/>
-      <c r="I767" s="9"/>
-      <c r="J767" s="9"/>
-      <c r="K767" s="9"/>
-    </row>
-    <row r="768" spans="1:11" ht="27.6">
+    <row r="767" spans="1:11" ht="27.6">
+      <c r="A767" s="16">
+        <v>6</v>
+      </c>
+      <c r="B767" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C767" s="17" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D767" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E767" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F767" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G767" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="H767" s="17"/>
+      <c r="I767" s="17"/>
+      <c r="J767" s="17"/>
+      <c r="K767" s="17"/>
+    </row>
+    <row r="768" spans="1:11">
       <c r="A768" s="9">
         <v>8</v>
       </c>
       <c r="B768" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C768" s="35" t="s">
-        <v>1817</v>
+        <v>194</v>
+      </c>
+      <c r="C768" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D768" s="9" t="s">
         <v>190</v>
@@ -30085,139 +30085,161 @@
         <v>2</v>
       </c>
       <c r="G768" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H768" s="9"/>
       <c r="I768" s="9"/>
       <c r="J768" s="9"/>
       <c r="K768" s="9"/>
     </row>
-    <row r="769" spans="1:11" ht="27.6">
-      <c r="A769" s="16">
+    <row r="769" spans="1:11">
+      <c r="A769" s="9">
+        <v>3</v>
+      </c>
+      <c r="B769" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C769" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D769" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E769" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F769" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G769" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="H769" s="9"/>
+      <c r="I769" s="9"/>
+      <c r="J769" s="9"/>
+      <c r="K769" s="9"/>
+    </row>
+    <row r="770" spans="1:11">
+      <c r="A770" s="9">
+        <v>3</v>
+      </c>
+      <c r="B770" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C770" s="9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D770" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E770" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F770" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G770" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="H770" s="9"/>
+      <c r="I770" s="9"/>
+      <c r="J770" s="9"/>
+      <c r="K770" s="9"/>
+    </row>
+    <row r="771" spans="1:11" ht="27.6">
+      <c r="A771" s="9">
+        <v>8</v>
+      </c>
+      <c r="B771" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C771" s="35" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D771" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E771" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F771" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G771" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="H771" s="9"/>
+      <c r="I771" s="9"/>
+      <c r="J771" s="9"/>
+      <c r="K771" s="9"/>
+    </row>
+    <row r="772" spans="1:11" ht="27.6">
+      <c r="A772" s="16">
         <v>7</v>
       </c>
-      <c r="B769" s="16" t="s">
+      <c r="B772" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="C769" s="17" t="s">
+      <c r="C772" s="17" t="s">
         <v>1816</v>
       </c>
-      <c r="D769" s="16" t="s">
+      <c r="D772" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E769" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F769" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G769" s="17" t="s">
+      <c r="E772" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F772" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G772" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="H769" s="17"/>
-      <c r="I769" s="17"/>
-      <c r="J769" s="17"/>
-      <c r="K769" s="17"/>
-    </row>
-    <row r="770" spans="1:11" ht="27.6">
-      <c r="A770" s="16">
+      <c r="H772" s="17"/>
+      <c r="I772" s="17"/>
+      <c r="J772" s="17"/>
+      <c r="K772" s="17"/>
+    </row>
+    <row r="773" spans="1:11" ht="27.6">
+      <c r="A773" s="16">
         <v>7</v>
       </c>
-      <c r="B770" s="16" t="s">
+      <c r="B773" s="16" t="s">
         <v>836</v>
       </c>
-      <c r="C770" s="17" t="s">
+      <c r="C773" s="17" t="s">
         <v>1815</v>
       </c>
-      <c r="D770" s="16" t="s">
+      <c r="D773" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E770" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F770" s="16" t="s">
+      <c r="E773" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F773" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G770" s="17" t="s">
+      <c r="G773" s="17" t="s">
         <v>1587</v>
       </c>
-      <c r="H770" s="17"/>
-      <c r="I770" s="17"/>
-      <c r="J770" s="17"/>
-      <c r="K770" s="17"/>
-    </row>
-    <row r="771" spans="1:11">
-      <c r="A771" s="41"/>
-      <c r="B771" s="13" t="s">
-        <v>2135</v>
-      </c>
-      <c r="C771" s="12" t="s">
-        <v>2147</v>
-      </c>
-      <c r="D771" s="41"/>
-      <c r="E771" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F771" s="42"/>
-      <c r="G771" s="41"/>
-      <c r="H771" s="41"/>
-      <c r="I771" s="41"/>
-      <c r="J771" s="41"/>
-      <c r="K771" s="41"/>
-    </row>
-    <row r="772" spans="1:11">
-      <c r="A772" s="41"/>
-      <c r="B772" s="13" t="s">
-        <v>2136</v>
-      </c>
-      <c r="C772" s="12" t="s">
-        <v>2148</v>
-      </c>
-      <c r="D772" s="41"/>
-      <c r="E772" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F772" s="42"/>
-      <c r="G772" s="41"/>
-      <c r="H772" s="41"/>
-      <c r="I772" s="41"/>
-      <c r="J772" s="41"/>
-      <c r="K772" s="41"/>
-    </row>
-    <row r="773" spans="1:11">
-      <c r="A773" s="41"/>
-      <c r="B773" s="13" t="s">
-        <v>2137</v>
-      </c>
-      <c r="C773" s="36" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D773" s="41"/>
-      <c r="E773" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F773" s="42"/>
-      <c r="G773" s="41"/>
-      <c r="H773" s="41"/>
-      <c r="I773" s="41"/>
-      <c r="J773" s="41"/>
-      <c r="K773" s="41"/>
+      <c r="H773" s="17"/>
+      <c r="I773" s="17"/>
+      <c r="J773" s="17"/>
+      <c r="K773" s="17"/>
     </row>
     <row r="774" spans="1:11">
       <c r="A774" s="41"/>
       <c r="B774" s="13" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="C774" s="12" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="D774" s="41"/>
       <c r="E774" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F774" s="42" t="s">
-        <v>2</v>
-      </c>
+      <c r="F774" s="42"/>
       <c r="G774" s="41"/>
       <c r="H774" s="41"/>
       <c r="I774" s="41"/>
@@ -30227,18 +30249,16 @@
     <row r="775" spans="1:11">
       <c r="A775" s="41"/>
       <c r="B775" s="13" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="C775" s="12" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="D775" s="41"/>
       <c r="E775" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F775" s="42" t="s">
-        <v>2</v>
-      </c>
+      <c r="F775" s="42"/>
       <c r="G775" s="41"/>
       <c r="H775" s="41"/>
       <c r="I775" s="41"/>
@@ -30248,10 +30268,10 @@
     <row r="776" spans="1:11">
       <c r="A776" s="41"/>
       <c r="B776" s="13" t="s">
-        <v>2140</v>
-      </c>
-      <c r="C776" s="12" t="s">
-        <v>2152</v>
+        <v>2137</v>
+      </c>
+      <c r="C776" s="36" t="s">
+        <v>2149</v>
       </c>
       <c r="D776" s="41"/>
       <c r="E776" s="10" t="s">
@@ -30267,10 +30287,10 @@
     <row r="777" spans="1:11">
       <c r="A777" s="41"/>
       <c r="B777" s="13" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="C777" s="12" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="D777" s="41"/>
       <c r="E777" s="10" t="s">
@@ -30288,10 +30308,10 @@
     <row r="778" spans="1:11">
       <c r="A778" s="41"/>
       <c r="B778" s="13" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="C778" s="12" t="s">
-        <v>2213</v>
+        <v>2151</v>
       </c>
       <c r="D778" s="41"/>
       <c r="E778" s="10" t="s">
@@ -30309,10 +30329,10 @@
     <row r="779" spans="1:11">
       <c r="A779" s="41"/>
       <c r="B779" s="13" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="C779" s="12" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="D779" s="41"/>
       <c r="E779" s="10" t="s">
@@ -30328,10 +30348,10 @@
     <row r="780" spans="1:11">
       <c r="A780" s="41"/>
       <c r="B780" s="13" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="C780" s="12" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="D780" s="41"/>
       <c r="E780" s="10" t="s">
@@ -30349,10 +30369,10 @@
     <row r="781" spans="1:11">
       <c r="A781" s="41"/>
       <c r="B781" s="13" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="C781" s="12" t="s">
-        <v>2156</v>
+        <v>2213</v>
       </c>
       <c r="D781" s="41"/>
       <c r="E781" s="10" t="s">
@@ -30370,10 +30390,10 @@
     <row r="782" spans="1:11">
       <c r="A782" s="41"/>
       <c r="B782" s="13" t="s">
-        <v>2146</v>
-      </c>
-      <c r="C782" s="36" t="s">
-        <v>2157</v>
+        <v>2143</v>
+      </c>
+      <c r="C782" s="12" t="s">
+        <v>2154</v>
       </c>
       <c r="D782" s="41"/>
       <c r="E782" s="10" t="s">
@@ -30389,231 +30409,253 @@
     <row r="783" spans="1:11">
       <c r="A783" s="41"/>
       <c r="B783" s="13" t="s">
-        <v>2062</v>
-      </c>
-      <c r="C783" s="36" t="s">
-        <v>2134</v>
-      </c>
+        <v>2144</v>
+      </c>
+      <c r="C783" s="12" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D783" s="41"/>
       <c r="E783" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F783" s="42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="784" spans="1:11" ht="27.6">
+      <c r="G783" s="41"/>
+      <c r="H783" s="41"/>
+      <c r="I783" s="41"/>
+      <c r="J783" s="41"/>
+      <c r="K783" s="41"/>
+    </row>
+    <row r="784" spans="1:11">
       <c r="A784" s="41"/>
       <c r="B784" s="13" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C784" s="12" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D784" s="41"/>
+      <c r="E784" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F784" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G784" s="41"/>
+      <c r="H784" s="41"/>
+      <c r="I784" s="41"/>
+      <c r="J784" s="41"/>
+      <c r="K784" s="41"/>
+    </row>
+    <row r="785" spans="1:11">
+      <c r="A785" s="41"/>
+      <c r="B785" s="13" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C785" s="36" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D785" s="41"/>
+      <c r="E785" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F785" s="42"/>
+      <c r="G785" s="41"/>
+      <c r="H785" s="41"/>
+      <c r="I785" s="41"/>
+      <c r="J785" s="41"/>
+      <c r="K785" s="41"/>
+    </row>
+    <row r="786" spans="1:11">
+      <c r="A786" s="41"/>
+      <c r="B786" s="13" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C786" s="36" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E786" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F786" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:11" ht="27.6">
+      <c r="A787" s="41"/>
+      <c r="B787" s="13" t="s">
         <v>2063</v>
       </c>
-      <c r="C784" s="12" t="s">
+      <c r="C787" s="12" t="s">
         <v>2133</v>
       </c>
-      <c r="E784" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F784" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="785" spans="2:6" ht="27.6">
-      <c r="B785" s="13" t="s">
+      <c r="E787" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F787" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:11" ht="27.6">
+      <c r="B788" s="13" t="s">
         <v>2064</v>
       </c>
-      <c r="C785" s="12" t="s">
+      <c r="C788" s="12" t="s">
         <v>2132</v>
       </c>
-      <c r="E785" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="786" spans="2:6" ht="27.6">
-      <c r="B786" s="13" t="s">
+      <c r="E788" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:11" ht="27.6">
+      <c r="B789" s="13" t="s">
         <v>2065</v>
       </c>
-      <c r="C786" s="11" t="s">
+      <c r="C789" s="11" t="s">
         <v>2131</v>
       </c>
-      <c r="E786" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F786" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="787" spans="2:6" ht="27.6">
-      <c r="B787" s="13" t="s">
+      <c r="E789" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F789" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:11" ht="27.6">
+      <c r="B790" s="13" t="s">
         <v>2066</v>
       </c>
-      <c r="C787" s="12" t="s">
+      <c r="C790" s="12" t="s">
         <v>2130</v>
       </c>
-      <c r="E787" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="788" spans="2:6">
-      <c r="B788" s="13" t="s">
+      <c r="E790" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:11">
+      <c r="B791" s="13" t="s">
         <v>2067</v>
       </c>
-      <c r="C788" s="12" t="s">
+      <c r="C791" s="12" t="s">
         <v>2129</v>
       </c>
-      <c r="E788" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F788" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="789" spans="2:6">
-      <c r="B789" s="13" t="s">
+      <c r="E791" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F791" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:11">
+      <c r="B792" s="13" t="s">
         <v>2068</v>
       </c>
-      <c r="C789" s="12" t="s">
+      <c r="C792" s="12" t="s">
         <v>2128</v>
       </c>
-      <c r="E789" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F789" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="790" spans="2:6">
-      <c r="B790" s="13" t="s">
+      <c r="E792" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F792" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:11">
+      <c r="B793" s="13" t="s">
         <v>2069</v>
       </c>
-      <c r="C790" s="12" t="s">
+      <c r="C793" s="12" t="s">
         <v>2127</v>
       </c>
-      <c r="E790" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791" spans="2:6">
-      <c r="B791" s="13" t="s">
+      <c r="E793" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:11">
+      <c r="B794" s="13" t="s">
         <v>2070</v>
       </c>
-      <c r="C791" s="12" t="s">
+      <c r="C794" s="12" t="s">
         <v>2126</v>
       </c>
-      <c r="E791" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F791" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="792" spans="2:6">
-      <c r="B792" s="13" t="s">
+      <c r="E794" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F794" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:11">
+      <c r="B795" s="13" t="s">
         <v>2071</v>
       </c>
-      <c r="C792" s="12" t="s">
+      <c r="C795" s="12" t="s">
         <v>2125</v>
       </c>
-      <c r="E792" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F792" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="793" spans="2:6">
-      <c r="B793" s="13" t="s">
+      <c r="E795" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F795" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:11">
+      <c r="B796" s="13" t="s">
         <v>2072</v>
       </c>
-      <c r="C793" s="12" t="s">
+      <c r="C796" s="12" t="s">
         <v>2124</v>
       </c>
-      <c r="E793" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="794" spans="2:6" ht="27.6">
-      <c r="B794" s="13" t="s">
+      <c r="E796" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11" ht="27.6">
+      <c r="B797" s="13" t="s">
         <v>2073</v>
       </c>
-      <c r="C794" s="12" t="s">
+      <c r="C797" s="12" t="s">
         <v>2123</v>
       </c>
-      <c r="E794" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F794" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="795" spans="2:6">
-      <c r="B795" s="13" t="s">
+      <c r="E797" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F797" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:11">
+      <c r="B798" s="13" t="s">
         <v>2074</v>
       </c>
-      <c r="C795" s="12" t="s">
+      <c r="C798" s="12" t="s">
         <v>2122</v>
       </c>
-      <c r="E795" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F795" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="796" spans="2:6">
-      <c r="B796" s="13" t="s">
+      <c r="E798" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F798" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:11">
+      <c r="B799" s="13" t="s">
         <v>2075</v>
       </c>
-      <c r="C796" s="12" t="s">
+      <c r="C799" s="12" t="s">
         <v>2117</v>
       </c>
-      <c r="E796" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="797" spans="2:6">
-      <c r="B797" s="13" t="s">
+      <c r="E799" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:11">
+      <c r="B800" s="13" t="s">
         <v>2076</v>
       </c>
-      <c r="C797" s="12" t="s">
+      <c r="C800" s="12" t="s">
         <v>2121</v>
-      </c>
-      <c r="E797" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F797" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="798" spans="2:6">
-      <c r="B798" s="13" t="s">
-        <v>2077</v>
-      </c>
-      <c r="C798" s="12" t="s">
-        <v>2120</v>
-      </c>
-      <c r="E798" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="799" spans="2:6" ht="27.6">
-      <c r="B799" s="13" t="s">
-        <v>2078</v>
-      </c>
-      <c r="C799" s="12" t="s">
-        <v>2119</v>
-      </c>
-      <c r="E799" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F799" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="800" spans="2:6">
-      <c r="B800" s="13" t="s">
-        <v>2079</v>
-      </c>
-      <c r="C800" s="12" t="s">
-        <v>2118</v>
       </c>
       <c r="E800" s="10" t="s">
         <v>0</v>
@@ -30624,10 +30666,10 @@
     </row>
     <row r="801" spans="2:6">
       <c r="B801" s="13" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="C801" s="12" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="E801" s="10" t="s">
         <v>0</v>
@@ -30635,10 +30677,10 @@
     </row>
     <row r="802" spans="2:6" ht="27.6">
       <c r="B802" s="13" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="C802" s="12" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="E802" s="10" t="s">
         <v>0</v>
@@ -30649,10 +30691,10 @@
     </row>
     <row r="803" spans="2:6">
       <c r="B803" s="13" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="C803" s="12" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="E803" s="10" t="s">
         <v>0</v>
@@ -30663,21 +30705,21 @@
     </row>
     <row r="804" spans="2:6">
       <c r="B804" s="13" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="C804" s="12" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="E804" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="2:6">
+    <row r="805" spans="2:6" ht="27.6">
       <c r="B805" s="13" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="C805" s="12" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="E805" s="10" t="s">
         <v>0</v>
@@ -30688,10 +30730,10 @@
     </row>
     <row r="806" spans="2:6">
       <c r="B806" s="13" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="C806" s="12" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="E806" s="10" t="s">
         <v>0</v>
@@ -30702,21 +30744,21 @@
     </row>
     <row r="807" spans="2:6">
       <c r="B807" s="13" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="C807" s="12" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="E807" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="2:6" ht="27.6">
+    <row r="808" spans="2:6">
       <c r="B808" s="13" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="C808" s="12" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="E808" s="10" t="s">
         <v>0</v>
@@ -30727,10 +30769,10 @@
     </row>
     <row r="809" spans="2:6">
       <c r="B809" s="13" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="C809" s="12" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="E809" s="10" t="s">
         <v>0</v>
@@ -30741,10 +30783,10 @@
     </row>
     <row r="810" spans="2:6">
       <c r="B810" s="13" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="C810" s="12" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="E810" s="10" t="s">
         <v>0</v>
@@ -30752,10 +30794,10 @@
     </row>
     <row r="811" spans="2:6" ht="27.6">
       <c r="B811" s="13" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="C811" s="12" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="E811" s="10" t="s">
         <v>0</v>
@@ -30766,10 +30808,10 @@
     </row>
     <row r="812" spans="2:6">
       <c r="B812" s="13" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="C812" s="12" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="E812" s="10" t="s">
         <v>0</v>
@@ -30780,10 +30822,10 @@
     </row>
     <row r="813" spans="2:6">
       <c r="B813" s="13" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="C813" s="12" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="E813" s="10" t="s">
         <v>0</v>
@@ -30791,10 +30833,10 @@
     </row>
     <row r="814" spans="2:6" ht="27.6">
       <c r="B814" s="13" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="C814" s="12" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="E814" s="10" t="s">
         <v>0</v>
@@ -30805,10 +30847,10 @@
     </row>
     <row r="815" spans="2:6">
       <c r="B815" s="13" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="C815" s="12" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="E815" s="10" t="s">
         <v>0</v>
@@ -30817,23 +30859,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="816" spans="2:6" ht="27.6">
+    <row r="816" spans="2:6">
       <c r="B816" s="13" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="C816" s="12" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="E816" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="2:6">
+    <row r="817" spans="2:6" ht="27.6">
       <c r="B817" s="13" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="C817" s="12" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="E817" s="10" t="s">
         <v>0</v>
@@ -30844,80 +30886,77 @@
     </row>
     <row r="818" spans="2:6">
       <c r="B818" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C818" s="12" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E818" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F818" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="819" spans="2:6" ht="27.6">
+      <c r="B819" s="13" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C819" s="12" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E819" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="2:6">
+      <c r="B820" s="13" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C820" s="12" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E820" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F820" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821" spans="2:6">
+      <c r="B821" s="13" t="s">
         <v>2097</v>
       </c>
-      <c r="C818" s="12" t="s">
+      <c r="C821" s="12" t="s">
         <v>2100</v>
       </c>
-      <c r="E818" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F818" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="819" spans="2:6">
-      <c r="B819" s="13" t="s">
+      <c r="E821" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F821" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="822" spans="2:6">
+      <c r="B822" s="13" t="s">
         <v>2098</v>
       </c>
-      <c r="C819" s="12" t="s">
+      <c r="C822" s="12" t="s">
         <v>2099</v>
       </c>
-      <c r="E819" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F819" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="820" spans="2:6" ht="27.6">
-      <c r="B820" t="s">
+      <c r="E822" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F822" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823" spans="2:6" ht="27.6">
+      <c r="B823" t="s">
         <v>2267</v>
       </c>
-      <c r="C820" s="9" t="s">
+      <c r="C823" s="9" t="s">
         <v>2297</v>
-      </c>
-      <c r="E820" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F820" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="821" spans="2:6" ht="41.4">
-      <c r="B821" t="s">
-        <v>2268</v>
-      </c>
-      <c r="C821" s="9" t="s">
-        <v>2298</v>
-      </c>
-      <c r="E821" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F821" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="822" spans="2:6" ht="27.6">
-      <c r="B822" t="s">
-        <v>2269</v>
-      </c>
-      <c r="C822" s="9" t="s">
-        <v>2299</v>
-      </c>
-      <c r="E822" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F822" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="823" spans="2:6" ht="41.4">
-      <c r="B823" t="s">
-        <v>2270</v>
-      </c>
-      <c r="C823" s="17" t="s">
-        <v>2300</v>
       </c>
       <c r="E823" s="10" t="s">
         <v>0</v>
@@ -30928,10 +30967,10 @@
     </row>
     <row r="824" spans="2:6" ht="41.4">
       <c r="B824" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="C824" s="9" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="E824" s="10" t="s">
         <v>0</v>
@@ -30940,12 +30979,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="2:6" ht="41.4">
+    <row r="825" spans="2:6" ht="27.6">
       <c r="B825" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="C825" s="9" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="E825" s="10" t="s">
         <v>0</v>
@@ -30956,10 +30995,10 @@
     </row>
     <row r="826" spans="2:6" ht="41.4">
       <c r="B826" t="s">
-        <v>2273</v>
-      </c>
-      <c r="C826" s="9" t="s">
-        <v>2303</v>
+        <v>2270</v>
+      </c>
+      <c r="C826" s="17" t="s">
+        <v>2300</v>
       </c>
       <c r="E826" s="10" t="s">
         <v>0</v>
@@ -30968,12 +31007,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="2:6" ht="27.6">
+    <row r="827" spans="2:6" ht="41.4">
       <c r="B827" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C827" s="17" t="s">
-        <v>2304</v>
+        <v>2271</v>
+      </c>
+      <c r="C827" s="9" t="s">
+        <v>2301</v>
       </c>
       <c r="E827" s="10" t="s">
         <v>0</v>
@@ -30982,12 +31021,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="828" spans="2:6" ht="27.6">
+    <row r="828" spans="2:6" ht="41.4">
       <c r="B828" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="C828" s="9" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="E828" s="10" t="s">
         <v>0</v>
@@ -30998,52 +31037,52 @@
     </row>
     <row r="829" spans="2:6" ht="27.6">
       <c r="B829" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C829" s="9" t="s">
+        <v>2303</v>
+      </c>
+      <c r="E829" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F829" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="830" spans="2:6" ht="27.6">
+      <c r="B830" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C830" s="17" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E830" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F830" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831" spans="2:6" ht="27.6">
+      <c r="B831" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C831" s="9" t="s">
+        <v>2305</v>
+      </c>
+      <c r="E831" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F831" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="832" spans="2:6" ht="27.6">
+      <c r="B832" t="s">
         <v>2276</v>
       </c>
-      <c r="C829" s="9" t="s">
+      <c r="C832" s="9" t="s">
         <v>2306</v>
-      </c>
-      <c r="E829" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F829" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="830" spans="2:6" ht="41.4">
-      <c r="B830" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C830" s="9" t="s">
-        <v>2307</v>
-      </c>
-      <c r="E830" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F830" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="831" spans="2:6" ht="41.4">
-      <c r="B831" t="s">
-        <v>2278</v>
-      </c>
-      <c r="C831" s="17" t="s">
-        <v>2308</v>
-      </c>
-      <c r="E831" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F831" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="832" spans="2:6" ht="41.4">
-      <c r="B832" t="s">
-        <v>2279</v>
-      </c>
-      <c r="C832" s="9" t="s">
-        <v>2309</v>
       </c>
       <c r="E832" s="10" t="s">
         <v>0</v>
@@ -31054,10 +31093,10 @@
     </row>
     <row r="833" spans="2:6" ht="41.4">
       <c r="B833" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C833" s="9" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="E833" s="10" t="s">
         <v>0</v>
@@ -31068,10 +31107,10 @@
     </row>
     <row r="834" spans="2:6" ht="41.4">
       <c r="B834" t="s">
-        <v>2281</v>
-      </c>
-      <c r="C834" s="9" t="s">
-        <v>2311</v>
+        <v>2278</v>
+      </c>
+      <c r="C834" s="17" t="s">
+        <v>2308</v>
       </c>
       <c r="E834" s="10" t="s">
         <v>0</v>
@@ -31082,10 +31121,10 @@
     </row>
     <row r="835" spans="2:6" ht="41.4">
       <c r="B835" t="s">
-        <v>2282</v>
-      </c>
-      <c r="C835" s="17" t="s">
-        <v>2312</v>
+        <v>2279</v>
+      </c>
+      <c r="C835" s="9" t="s">
+        <v>2309</v>
       </c>
       <c r="E835" s="10" t="s">
         <v>0</v>
@@ -31094,12 +31133,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="836" spans="2:6" ht="27.6">
+    <row r="836" spans="2:6" ht="41.4">
       <c r="B836" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="C836" s="9" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="E836" s="10" t="s">
         <v>0</v>
@@ -31110,10 +31149,10 @@
     </row>
     <row r="837" spans="2:6" ht="41.4">
       <c r="B837" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="C837" s="9" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="E837" s="10" t="s">
         <v>0</v>
@@ -31124,10 +31163,10 @@
     </row>
     <row r="838" spans="2:6" ht="41.4">
       <c r="B838" t="s">
-        <v>2285</v>
-      </c>
-      <c r="C838" s="9" t="s">
-        <v>2315</v>
+        <v>2282</v>
+      </c>
+      <c r="C838" s="17" t="s">
+        <v>2312</v>
       </c>
       <c r="E838" s="10" t="s">
         <v>0</v>
@@ -31136,12 +31175,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="839" spans="2:6" ht="41.4">
+    <row r="839" spans="2:6" ht="27.6">
       <c r="B839" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C839" s="17" t="s">
-        <v>2316</v>
+        <v>2283</v>
+      </c>
+      <c r="C839" s="9" t="s">
+        <v>2313</v>
       </c>
       <c r="E839" s="10" t="s">
         <v>0</v>
@@ -31152,10 +31191,10 @@
     </row>
     <row r="840" spans="2:6" ht="41.4">
       <c r="B840" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="C840" s="9" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="E840" s="10" t="s">
         <v>0</v>
@@ -31166,10 +31205,10 @@
     </row>
     <row r="841" spans="2:6" ht="41.4">
       <c r="B841" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="C841" s="9" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="E841" s="10" t="s">
         <v>0</v>
@@ -31180,10 +31219,10 @@
     </row>
     <row r="842" spans="2:6" ht="41.4">
       <c r="B842" t="s">
-        <v>2289</v>
-      </c>
-      <c r="C842" s="9" t="s">
-        <v>2319</v>
+        <v>2286</v>
+      </c>
+      <c r="C842" s="17" t="s">
+        <v>2316</v>
       </c>
       <c r="E842" s="10" t="s">
         <v>0</v>
@@ -31194,10 +31233,10 @@
     </row>
     <row r="843" spans="2:6" ht="41.4">
       <c r="B843" t="s">
-        <v>2290</v>
-      </c>
-      <c r="C843" s="17" t="s">
-        <v>2320</v>
+        <v>2287</v>
+      </c>
+      <c r="C843" s="9" t="s">
+        <v>2317</v>
       </c>
       <c r="E843" s="10" t="s">
         <v>0</v>
@@ -31208,10 +31247,10 @@
     </row>
     <row r="844" spans="2:6" ht="41.4">
       <c r="B844" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="C844" s="9" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="E844" s="10" t="s">
         <v>0</v>
@@ -31220,12 +31259,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="845" spans="2:6" ht="27.6">
+    <row r="845" spans="2:6" ht="41.4">
       <c r="B845" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="C845" s="9" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="E845" s="10" t="s">
         <v>0</v>
@@ -31236,10 +31275,10 @@
     </row>
     <row r="846" spans="2:6" ht="41.4">
       <c r="B846" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C846" s="9" t="s">
-        <v>2323</v>
+        <v>2290</v>
+      </c>
+      <c r="C846" s="17" t="s">
+        <v>2320</v>
       </c>
       <c r="E846" s="10" t="s">
         <v>0</v>
@@ -31250,48 +31289,90 @@
     </row>
     <row r="847" spans="2:6" ht="41.4">
       <c r="B847" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C847" s="9" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E847" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F847" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="848" spans="2:6" ht="27.6">
+      <c r="B848" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C848" s="9" t="s">
+        <v>2322</v>
+      </c>
+      <c r="E848" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F848" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="849" spans="2:6" ht="41.4">
+      <c r="B849" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C849" s="9" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E849" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F849" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="850" spans="2:6" ht="41.4">
+      <c r="B850" t="s">
         <v>2294</v>
       </c>
-      <c r="C847" s="17" t="s">
+      <c r="C850" s="17" t="s">
         <v>2324</v>
       </c>
-      <c r="E847" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F847" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="848" spans="2:6" ht="41.4">
-      <c r="B848" t="s">
+      <c r="E850" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F850" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="851" spans="2:6" ht="41.4">
+      <c r="B851" t="s">
         <v>2295</v>
       </c>
-      <c r="C848" s="9" t="s">
+      <c r="C851" s="9" t="s">
         <v>2325</v>
       </c>
-      <c r="E848" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F848" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="849" spans="2:6" ht="27.6">
-      <c r="B849" t="s">
+      <c r="E851" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F851" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="852" spans="2:6" ht="27.6">
+      <c r="B852" t="s">
         <v>2296</v>
       </c>
-      <c r="C849" s="9" t="s">
+      <c r="C852" s="9" t="s">
         <v>2326</v>
       </c>
-      <c r="E849" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F849" s="42" t="s">
+      <c r="E852" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F852" s="42" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K819" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}"/>
+  <autoFilter ref="A1:K822" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A4:A67 E24:F744 A69:A107 A235:A254 A257:C258">
     <cfRule type="containsText" dxfId="74" priority="566" operator="containsText" text="&lt;?&gt;">
@@ -31548,9 +31629,9 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C682)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C768">
+  <conditionalFormatting sqref="C771">
     <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C768)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C771)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:E81">
@@ -31618,7 +31699,7 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F259)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F597 F643:F650 F652:F662 F665:F666 F669:F670 F672:F679 F695 F770">
+  <conditionalFormatting sqref="F597 F643:F650 F652:F662 F665:F666 F669:F670 F672:F679 F695 F773">
     <cfRule type="containsText" dxfId="9" priority="105" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F597)))</formula>
     </cfRule>
@@ -32013,6 +32094,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100216A073BBB3FB3429D87D77C40313058" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8cfc1d06a525c7d4ea1098b3952a2226">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="385505e6-e5d7-4f1a-b335-045f4e6272b3" xmlns:ns3="86b5f7f7-2f15-447a-b5f6-1e4312ec3a6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67eef51872945492eed3b93ded28523b" ns2:_="" ns3:_="">
     <xsd:import namespace="385505e6-e5d7-4f1a-b335-045f4e6272b3"/>
@@ -32195,12 +32282,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
   <ds:schemaRefs>
@@ -32210,6 +32291,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD65B255-3494-4F5F-976E-876698EF30C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32226,21 +32324,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>